--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -5,9 +5,9 @@
   <sheets>
     <sheet state="hidden" name="시즌 정리" sheetId="1" r:id="rId4"/>
     <sheet state="hidden" name="22년 샘프리그(22)" sheetId="2" r:id="rId5"/>
-    <sheet state="hidden" name="타자_raw" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="타자_raw" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="타자" sheetId="4" r:id="rId7"/>
-    <sheet state="hidden" name="투수_raw" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="투수_raw" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="투수" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="선수" sheetId="7" r:id="rId10"/>
     <sheet state="hidden" name="22년 드림즈(23)" sheetId="8" r:id="rId11"/>
@@ -18,14 +18,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="Sy30Knaj3BT+KxyR3NWclOUEfWE/Y2qs61LeD3hgtlI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="9pThimvFzqoRMne64bs2czFYev21wRY/RC6MBDXgaac="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="166">
   <si>
     <t>◎ 라스칼 통산 성적</t>
   </si>
@@ -231,6 +231,9 @@
     <t>SB</t>
   </si>
   <si>
+    <t>DEF</t>
+  </si>
+  <si>
     <t>탈삼진율</t>
   </si>
   <si>
@@ -294,13 +297,109 @@
     <t>P</t>
   </si>
   <si>
+    <t>0.2이닝</t>
+  </si>
+  <si>
+    <t>방향을  먼저 잡은 후에 속도를 내야합니다. 
+인생도, \n공부도,\n 야구도.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="15.0"/>
+      </rPr>
+      <t xml:space="preserve">"Easy." 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>- 전혀 Easy 하지 않았음.</t>
+    </r>
+  </si>
+  <si>
     <t>KWON HUCK JIN</t>
   </si>
   <si>
     <t>1B</t>
   </si>
   <si>
+    <t>비버마스터</t>
+  </si>
+  <si>
+    <t>포수 포지션 경쟁 끝에 새로운 집을 짓기로 한 비버마스터.
+아이쿠, 이미 1루에 자리잡으려는 세력들이 있군요.
+탄탄한 집을 짓는 비버들과 외야에서 쫒겨나 흉폭한 비버까지.
+비버마스터 혁진권은 이번에야말로 자신의 집을 완성할 수 있을까요?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">"감독님 하반기 목표 있습니다. 하반기 주전 1루 먹을겁니다."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>-전혀 먹지 못했음.</t>
+    </r>
+  </si>
+  <si>
     <t>KIM KI TAE</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>인사불성</t>
+  </si>
+  <si>
+    <t>안동김가 핏줄의 강한 어깨와 장남의 지갑이 합쳐져 엄청난 포수가 탄생했습니다.
+위협적이고 강력한 경쟁자의 탄생.
+지원자가 없어 헤이해졌던 기존 포수들 사이로 긴장감이 흐릅니다.
+어떤 선수는 일찌감치 주 포지션을 바꾸기까지 합니다.
+하지만 좋은 포수는 피지컬만으로 결정되는 것이 아니라는걸 명심하세요.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">"내가 알아서 조절해서 내일 시합에 지장 없도록 할께."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">-전혀 조절하지 못했음.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>술 선수 김기태를 상대로 시즌 2승을 올립니다.
+연패의 늪에 빠져 정신없이 전화를 돌리는 김기태.</t>
+    </r>
   </si>
   <si>
     <t>KIM MIN SEOK</t>
@@ -309,7 +408,26 @@
     <t>LF</t>
   </si>
   <si>
+    <t>딸깍</t>
+  </si>
+  <si>
+    <t>라스칼 필살의 자택 오퍼레이터.
+범신교 신자로서 신앙심이 투철하다.
+연말이 되면 진가를 발휘한다.
+[필살 자택시리즈, "딸깍"]</t>
+  </si>
+  <si>
+    <t>"누군 놀고먹고 있는 줄 아십니까. 저도 일 중이라고요."
+(딸깍)</t>
+  </si>
+  <si>
     <t>KIM BEOM HUI</t>
+  </si>
+  <si>
+    <t>神</t>
+  </si>
+  <si>
+    <t>개근상</t>
   </si>
   <si>
     <t>범신의 교리 1:1
@@ -321,16 +439,113 @@
 범신의 사랑 3:12-15
 "범신의 사랑은 영원하며, 그는 우리를 용서하고 다시 태어나게 하시노니, 그의 무한한 사랑에 믿음을 가지라. 우리가 그의 이름으로 모든 것을 굴복시키면, 그의 사랑이 우리에게 흐르며, 파괴와 부정을 극복할 것이라."
 범신의 신자 5:3-6
-"범신의 신자들은 파괴와 재탄생의 순환을 환영하며, 압도적인 힘을 통해 세계를 변화시키고 모험을 향해 나아간다. 그의 이름으로 우리는 파괴와 부정에 맞서고, 모든 것을 무질서하게 만들며, 이로써 진리를 찾아갈 것이니, 이것이 범신의 뜻이니라."</t>
+"범신의 신자들은 파괴와 재탄생의 순환을 환영하며, 압도적인 힘을 통해 세계를 변화시키고 모험을 향해 나아간다. 그의 이름으로 우리는 파괴와 부정에 맞서고, 모든 것을 무질서하게 만들며, 이로써 진리를 찾아갈 것이니, 이것이 범신의 뜻이니라."
+범신의 신자 23:10-6
+"범신이 탄식하며 이르되, 먼 동토의 어리석은 어린양이 나를 원하노니, 악을 범하지 않는 악동들아 나는 망각 없는 믿음의 좌에서 탄생할 것인 즉, 지나온 달이 마지막 달에 해로 떠올라 비추면 비로서 돌아오리라."
+범신의 신자 23:12-9
+"범신이 마침내 돌아와 자리하시며 스물하나의 악동들이 기꺼워 환호하노니, 이윽고 축제와 함께 새로운 한 해를 약속받으리라."</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="15.0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;- </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>출장 날짜랑 
+총회 날짜로 추가하면
+ 재밌을 것 같아서
+ 만들어봤는데 
+보고 첨삭하거나
+ 수정해주셈</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">"괜찮음. 어차피 리그 막바지 되면 다 복구되더라." 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>- 전혀 복구되지 않았음.</t>
+    </r>
+  </si>
+  <si>
+    <t>M.A.P</t>
   </si>
   <si>
     <t>KIM BYEONG JIN</t>
   </si>
   <si>
+    <t>웅삐</t>
+  </si>
+  <si>
+    <t>짧은 시간 투수로서의 가능성만큼은 보여주고 떠납니다.
+다행히 더 좋은 주인을 만나 유니폼을 새로 살 필요는 없을 것 같습니다.
+새로운 도전과 목표를 응원하며, 팀에 돌아오는 그날을 기대합니다.</t>
+  </si>
+  <si>
+    <t>"그래서 이제 매니저 누가함. 누구한테 인수인계 하면 됨?"</t>
+  </si>
+  <si>
     <t>KIM JEA YOUNG</t>
   </si>
   <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>보법</t>
+  </si>
+  <si>
+    <t>2023년은 라스칼의 선봉대장 김재영의 해였습니다.
+1번타자 - 타율 1위 , 출루율 1위, 도루 1위, 득점 1위, V.C 1위
+축하합니다.
+2023년 Rascal MVP는 김재영 선수입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">라스칼 MVP 
+(개인 커리어 13연패)
+(울산 이직 후에도 24년 총무 확정)
+</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
     <t>KIM TAE YANG</t>
+  </si>
+  <si>
+    <t>UFC직관</t>
+  </si>
+  <si>
+    <t>정찬성 선수는 알고있었을까요? 
+코리안 존존스가 당신을 지켜봤다는걸요.
+먼 외국에 UFC 직관은 가는데, 
+대구에서하는 야구경기는 참여하지 않는다구요?
+걱정마세요! 8월 27일 라스칼 경기는 우천취소되었습니다.</t>
+  </si>
+  <si>
+    <t>KIM HYUN CHEOL</t>
+  </si>
+  <si>
+    <t>2B</t>
   </si>
   <si>
     <t>KIM HYUNG JUN</t>
@@ -342,8 +557,34 @@
     <t>CF</t>
   </si>
   <si>
-    <t>공을 향해, 1루를 향해 누구보다도 열렬히 뛰던 당신의 만세를 기억합니다. 
-물론 타법이 아닌 수비였지만요.</t>
+    <t>탈주</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">공을 향해, 1루를 향해 누구보다도 열렬히 뛰던 당신의 만세를 기억합니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="15.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>아, 물론 타법이 아닌 수비였지만요.</t>
+    </r>
   </si>
   <si>
     <t>내 은퇴에도 다 서사가 있다.</t>
@@ -352,16 +593,42 @@
     <t>NAM DONG SOO</t>
   </si>
   <si>
+    <t>하이볼</t>
+  </si>
+  <si>
+    <t>올 한해 짧은 시간이지만 타격과 수비 모두 무섭게 성장하고 있습니다.
+하지만 여전히 가슴 높이 하이볼에 자주 배트가 끌려나와 아쉬운 모습입니다.
+24년에는 또다른 라스칼의 선봉대장으로서 다치지않고
+호타준족, 작전수행 능력까지 두루 갖춘 선수로 발전하길 기대합니다.</t>
+  </si>
+  <si>
+    <t>"동수 여전히 I야?"
+"저는 무조건 I입니다."
+-데드볼을 맞춘 투수를 잡아먹을 듯 노려보며.</t>
+  </si>
+  <si>
     <t>RYU DONG HYUN</t>
+  </si>
+  <si>
+    <t>류날두</t>
   </si>
   <si>
     <t>PARK YOUNG JUN</t>
   </si>
   <si>
-    <t>누구보다 매 순간에 열정과 진심을 쏟아부어 분위기를 살리는 낭만파 선수가 팀에 입단하였습니다. 향후 발전을 기대합니다.</t>
+    <t>해병대</t>
   </si>
   <si>
-    <t>알빠노? 어차피 우리가 이겨! 영~차!</t>
+    <t>매 순간 진심을 쏟아 팀 분위기에 불을 지피는 낭만파 선수가 팀에 입단하였습니다. 
+이 선수와 함께라면 겨울에도 라스칼의 열기는 꺼지지 않을 것 입니다. 영차!</t>
+  </si>
+  <si>
+    <t>"야 민석아! 영준이 해병대 나왔대."
+"아 그래요? 혹시 몇 기.."
+"필승! 1211기 입니다!"
+"아 ㅎ 저 육군 나왔어요."
+"..."
+- 2023년 9월 24일 방천구장에서</t>
   </si>
   <si>
     <t>PARK JAE HYUN</t>
@@ -373,13 +640,23 @@
     <t>BAEK JEONG CHEOL</t>
   </si>
   <si>
+    <t>원정대장</t>
+  </si>
+  <si>
+    <t>올해 이 선수의 진가를 수비에서 보았습니다.
+이 선수의 수비 범위로 타구가 날아가면
+모든 선수들이 안심하고 미리 교대 준비를 했습니다.
+축하합니다.
+올해의 Golden Glove 는 백정철 선수입니다.</t>
+  </si>
+  <si>
+    <t>GoldenGlove</t>
+  </si>
+  <si>
     <t>LEE DONG JIN</t>
   </si>
   <si>
     <t>LEE CHEOL MIN</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>LIM JI HEON</t>
@@ -427,7 +704,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -501,6 +778,46 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Google Sans Mono"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Google Sans Mono"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -566,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -682,13 +999,49 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -866,11 +1219,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="183781235"/>
-        <c:axId val="199529330"/>
+        <c:axId val="1537343401"/>
+        <c:axId val="689137778"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183781235"/>
+        <c:axId val="1537343401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,10 +1275,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199529330"/>
+        <c:crossAx val="689137778"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199529330"/>
+        <c:axId val="689137778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +1342,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183781235"/>
+        <c:crossAx val="1537343401"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1221,11 +1574,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1314622609"/>
-        <c:axId val="52498069"/>
+        <c:axId val="169154550"/>
+        <c:axId val="1733370433"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1314622609"/>
+        <c:axId val="169154550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,10 +1630,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52498069"/>
+        <c:crossAx val="1733370433"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52498069"/>
+        <c:axId val="1733370433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1697,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1314622609"/>
+        <c:crossAx val="169154550"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1576,11 +1929,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="167749784"/>
-        <c:axId val="1563954820"/>
+        <c:axId val="18541064"/>
+        <c:axId val="1748713972"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167749784"/>
+        <c:axId val="18541064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,10 +1985,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1563954820"/>
+        <c:crossAx val="1748713972"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1563954820"/>
+        <c:axId val="1748713972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +2052,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167749784"/>
+        <c:crossAx val="18541064"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1971,11 +2324,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1960446139"/>
-        <c:axId val="19318373"/>
+        <c:axId val="1507672690"/>
+        <c:axId val="1879925531"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1960446139"/>
+        <c:axId val="1507672690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,10 +2380,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19318373"/>
+        <c:crossAx val="1879925531"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19318373"/>
+        <c:axId val="1879925531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2447,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1960446139"/>
+        <c:crossAx val="1507672690"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2195,11 +2548,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="501747096"/>
-        <c:axId val="936565396"/>
+        <c:axId val="1055154643"/>
+        <c:axId val="1666226124"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501747096"/>
+        <c:axId val="1055154643"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,10 +2604,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="936565396"/>
+        <c:crossAx val="1666226124"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="936565396"/>
+        <c:axId val="1666226124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2319,7 +2672,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501747096"/>
+        <c:crossAx val="1055154643"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
@@ -4068,7 +4421,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -4078,10 +4431,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>33</v>
@@ -5001,7 +5354,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="43">
+      <c r="C25" s="55">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
@@ -5037,23 +5390,23 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
@@ -5062,10 +5415,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -5074,7 +5427,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>49</v>
@@ -5104,7 +5457,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>58</v>
@@ -12903,7 +13256,7 @@
         <v>67</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>60</v>
@@ -13007,6 +13360,7 @@
         <f>round('타자_raw'!H5,0)</f>
         <v>100</v>
       </c>
+      <c r="I4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -13499,16 +13853,16 @@
         <v>58</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>32</v>
@@ -13555,7 +13909,7 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="30">
         <f>MAX(B3:B7)</f>
@@ -14068,22 +14422,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
@@ -14095,8 +14449,8 @@
         <v>22</v>
       </c>
       <c r="C2" s="15">
-        <f>round((100-'투수_raw'!C3) / (100-'투수_raw'!C$2) * 100, 0)</f>
-        <v>79</v>
+        <f>round(('투수_raw'!C$2)/('투수_raw'!C3) * 100, 0)</f>
+        <v>27</v>
       </c>
       <c r="D2" s="15">
         <f>round('투수_raw'!D3 / '투수_raw'!D$2 * 100, 0)</f>
@@ -14123,8 +14477,8 @@
         <v>44</v>
       </c>
       <c r="C3" s="15">
-        <f>round((100-'투수_raw'!C4) / (100-'투수_raw'!C$2) * 100, 0)</f>
-        <v>83</v>
+        <f>round(('투수_raw'!C$2)/('투수_raw'!C4) * 100, 0)</f>
+        <v>32</v>
       </c>
       <c r="D3" s="15">
         <f>round('투수_raw'!D4 / '투수_raw'!D$2 * 100, 0)</f>
@@ -14151,7 +14505,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="15">
-        <f>round((100-'투수_raw'!C5) / (100-'투수_raw'!C$2) * 100, 0)</f>
+        <f>round(('투수_raw'!C$2)/('투수_raw'!C5) * 100, 0)</f>
         <v>100</v>
       </c>
       <c r="D4" s="15">
@@ -14179,8 +14533,8 @@
         <v>56</v>
       </c>
       <c r="C5" s="15">
-        <f>round((100-'투수_raw'!C6) / (100-'투수_raw'!C$2) * 100, 0)</f>
-        <v>86</v>
+        <f>round(('투수_raw'!C$2)/('투수_raw'!C6) * 100, 0)</f>
+        <v>36</v>
       </c>
       <c r="D5" s="15">
         <f>round('투수_raw'!D6 / '투수_raw'!D$2 * 100, 0)</f>
@@ -14207,8 +14561,8 @@
         <v>100</v>
       </c>
       <c r="C6" s="15">
-        <f>round((100-'투수_raw'!C7) / (100-'투수_raw'!C$2) * 100, 0)</f>
-        <v>84</v>
+        <f>round(('투수_raw'!C$2)/('투수_raw'!C7) * 100, 0)</f>
+        <v>33</v>
       </c>
       <c r="D6" s="15">
         <f>round('투수_raw'!D7 / '투수_raw'!D$2 * 100, 0)</f>
@@ -14252,42 +14606,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>8</v>
@@ -14296,24 +14650,27 @@
         <v>29.0</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="38" t="str">
-        <f t="shared" ref="E2:E23" si="1">RIGHT(B2,LEN(B2) - 1)</f>
-        <v>강현</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="F2" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+        <v>7.0</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>9</v>
@@ -14322,24 +14679,27 @@
         <v>10.0</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>혁진</v>
+        <v>94</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="F3" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>10</v>
@@ -14347,23 +14707,28 @@
       <c r="C4" s="36">
         <v>50.0</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>기태</v>
+      <c r="D4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F4" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5">
       <c r="A5" s="36" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>11</v>
@@ -14372,24 +14737,27 @@
         <v>12.0</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>민석</v>
+        <v>104</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="F5" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6">
       <c r="A6" s="36" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>12</v>
@@ -14397,25 +14765,32 @@
       <c r="C6" s="36">
         <v>46.0</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>범희</v>
+      <c r="D6" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+        <v>100.0</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="38" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>13</v>
@@ -14423,25 +14798,28 @@
       <c r="C7" s="36">
         <v>91.0</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>병진</v>
+      <c r="D7" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F7" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>14</v>
@@ -14449,23 +14827,30 @@
       <c r="C8" s="36">
         <v>3.0</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>재영</v>
+      <c r="D8" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="F8" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+        <v>100.0</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="38" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>15</v>
@@ -14473,43 +14858,49 @@
       <c r="C9" s="36">
         <v>27.0</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>태양</v>
+      <c r="D9" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>126</v>
       </c>
       <c r="F9" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36" t="s">
+        <v>128</v>
+      </c>
       <c r="B10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>현철</v>
-      </c>
+      <c r="C10" s="36">
+        <v>13.0</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="50"/>
       <c r="F10" s="38">
         <v>50.0</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>17</v>
@@ -14518,48 +14909,50 @@
         <v>25.0</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="39" t="str">
+        <v>89</v>
+      </c>
+      <c r="E11" s="50" t="str">
+        <f t="shared" ref="E11:E12" si="1">RIGHT(B11,LEN(B11) - 1)</f>
+        <v>형준</v>
+      </c>
+      <c r="F11" s="38">
+        <v>50.0</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="36">
+        <v>25.0</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="50" t="str">
         <f t="shared" si="1"/>
         <v>형준</v>
       </c>
-      <c r="F11" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="36">
-        <v>25.0</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>형준</v>
-      </c>
       <c r="F12" s="38">
         <v>50.0</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>18</v>
@@ -14568,28 +14961,27 @@
         <v>21.0</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>희제</v>
+        <v>132</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="F13" s="38">
-        <v>50.0</v>
+        <v>2.0</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
+        <v>134</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>19</v>
@@ -14597,23 +14989,28 @@
       <c r="C14" s="36">
         <v>55.0</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>동수</v>
+      <c r="D14" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="F14" s="38">
         <v>50.0</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="G14" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>20</v>
@@ -14622,52 +15019,52 @@
         <v>88.0</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>동현</v>
+        <v>89</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="F15" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+        <v>9.0</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="36">
+        <v>0.0</v>
+      </c>
       <c r="D16" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>영준</v>
+        <v>132</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>143</v>
       </c>
       <c r="F16" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+        <v>30.0</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>22</v>
@@ -14676,24 +15073,24 @@
         <v>18.0</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="39" t="str">
-        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="E17" s="50" t="str">
+        <f>RIGHT(B17,LEN(B17) - 1)</f>
         <v>재현</v>
       </c>
       <c r="F17" s="38">
         <v>50.0</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>23</v>
@@ -14701,23 +15098,28 @@
       <c r="C18" s="36">
         <v>100.0</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>정철</v>
+      <c r="D18" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="F18" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
+        <v>100.0</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="51" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>24</v>
@@ -14726,24 +15128,21 @@
         <v>17.0</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>동진</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E19" s="50"/>
       <c r="F19" s="38">
         <v>50.0</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>25</v>
@@ -14752,24 +15151,21 @@
         <v>14.0</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>철민</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E20" s="50"/>
       <c r="F20" s="38">
         <v>50.0</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21">
       <c r="A21" s="36" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>26</v>
@@ -14778,24 +15174,24 @@
         <v>56.0</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="39" t="str">
-        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="E21" s="50" t="str">
+        <f t="shared" ref="E21:E23" si="2">RIGHT(B21,LEN(B21) - 1)</f>
         <v>지헌</v>
       </c>
       <c r="F21" s="38">
         <v>50.0</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22">
       <c r="A22" s="36" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>27</v>
@@ -14803,25 +15199,25 @@
       <c r="C22" s="36">
         <v>1.0</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="39" t="str">
-        <f t="shared" si="1"/>
+      <c r="D22" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="50" t="str">
+        <f t="shared" si="2"/>
         <v>태형</v>
       </c>
       <c r="F22" s="38">
         <v>50.0</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23">
       <c r="A23" s="36" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>28</v>
@@ -14830,18 +15226,18 @@
         <v>20.0</v>
       </c>
       <c r="D23" s="37"/>
-      <c r="E23" s="39" t="str">
-        <f t="shared" si="1"/>
+      <c r="E23" s="50" t="str">
+        <f t="shared" si="2"/>
         <v>현철</v>
       </c>
       <c r="F23" s="38">
         <v>50.0</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -14870,7 +15266,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -14964,40 +15360,40 @@
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="53">
         <v>5.0</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="54">
         <v>0.5</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="53">
         <v>12.0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="53">
         <v>8.0</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="53">
         <v>4.0</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="53">
         <v>3.0</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="53">
         <v>5.0</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="53">
         <v>1.0</v>
       </c>
       <c r="J5" s="15">
         <v>4.0</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="53">
         <v>3.0</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="54">
         <v>0.5</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="54">
         <v>0.667</v>
       </c>
     </row>
@@ -15005,40 +15401,40 @@
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="53">
         <v>6.0</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="54">
         <v>0.417</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="53">
         <v>15.0</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="53">
         <v>12.0</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="53">
         <v>5.0</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="53">
         <v>8.0</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="53">
         <v>7.0</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="53">
         <v>3.0</v>
       </c>
       <c r="J6" s="15">
         <v>3.0</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="53">
         <v>2.0</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="54">
         <v>0.667</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="54">
         <v>0.533</v>
       </c>
     </row>
@@ -15046,40 +15442,40 @@
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="53">
         <v>1.0</v>
       </c>
-      <c r="C7" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="C7" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="53">
         <v>4.0</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="53">
         <v>4.0</v>
       </c>
-      <c r="F7" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="41">
+      <c r="F7" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="53">
         <v>3.0</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="53">
         <v>0.0</v>
       </c>
       <c r="J7" s="15">
         <v>0.0</v>
       </c>
-      <c r="K7" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="42">
+      <c r="K7" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="54">
         <v>0.0</v>
       </c>
     </row>
@@ -15087,40 +15483,40 @@
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="53">
         <v>7.0</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="54">
         <v>0.455</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="53">
         <v>17.0</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="53">
         <v>11.0</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="53">
         <v>5.0</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="53">
         <v>6.0</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="53">
         <v>4.0</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="53">
         <v>2.0</v>
       </c>
       <c r="J8" s="15">
         <v>6.0</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="53">
         <v>1.0</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="54">
         <v>0.727</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="54">
         <v>0.647</v>
       </c>
     </row>
@@ -15333,40 +15729,40 @@
       <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="53">
         <v>4.0</v>
       </c>
-      <c r="C14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="41">
+      <c r="C14" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="53">
         <v>9.0</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="53">
         <v>5.0</v>
       </c>
-      <c r="F14" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="41">
+      <c r="F14" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="53">
         <v>2.0</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="53">
         <v>1.0</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="53">
         <v>1.0</v>
       </c>
       <c r="J14" s="15">
         <v>4.0</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="53">
         <v>3.0</v>
       </c>
-      <c r="L14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="42">
+      <c r="L14" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="54">
         <v>0.444</v>
       </c>
     </row>
@@ -15415,40 +15811,40 @@
       <c r="A16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="53">
         <v>5.0</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="54">
         <v>0.2</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="53">
         <v>8.0</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="53">
         <v>5.0</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="53">
         <v>1.0</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="53">
         <v>2.0</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="53">
         <v>1.0</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="53">
         <v>2.0</v>
       </c>
       <c r="J16" s="15">
         <v>3.0</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="53">
         <v>1.0</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="54">
         <v>0.2</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -15456,40 +15852,40 @@
       <c r="A17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="41">
+      <c r="B17" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="53">
         <v>0.0</v>
       </c>
       <c r="J17" s="15">
         <v>0.0</v>
       </c>
-      <c r="K17" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="42">
+      <c r="K17" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="54">
         <v>0.0</v>
       </c>
     </row>
@@ -15620,40 +16016,40 @@
       <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="53">
         <v>6.0</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="54">
         <v>0.545</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="53">
         <v>15.0</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="53">
         <v>11.0</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="53">
         <v>6.0</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="53">
         <v>7.0</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="53">
         <v>3.0</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="53">
         <v>5.0</v>
       </c>
       <c r="J21" s="15">
         <v>4.0</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="53">
         <v>2.0</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="54">
         <v>0.727</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="54">
         <v>0.667</v>
       </c>
     </row>
@@ -15661,40 +16057,40 @@
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="53">
         <v>3.0</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="54">
         <v>0.167</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="53">
         <v>6.0</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="53">
         <v>6.0</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="53">
         <v>1.0</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="53">
         <v>1.0</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="53">
         <v>1.0</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="53">
         <v>0.0</v>
       </c>
       <c r="J22" s="15">
         <v>0.0</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="53">
         <v>3.0</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="54">
         <v>0.167</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="54">
         <v>0.167</v>
       </c>
     </row>
@@ -15785,7 +16181,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="43">
+      <c r="C25" s="55">
         <f>+F25/E25</f>
         <v>0.3428571429</v>
       </c>
@@ -15821,43 +16217,43 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" ht="16.5" customHeight="1"/>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="3" t="s">
@@ -15959,52 +16355,52 @@
         <f t="shared" ref="P29:P35" si="2">+O29*9/H29</f>
         <v>19.28574184</v>
       </c>
-      <c r="Q29" s="45"/>
+      <c r="Q29" s="57"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="53">
         <v>4.0</v>
       </c>
-      <c r="C30" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="41">
+      <c r="C30" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="53">
         <v>1.0</v>
       </c>
-      <c r="E30" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="41">
+      <c r="E30" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="53">
         <v>28.0</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="53">
         <v>20.0</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="58">
         <v>2.3333</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="53">
         <v>6.0</v>
       </c>
-      <c r="J30" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="41">
+      <c r="J30" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="53">
         <v>6.0</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="53">
         <v>1.0</v>
       </c>
-      <c r="M30" s="41">
+      <c r="M30" s="53">
         <v>4.0</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="53">
         <v>12.0</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O30" s="53">
         <v>5.0</v>
       </c>
       <c r="P30" s="18">
@@ -16118,46 +16514,46 @@
       <c r="A33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="53">
         <v>2.0</v>
       </c>
-      <c r="C33" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="41">
+      <c r="C33" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="53">
         <v>2.0</v>
       </c>
-      <c r="E33" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="41">
+      <c r="E33" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="53">
         <v>39.0</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="53">
         <v>30.0</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="58">
         <v>4.3333</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="53">
         <v>5.0</v>
       </c>
-      <c r="J33" s="41">
+      <c r="J33" s="53">
         <v>1.0</v>
       </c>
-      <c r="K33" s="41">
+      <c r="K33" s="53">
         <v>18.0</v>
       </c>
-      <c r="L33" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="M33" s="41">
+      <c r="L33" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="53">
         <v>3.0</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="53">
         <v>19.0</v>
       </c>
-      <c r="O33" s="41">
+      <c r="O33" s="53">
         <v>12.0</v>
       </c>
       <c r="P33" s="18">
@@ -16169,46 +16565,46 @@
       <c r="A34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="53">
         <v>4.0</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="53">
         <v>1.0</v>
       </c>
-      <c r="D34" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="41">
+      <c r="D34" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="53">
         <v>2.0</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="53">
         <v>36.0</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="53">
         <v>30.0</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="58">
         <v>7.3333</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="53">
         <v>8.0</v>
       </c>
-      <c r="J34" s="41">
+      <c r="J34" s="53">
         <v>1.0</v>
       </c>
-      <c r="K34" s="41">
+      <c r="K34" s="53">
         <v>7.0</v>
       </c>
-      <c r="L34" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="M34" s="41">
+      <c r="L34" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="53">
         <v>8.0</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="53">
         <v>11.0</v>
       </c>
-      <c r="O34" s="41">
+      <c r="O34" s="53">
         <v>10.0</v>
       </c>
       <c r="P34" s="18">
@@ -17268,955 +17664,955 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
+        <v>158</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="47" t="s">
+      <c r="A3" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="60">
         <v>2.0</v>
       </c>
-      <c r="C4" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="48">
+      <c r="C4" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="60">
         <v>1.0</v>
       </c>
-      <c r="J4" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="49">
+      <c r="J4" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="61">
         <v>0.0</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="60">
         <v>4.0</v>
       </c>
-      <c r="C5" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="48">
+      <c r="C5" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="60">
         <v>7.0</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="60">
         <v>3.0</v>
       </c>
-      <c r="F5" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="48">
+      <c r="F5" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="60">
         <v>1.0</v>
       </c>
-      <c r="H5" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="48">
+      <c r="H5" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="60">
         <v>4.0</v>
       </c>
-      <c r="K5" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="49">
+      <c r="K5" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="61">
         <v>0.571</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="60">
         <v>9.0</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="61">
         <v>0.474</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="60">
         <v>24.0</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="60">
         <v>19.0</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="60">
         <v>9.0</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="60">
         <v>9.0</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="60">
         <v>9.0</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="60">
         <v>7.0</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="60">
         <v>5.0</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="60">
         <v>2.0</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="61">
         <v>0.579</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="61">
         <v>0.583</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="49">
+      <c r="B7" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="61">
         <v>0.0</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="60">
         <v>9.0</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="61">
         <v>0.25</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="60">
         <v>26.0</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="60">
         <v>20.0</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="60">
         <v>5.0</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="60">
         <v>7.0</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="60">
         <v>7.0</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="60">
         <v>4.0</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="60">
         <v>6.0</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="60">
         <v>5.0</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="61">
         <v>0.45</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="61">
         <v>0.423</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="60">
         <v>4.0</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="61">
         <v>0.2</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="60">
         <v>6.0</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="60">
         <v>5.0</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="60">
         <v>1.0</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="60">
         <v>2.0</v>
       </c>
-      <c r="H9" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="48">
+      <c r="H9" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="60">
         <v>1.0</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="60">
         <v>1.0</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="60">
         <v>1.0</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="61">
         <v>0.2</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="61">
         <v>0.333</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="60">
         <v>9.0</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="61">
         <v>0.542</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="60">
         <v>31.0</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="60">
         <v>24.0</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="60">
         <v>13.0</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="60">
         <v>16.0</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="60">
         <v>8.0</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="60">
         <v>16.0</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="60">
         <v>7.0</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="60">
         <v>2.0</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="61">
         <v>0.833</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="61">
         <v>0.645</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="60">
         <v>4.0</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="61">
         <v>0.333</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="60">
         <v>7.0</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="60">
         <v>6.0</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="60">
         <v>2.0</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="60">
         <v>3.0</v>
       </c>
-      <c r="H11" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="48">
+      <c r="H11" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="60">
         <v>3.0</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="60">
         <v>1.0</v>
       </c>
-      <c r="K11" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="49">
+      <c r="K11" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="61">
         <v>0.333</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="61">
         <v>0.429</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="60">
         <v>2.0</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="61">
         <v>0.333</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="60">
         <v>3.0</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="60">
         <v>3.0</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="60">
         <v>1.0</v>
       </c>
-      <c r="G12" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="48">
+      <c r="G12" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="60">
         <v>1.0</v>
       </c>
-      <c r="J12" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="49">
+      <c r="J12" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="61">
         <v>0.333</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="61">
         <v>0.333</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="60">
         <v>10.0</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="61">
         <v>0.435</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="60">
         <v>25.0</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="60">
         <v>23.0</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="60">
         <v>10.0</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="60">
         <v>6.0</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="60">
         <v>10.0</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="60">
         <v>5.0</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="60">
         <v>1.0</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="60">
         <v>3.0</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="61">
         <v>0.609</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="61">
         <v>0.44</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="60">
         <v>3.0</v>
       </c>
-      <c r="C14" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="48">
+      <c r="C14" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="60">
         <v>7.0</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="60">
         <v>5.0</v>
       </c>
-      <c r="F14" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="48">
+      <c r="F14" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="60">
         <v>2.0</v>
       </c>
-      <c r="H14" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="48">
+      <c r="H14" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="60">
         <v>1.0</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="60">
         <v>2.0</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="60">
         <v>3.0</v>
       </c>
-      <c r="L14" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="49">
+      <c r="L14" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="61">
         <v>0.286</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="60">
         <v>6.0</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="61">
         <v>0.222</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="60">
         <v>13.0</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="60">
         <v>9.0</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="60">
         <v>2.0</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="60">
         <v>1.0</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="60">
         <v>3.0</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="60">
         <v>1.0</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="60">
         <v>3.0</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="60">
         <v>5.0</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="61">
         <v>0.222</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="61">
         <v>0.417</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="60">
         <v>2.0</v>
       </c>
-      <c r="C16" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="48">
+      <c r="C16" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="60">
         <v>1.0</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="60">
         <v>1.0</v>
       </c>
-      <c r="F16" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="M16" s="49">
+      <c r="F16" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="61">
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="60">
         <v>2.0</v>
       </c>
-      <c r="C17" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="48">
+      <c r="C17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="60">
         <v>5.0</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="60">
         <v>3.0</v>
       </c>
-      <c r="F17" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="48">
+      <c r="F17" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="60">
         <v>2.0</v>
       </c>
-      <c r="H17" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="48">
+      <c r="H17" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="60">
         <v>2.0</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="60">
         <v>2.0</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="60">
         <v>1.0</v>
       </c>
-      <c r="L17" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="49">
+      <c r="L17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="61">
         <v>0.4</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="60">
         <v>7.0</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="61">
         <v>0.611</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="60">
         <v>21.0</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="60">
         <v>18.0</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="60">
         <v>11.0</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="60">
         <v>6.0</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="60">
         <v>6.0</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="60">
         <v>3.0</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="60">
         <v>3.0</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="60">
         <v>2.0</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="61">
         <v>0.778</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="61">
         <v>0.667</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="60">
         <v>6.0</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="61">
         <v>0.286</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="60">
         <v>15.0</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="60">
         <v>14.0</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="60">
         <v>4.0</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="60">
         <v>2.0</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="60">
         <v>3.0</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="60">
         <v>2.0</v>
       </c>
-      <c r="J19" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="48">
+      <c r="J19" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="60">
         <v>1.0</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19" s="61">
         <v>0.286</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="61">
         <v>0.267</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="60">
         <v>5.0</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="61">
         <v>0.143</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="60">
         <v>8.0</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="60">
         <v>7.0</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="60">
         <v>1.0</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="60">
         <v>1.0</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="60">
         <v>4.0</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="60">
         <v>2.0</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="60">
         <v>1.0</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="60">
         <v>3.0</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="61">
         <v>0.143</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="61">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="60">
         <v>10.0</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="61">
         <v>0.304</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="60">
         <v>25.0</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="60">
         <v>23.0</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="60">
         <v>7.0</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="60">
         <v>9.0</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="60">
         <v>5.0</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="60">
         <v>3.0</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="60">
         <v>2.0</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="60">
         <v>3.0</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="61">
         <v>0.478</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="61">
         <v>0.36</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="60">
         <v>6.0</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="61">
         <v>0.571</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="60">
         <v>9.0</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="60">
         <v>7.0</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="60">
         <v>4.0</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="60">
         <v>3.0</v>
       </c>
-      <c r="H22" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="48">
+      <c r="H22" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="60">
         <v>4.0</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="60">
         <v>2.0</v>
       </c>
-      <c r="K22" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="49">
+      <c r="K22" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="61">
         <v>0.571</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="61">
         <v>0.667</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="60">
         <v>5.0</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="61">
         <v>0.4</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="60">
         <v>14.0</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="60">
         <v>10.0</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="60">
         <v>4.0</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="60">
         <v>4.0</v>
       </c>
-      <c r="H23" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="48">
+      <c r="H23" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="60">
         <v>4.0</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="60">
         <v>4.0</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="60">
         <v>2.0</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="61">
         <v>0.4</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="61">
         <v>0.571</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="60">
         <v>5.0</v>
       </c>
-      <c r="C24" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="48">
+      <c r="C24" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="60">
         <v>9.0</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="60">
         <v>7.0</v>
       </c>
-      <c r="F24" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="48">
+      <c r="F24" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="60">
         <v>1.0</v>
       </c>
-      <c r="H24" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="48">
+      <c r="H24" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="60">
         <v>2.0</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="60">
         <v>1.0</v>
       </c>
-      <c r="L24" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="M24" s="49">
+      <c r="L24" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="61">
         <v>0.222</v>
       </c>
     </row>
@@ -18225,7 +18621,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="43">
+      <c r="C25" s="55">
         <f>+F25/E25</f>
         <v>0.3574879227</v>
       </c>
@@ -18261,8 +18657,8 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" ht="16.5" customHeight="1"/>
     <row r="27" ht="16.5" customHeight="1">
@@ -18271,356 +18667,356 @@
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="47" t="s">
+      <c r="A28" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" s="47" t="s">
+      <c r="K28" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="M28" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="N28" s="47" t="s">
+      <c r="N28" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P28" s="47" t="s">
+      <c r="O28" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="P28" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="60">
         <v>3.0</v>
       </c>
-      <c r="C29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="48">
+      <c r="C29" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="60">
         <v>12.0</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="60">
         <v>6.0</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="62">
         <v>0.666666666</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="60">
         <v>2.0</v>
       </c>
-      <c r="J29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="48">
+      <c r="J29" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="60">
         <v>5.0</v>
       </c>
-      <c r="L29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="M29" s="48">
+      <c r="L29" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="60">
         <v>1.0</v>
       </c>
-      <c r="N29" s="48">
+      <c r="N29" s="60">
         <v>4.0</v>
       </c>
-      <c r="O29" s="48">
+      <c r="O29" s="60">
         <v>1.0</v>
       </c>
-      <c r="P29" s="51">
+      <c r="P29" s="63">
         <f t="shared" ref="P29:P32" si="2">+O29*9/H29</f>
         <v>13.50000001</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="60">
         <v>5.0</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="60">
         <v>1.0</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="60">
         <v>1.0</v>
       </c>
-      <c r="E30" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="48">
+      <c r="E30" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="60">
         <v>85.0</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="60">
         <v>64.0</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="62">
         <v>10.33333333</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="60">
         <v>27.0</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="60">
         <v>3.0</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="60">
         <v>17.0</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="60">
         <v>4.0</v>
       </c>
-      <c r="M30" s="48">
+      <c r="M30" s="60">
         <v>7.0</v>
       </c>
-      <c r="N30" s="48">
+      <c r="N30" s="60">
         <v>36.0</v>
       </c>
-      <c r="O30" s="48">
+      <c r="O30" s="60">
         <v>27.0</v>
       </c>
-      <c r="P30" s="51">
+      <c r="P30" s="63">
         <f t="shared" si="2"/>
         <v>23.51612904</v>
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="60">
         <v>6.0</v>
       </c>
-      <c r="C31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="48">
+      <c r="C31" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="60">
         <v>2.0</v>
       </c>
-      <c r="E31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="48">
+      <c r="E31" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="60">
         <v>54.0</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="60">
         <v>49.0</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="62">
         <v>9.33333333333</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="60">
         <v>13.0</v>
       </c>
-      <c r="J31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K31" s="48">
+      <c r="J31" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="60">
         <v>5.0</v>
       </c>
-      <c r="L31" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="M31" s="48">
+      <c r="L31" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="60">
         <v>17.0</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="60">
         <v>12.0</v>
       </c>
-      <c r="O31" s="48">
+      <c r="O31" s="60">
         <v>4.0</v>
       </c>
-      <c r="P31" s="51">
+      <c r="P31" s="63">
         <f t="shared" si="2"/>
         <v>3.857142857</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="60">
         <v>3.0</v>
       </c>
-      <c r="C32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="48">
+      <c r="C32" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="60">
         <v>1.0</v>
       </c>
-      <c r="E32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="48">
+      <c r="E32" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="60">
         <v>33.0</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="60">
         <v>24.0</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="62">
         <v>4.6666666666</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="60">
         <v>7.0</v>
       </c>
-      <c r="J32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="48">
+      <c r="J32" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="60">
         <v>8.0</v>
       </c>
-      <c r="L32" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="M32" s="48">
+      <c r="L32" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="60">
         <v>2.0</v>
       </c>
-      <c r="N32" s="48">
+      <c r="N32" s="60">
         <v>11.0</v>
       </c>
-      <c r="O32" s="48">
+      <c r="O32" s="60">
         <v>5.0</v>
       </c>
-      <c r="P32" s="51">
+      <c r="P32" s="63">
         <f t="shared" si="2"/>
         <v>9.642857143</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="M33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="N33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="O33" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="P33" s="51">
+      <c r="B33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="O33" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="P33" s="63">
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="60">
         <v>6.0</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="60">
         <v>2.0</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="60">
         <v>2.0</v>
       </c>
-      <c r="E34" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="48">
+      <c r="E34" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="60">
         <v>97.0</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="60">
         <v>74.0</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34" s="62">
         <v>14.33333333</v>
       </c>
-      <c r="I34" s="48">
+      <c r="I34" s="60">
         <v>27.0</v>
       </c>
-      <c r="J34" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K34" s="48">
+      <c r="J34" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="60">
         <v>17.0</v>
       </c>
-      <c r="L34" s="48">
+      <c r="L34" s="60">
         <v>6.0</v>
       </c>
-      <c r="M34" s="48">
+      <c r="M34" s="60">
         <v>16.0</v>
       </c>
-      <c r="N34" s="48">
+      <c r="N34" s="60">
         <v>32.0</v>
       </c>
-      <c r="O34" s="48">
+      <c r="O34" s="60">
         <v>27.0</v>
       </c>
-      <c r="P34" s="51">
+      <c r="P34" s="63">
         <f t="shared" ref="P34:P35" si="4">+O34*9/H34</f>
         <v>16.95348838</v>
       </c>
@@ -18682,7 +19078,7 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="P35" s="52">
+      <c r="P35" s="64">
         <f t="shared" si="4"/>
         <v>14.6440678</v>
       </c>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="162">
   <si>
     <t>◎ 라스칼 통산 성적</t>
   </si>
@@ -219,19 +219,7 @@
     <t>&lt;- 아웃대비 삼진율 최저는 김재영 5%</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>RBI</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>DEF</t>
+    <t>장타</t>
   </si>
   <si>
     <t>탈삼진율</t>
@@ -301,7 +289,7 @@
   </si>
   <si>
     <t>방향을  먼저 잡은 후에 속도를 내야합니다. 
-인생도, \n공부도,\n 야구도.</t>
+인생도, 공부도, 야구도.</t>
   </si>
   <si>
     <r>
@@ -332,10 +320,12 @@
     <t>비버마스터</t>
   </si>
   <si>
-    <t>포수 포지션 경쟁 끝에 새로운 집을 짓기로 한 비버마스터.
+    <t>포수 포지션 경쟁 끝에 새로운 집을 짓기로 한 비버마스터
 아이쿠, 이미 1루에 자리잡으려는 세력들이 있군요.
-탄탄한 집을 짓는 비버들과 외야에서 쫒겨나 흉폭한 비버까지.
-비버마스터 혁진권은 이번에야말로 자신의 집을 완성할 수 있을까요?</t>
+탄탄한 집을 짓는 비버들과
+외야에서 쫒겨나 흉폭한 비버까지
+비버마스터 혁진권은 이번에야말로 
+자신의 집을 완성할 수 있을까요?</t>
   </si>
   <si>
     <r>
@@ -366,8 +356,9 @@
     <t>인사불성</t>
   </si>
   <si>
-    <t>안동김가 핏줄의 강한 어깨와 장남의 지갑이 합쳐져 엄청난 포수가 탄생했습니다.
-위협적이고 강력한 경쟁자의 탄생.
+    <t>안동김가 핏줄의 강한 어깨와 장남의 지갑이 합쳐져
+엄청난 포수가 탄생했습니다.
+위협적이고 강력한 경쟁자의 탄생
 지원자가 없어 헤이해졌던 기존 포수들 사이로 긴장감이 흐릅니다.
 어떤 선수는 일찌감치 주 포지션을 바꾸기까지 합니다.
 하지만 좋은 포수는 피지컬만으로 결정되는 것이 아니라는걸 명심하세요.</t>
@@ -498,8 +489,10 @@
   </si>
   <si>
     <t>짧은 시간 투수로서의 가능성만큼은 보여주고 떠납니다.
-다행히 더 좋은 주인을 만나 유니폼을 새로 살 필요는 없을 것 같습니다.
-새로운 도전과 목표를 응원하며, 팀에 돌아오는 그날을 기대합니다.</t>
+다행히 더 좋은 주인을 만나 
+유니폼을 새로 살 필요는 없을 것 같습니다.
+새로운 도전과 목표를 응원하며,
+팀에 돌아오는 그날을 기대합니다.</t>
   </si>
   <si>
     <t>"그래서 이제 매니저 누가함. 누구한테 인수인계 하면 됨?"</t>
@@ -515,7 +508,8 @@
   </si>
   <si>
     <t>2023년은 라스칼의 선봉대장 김재영의 해였습니다.
-1번타자 - 타율 1위 , 출루율 1위, 도루 1위, 득점 1위, V.C 1위
+1번타자 - 타율 1위 , 출루율 1위,
+도루 1위, 득점 1위, V.C 1위
 축하합니다.
 2023년 Rascal MVP는 김재영 선수입니다.</t>
   </si>
@@ -539,7 +533,8 @@
 코리안 존존스가 당신을 지켜봤다는걸요.
 먼 외국에 UFC 직관은 가는데, 
 대구에서하는 야구경기는 참여하지 않는다구요?
-걱정마세요! 8월 27일 라스칼 경기는 우천취소되었습니다.</t>
+걱정마세요!
+8월 27일 라스칼 경기는 우천취소되었습니다.</t>
   </si>
   <si>
     <t>KIM HYUN CHEOL</t>
@@ -566,7 +561,8 @@
         <color theme="1"/>
         <sz val="9.0"/>
       </rPr>
-      <t xml:space="preserve">공을 향해, 1루를 향해 누구보다도 열렬히 뛰던 당신의 만세를 기억합니다. </t>
+      <t xml:space="preserve">공을 향해, 1루를 향해
+누구보다도 열렬히 뛰던 당신의 만세를 기억합니다. </t>
     </r>
     <r>
       <rPr>
@@ -619,8 +615,10 @@
     <t>해병대</t>
   </si>
   <si>
-    <t>매 순간 진심을 쏟아 팀 분위기에 불을 지피는 낭만파 선수가 팀에 입단하였습니다. 
-이 선수와 함께라면 겨울에도 라스칼의 열기는 꺼지지 않을 것 입니다. 영차!</t>
+    <t>매 순간 진심을 쏟아 팀 분위기에 불을 지피는 
+낭만파 선수가 팀에 입단하였습니다. 
+이 선수와 함께라면 겨울에도 
+라스칼의 열기는 꺼지지 않을 것 입니다. 영차!</t>
   </si>
   <si>
     <t>"야 민석아! 영준이 해병대 나왔대."
@@ -1013,9 +1011,6 @@
     <xf borderId="1" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1032,6 +1027,9 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1219,11 +1217,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1537343401"/>
-        <c:axId val="689137778"/>
+        <c:axId val="1761620939"/>
+        <c:axId val="558404280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1537343401"/>
+        <c:axId val="1761620939"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,10 +1273,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689137778"/>
+        <c:crossAx val="558404280"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="689137778"/>
+        <c:axId val="558404280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,7 +1340,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1537343401"/>
+        <c:crossAx val="1761620939"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1574,11 +1572,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="169154550"/>
-        <c:axId val="1733370433"/>
+        <c:axId val="1568772456"/>
+        <c:axId val="1886171348"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169154550"/>
+        <c:axId val="1568772456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,10 +1628,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1733370433"/>
+        <c:crossAx val="1886171348"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1733370433"/>
+        <c:axId val="1886171348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1695,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169154550"/>
+        <c:crossAx val="1568772456"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1929,11 +1927,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18541064"/>
-        <c:axId val="1748713972"/>
+        <c:axId val="592368442"/>
+        <c:axId val="1880600221"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18541064"/>
+        <c:axId val="592368442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,10 +1983,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1748713972"/>
+        <c:crossAx val="1880600221"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1748713972"/>
+        <c:axId val="1880600221"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2050,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18541064"/>
+        <c:crossAx val="592368442"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2324,11 +2322,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1507672690"/>
-        <c:axId val="1879925531"/>
+        <c:axId val="928706107"/>
+        <c:axId val="1699330078"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1507672690"/>
+        <c:axId val="928706107"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,10 +2378,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879925531"/>
+        <c:crossAx val="1699330078"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1879925531"/>
+        <c:axId val="1699330078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2445,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1507672690"/>
+        <c:crossAx val="928706107"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2548,11 +2546,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1055154643"/>
-        <c:axId val="1666226124"/>
+        <c:axId val="471721882"/>
+        <c:axId val="2090482680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1055154643"/>
+        <c:axId val="471721882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,10 +2602,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666226124"/>
+        <c:crossAx val="2090482680"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1666226124"/>
+        <c:axId val="2090482680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2672,7 +2670,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1055154643"/>
+        <c:crossAx val="471721882"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
@@ -4421,7 +4419,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -4431,10 +4429,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>33</v>
@@ -5415,10 +5413,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -5427,7 +5425,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>49</v>
@@ -5457,7 +5455,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>58</v>
@@ -13243,23 +13241,23 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>61</v>
@@ -13853,16 +13851,16 @@
         <v>58</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>32</v>
@@ -13909,7 +13907,7 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" s="30">
         <f>MAX(B3:B7)</f>
@@ -14422,22 +14420,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
@@ -14606,42 +14604,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>83</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>8</v>
@@ -14650,27 +14648,27 @@
         <v>29.0</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F2" s="38">
         <v>7.0</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>9</v>
@@ -14679,27 +14677,27 @@
         <v>10.0</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="38">
         <v>1.0</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>10</v>
@@ -14708,27 +14706,27 @@
         <v>50.0</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" s="38">
         <v>3.0</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H4" s="40"/>
       <c r="I4" s="39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
     </row>
     <row r="5">
       <c r="A5" s="36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>11</v>
@@ -14737,27 +14735,27 @@
         <v>12.0</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F5" s="38">
         <v>1.0</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>106</v>
+      <c r="G5" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="39" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
     </row>
     <row r="6">
       <c r="A6" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>12</v>
@@ -14766,31 +14764,31 @@
         <v>46.0</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F6" s="38">
         <v>100.0</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>113</v>
+      <c r="G6" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>13</v>
@@ -14798,28 +14796,28 @@
       <c r="C7" s="36">
         <v>91.0</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>89</v>
+      <c r="D7" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F7" s="38">
         <v>1.0</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>14</v>
@@ -14828,29 +14826,29 @@
         <v>3.0</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F8" s="38">
         <v>100.0</v>
       </c>
-      <c r="G8" s="46" t="s">
-        <v>122</v>
+      <c r="G8" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="H8" s="40"/>
-      <c r="I8" s="48" t="s">
-        <v>123</v>
+      <c r="I8" s="47" t="s">
+        <v>119</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>15</v>
@@ -14859,16 +14857,16 @@
         <v>27.0</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>126</v>
+        <v>116</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="F9" s="38">
         <v>1.0</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>127</v>
+      <c r="G9" s="49" t="s">
+        <v>123</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
@@ -14877,7 +14875,7 @@
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>16</v>
@@ -14886,7 +14884,7 @@
         <v>13.0</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="38">
@@ -14900,7 +14898,7 @@
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>17</v>
@@ -14909,7 +14907,7 @@
         <v>25.0</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E11" s="50" t="str">
         <f t="shared" ref="E11:E12" si="1">RIGHT(B11,LEN(B11) - 1)</f>
@@ -14926,7 +14924,7 @@
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>17</v>
@@ -14935,7 +14933,7 @@
         <v>25.0</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E12" s="50" t="str">
         <f t="shared" si="1"/>
@@ -14952,7 +14950,7 @@
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>18</v>
@@ -14961,27 +14959,27 @@
         <v>21.0</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F13" s="38">
         <v>2.0</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="51" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>19</v>
@@ -14990,27 +14988,27 @@
         <v>55.0</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F14" s="38">
         <v>50.0</v>
       </c>
-      <c r="G14" s="43" t="s">
-        <v>138</v>
+      <c r="G14" s="49" t="s">
+        <v>134</v>
       </c>
       <c r="H14" s="40"/>
-      <c r="I14" s="46" t="s">
-        <v>139</v>
+      <c r="I14" s="45" t="s">
+        <v>135</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>20</v>
@@ -15019,10 +15017,10 @@
         <v>88.0</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F15" s="38">
         <v>9.0</v>
@@ -15035,7 +15033,7 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>21</v>
@@ -15044,27 +15042,27 @@
         <v>0.0</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F16" s="38">
         <v>30.0</v>
       </c>
-      <c r="G16" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="45"/>
+      <c r="G16" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="44"/>
       <c r="I16" s="39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>22</v>
@@ -15073,7 +15071,7 @@
         <v>18.0</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E17" s="50" t="str">
         <f>RIGHT(B17,LEN(B17) - 1)</f>
@@ -15090,7 +15088,7 @@
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>23</v>
@@ -15099,27 +15097,27 @@
         <v>100.0</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F18" s="38">
         <v>100.0</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>150</v>
+      <c r="G18" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>24</v>
@@ -15128,7 +15126,7 @@
         <v>17.0</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="38">
@@ -15142,7 +15140,7 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>25</v>
@@ -15151,7 +15149,7 @@
         <v>14.0</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="38">
@@ -15165,7 +15163,7 @@
     </row>
     <row r="21">
       <c r="A21" s="36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>26</v>
@@ -15174,7 +15172,7 @@
         <v>56.0</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E21" s="50" t="str">
         <f t="shared" ref="E21:E23" si="2">RIGHT(B21,LEN(B21) - 1)</f>
@@ -15191,7 +15189,7 @@
     </row>
     <row r="22">
       <c r="A22" s="36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>27</v>
@@ -15199,8 +15197,8 @@
       <c r="C22" s="36">
         <v>1.0</v>
       </c>
-      <c r="D22" s="47" t="s">
-        <v>89</v>
+      <c r="D22" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E22" s="50" t="str">
         <f t="shared" si="2"/>
@@ -15217,7 +15215,7 @@
     </row>
     <row r="23">
       <c r="A23" s="36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>28</v>
@@ -15266,7 +15264,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -17664,7 +17662,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -17716,10 +17714,10 @@
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="59" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="59" t="s">
         <v>33</v>
@@ -18668,10 +18666,10 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="59" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C28" s="59" t="s">
         <v>46</v>
@@ -18698,10 +18696,10 @@
         <v>52</v>
       </c>
       <c r="K28" s="59" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L28" s="59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M28" s="59" t="s">
         <v>41</v>
@@ -18710,7 +18708,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="59" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P28" s="59" t="s">
         <v>58</v>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -18,14 +18,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="9pThimvFzqoRMne64bs2czFYev21wRY/RC6MBDXgaac="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="vBNnMZ0PugI476x9TFQbqvp5MZbT40eBaIPVv46Yc7s="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="190">
   <si>
     <t>◎ 라스칼 통산 성적</t>
   </si>
@@ -267,6 +267,9 @@
     <t>코멘트</t>
   </si>
   <si>
+    <t>코멘트 아이콘</t>
+  </si>
+  <si>
     <t>코멘트 스타일</t>
   </si>
   <si>
@@ -290,6 +293,12 @@
   <si>
     <t>방향을  먼저 잡은 후에 속도를 내야합니다. 
 인생도, 공부도, 야구도.</t>
+  </si>
+  <si>
+    <t>FaBookOpen</t>
+  </si>
+  <si>
+    <t>[{"fontSize":"11.9px"},{"fontSize":"21px"}]</t>
   </si>
   <si>
     <r>
@@ -322,10 +331,19 @@
   <si>
     <t>포수 포지션 경쟁 끝에 새로운 집을 짓기로 한 비버마스터
 아이쿠, 이미 1루에 자리잡으려는 세력들이 있군요.
-탄탄한 집을 짓는 비버들과
-외야에서 쫒겨나 흉폭한 비버까지
+탄탄한 집을 짓는 비버들과 외야에서 쫒겨나 흉폭한 비버까지...
 비버마스터 혁진권은 이번에야말로 
-자신의 집을 완성할 수 있을까요?</t>
+자신의 베이스캠프를 완성할 수 있을까요?</t>
+  </si>
+  <si>
+    <t>GiBeaver</t>
+  </si>
+  <si>
+    <t>[{"fontFamily": "Dongle"}, 
+{"fontFamily": "Dongle"},
+{"fontFamily": "Dongle"},
+{"fontFamily": "Dongle"},
+{"fontFamily": "Dongle"}]</t>
   </si>
   <si>
     <r>
@@ -356,12 +374,21 @@
     <t>인사불성</t>
   </si>
   <si>
-    <t>안동김가 핏줄의 강한 어깨와 장남의 지갑이 합쳐져
-엄청난 포수가 탄생했습니다.
+    <t>안동김가 핏줄의 강한 어깨와 장남의 지갑이 합쳐져 엄청난 포수가 탄생했습니다.
 위협적이고 강력한 경쟁자의 탄생
 지원자가 없어 헤이해졌던 기존 포수들 사이로 긴장감이 흐릅니다.
 어떤 선수는 일찌감치 주 포지션을 바꾸기까지 합니다.
-하지만 좋은 포수는 피지컬만으로 결정되는 것이 아니라는걸 명심하세요.</t>
+하지만 좋은 포수는 피지컬만으로결정되는 것이 아니라는걸 명심하세요.</t>
+  </si>
+  <si>
+    <t>GiMuscleUp</t>
+  </si>
+  <si>
+    <t>[{"fontFamily": "East Sea Dokdo"}, 
+{"fontFamily": "East Sea Dokdo"}, 
+{"fontFamily": "East Sea Dokdo"}, 
+{"fontFamily": "East Sea Dokdo"}, 
+{"fontFamily": "East Sea Dokdo"}]</t>
   </si>
   <si>
     <r>
@@ -388,7 +415,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t>술 선수 김기태를 상대로 시즌 2승을 올립니다.
+      <t>술은 김기태를 상대로 시즌 2승을 올립니다.
 연패의 늪에 빠져 정신없이 전화를 돌리는 김기태.</t>
     </r>
   </si>
@@ -408,6 +435,13 @@
 [필살 자택시리즈, "딸깍"]</t>
   </si>
   <si>
+    <t>FaMouse</t>
+  </si>
+  <si>
+    <t>Song Myung
+Black And White Picture</t>
+  </si>
+  <si>
     <t>"누군 놀고먹고 있는 줄 아십니까. 저도 일 중이라고요."
 (딸깍)</t>
   </si>
@@ -418,7 +452,7 @@
     <t>神</t>
   </si>
   <si>
-    <t>개근상</t>
+    <t>출장</t>
   </si>
   <si>
     <t>범신의 교리 1:1
@@ -431,33 +465,16 @@
 "범신의 사랑은 영원하며, 그는 우리를 용서하고 다시 태어나게 하시노니, 그의 무한한 사랑에 믿음을 가지라. 우리가 그의 이름으로 모든 것을 굴복시키면, 그의 사랑이 우리에게 흐르며, 파괴와 부정을 극복할 것이라."
 범신의 신자 5:3-6
 "범신의 신자들은 파괴와 재탄생의 순환을 환영하며, 압도적인 힘을 통해 세계를 변화시키고 모험을 향해 나아간다. 그의 이름으로 우리는 파괴와 부정에 맞서고, 모든 것을 무질서하게 만들며, 이로써 진리를 찾아갈 것이니, 이것이 범신의 뜻이니라."
-범신의 신자 23:10-6
-"범신이 탄식하며 이르되, 먼 동토의 어리석은 어린양이 나를 원하노니, 악을 범하지 않는 악동들아 나는 망각 없는 믿음의 좌에서 탄생할 것인 즉, 지나온 달이 마지막 달에 해로 떠올라 비추면 비로서 돌아오리라."
-범신의 신자 23:12-9
+범신의 예지 23:10-6
+"범신이 탄식하며 이르되, 먼 동토의 어린양이 나를 원하노니 악동들아, 나는 믿음의 좌에서 탄생할 것인 즉 지나온 달이 마지막 달에 해로 떠올라 비추면 비로서 돌아오리라."
+범신의 맹세 23:12-9
 "범신이 마침내 돌아와 자리하시며 스물하나의 악동들이 기꺼워 환호하노니, 이윽고 축제와 함께 새로운 한 해를 약속받으리라."</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="15.0"/>
-      </rPr>
-      <t xml:space="preserve">&lt;- </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>출장 날짜랑 
-총회 날짜로 추가하면
- 재밌을 것 같아서
- 만들어봤는데 
-보고 첨삭하거나
- 수정해주셈</t>
-    </r>
+    <t>GiCherish</t>
+  </si>
+  <si>
+    <t>Black And White Picture</t>
   </si>
   <si>
     <r>
@@ -466,16 +483,16 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">"괜찮음. 어차피 리그 막바지 되면 다 복구되더라." 
+      <t xml:space="preserve">"괜찮음. 어차피 리그 막바지되면 다 복구되더라."
 </t>
     </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="9.0"/>
       </rPr>
-      <t>- 전혀 복구되지 않았음.</t>
+      <t>-전혀 복구하지 못했음.</t>
     </r>
   </si>
   <si>
@@ -495,7 +512,16 @@
 팀에 돌아오는 그날을 기대합니다.</t>
   </si>
   <si>
-    <t>"그래서 이제 매니저 누가함. 누구한테 인수인계 하면 됨?"</t>
+    <t>FaAngellist</t>
+  </si>
+  <si>
+    <t>East Sea Dokdo</t>
+  </si>
+  <si>
+    <t>"그래서 이제 매니저 누가함. 누구한테 인수인계 하면 됨?"
+"안돼, 가지마."
+"나보다 더 잘할거야."
+"그거 어떻게 하는건데."</t>
   </si>
   <si>
     <t>KIM JEA YOUNG</t>
@@ -507,17 +533,65 @@
     <t>보법</t>
   </si>
   <si>
-    <t>2023년은 라스칼의 선봉대장 김재영의 해였습니다.
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">2023년은 라스칼의 선봉대장 김재영의 해였습니다.
 1번타자 - 타율 1위 , 출루율 1위,
 도루 1위, 득점 1위, V.C 1위
 축하합니다.
-2023년 Rascal MVP는 김재영 선수입니다.</t>
+2023년 Rascal MVP는 김재영 선수입니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>- 그의 주루는 보법부터 다르다.</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">라스칼 MVP 
-(개인 커리어 13연패)
-(울산 이직 후에도 24년 총무 확정)
+    <t>FaAward</t>
+  </si>
+  <si>
+    <t>East Sea Dokdo
+Gasoek One</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">2023년 라스칼 MVP 업적
 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">-2024년에도 총무 연임 확정-
+-전율의 개인커리어 14연패-
+-사진만 찍으면 도형으로 변하는 입-
+-역대급 패배요정-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="7.0"/>
+      </rPr>
+      <t>(개인 커리어 14연패)</t>
+    </r>
   </si>
   <si>
     <t>MVP</t>
@@ -530,17 +604,43 @@
   </si>
   <si>
     <t>정찬성 선수는 알고있었을까요? 
-코리안 존존스가 당신을 지켜봤다는걸요.
-먼 외국에 UFC 직관은 가는데, 
+놀랍게도 코리안 존존스가 당신을 지켜봤다는걸요.
+먼 외국에 UFC 직관은 가는데
 대구에서하는 야구경기는 참여하지 않는다구요?
 걱정마세요!
 8월 27일 라스칼 경기는 우천취소되었습니다.</t>
+  </si>
+  <si>
+    <t>SiUfc</t>
+  </si>
+  <si>
+    <t>DongleDongle</t>
+  </si>
+  <si>
+    <t>언제나 눈부신 태양이지만 그런 태양에게도 흑점이 있듯.
+파이팅 넘치는 그의 이면에는 아티스트의 고뇌와 섬세함이 함께합니다.
+가끔 모두의 관심이 부담이되더라도.
+라스칼의 모두가 당신을 좋아하고, 필요로 한다는 것은 꼭 알아주세요. 
+"태양아 기태도 네 실수가 아쉬워서 그러는거지 진심으로 화내는게 아니야."
+"가끔은 진심인 것 같던데요?"
+".. 근데 링에선 맞짱까면 니가 이길듯. 쟤 허우대만 멀쩡함 ㅋ."
+"근데 그건 저도 그렇게 생각해요 ㅋ."
+- 10월 22일 방천구장에서</t>
   </si>
   <si>
     <t>KIM HYUN CHEOL</t>
   </si>
   <si>
     <t>2B</t>
+  </si>
+  <si>
+    <t>호이짜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바람막이 단체사진과 풀오버를 입은 단장님 사진을 보고 난 후.
+"역시.. 모델의 핏이 상품의 가치를 결정하네요, 형님."
+- 바람막이를 신청했음.
+</t>
   </si>
   <si>
     <t>KIM HYUNG JUN</t>
@@ -555,20 +655,30 @@
     <t>탈주</t>
   </si>
   <si>
+    <t>공을 향해, 1루를 향해
+누구보다도 열렬히 뛰던 당신의 만세를 기억합니다. 
+아, 물론 타법이 아닌 수비였지만요.
+이 사실은 저희 팀만 알고 있을테니 너무 걱정마세요.</t>
+  </si>
+  <si>
+    <t>FaChild</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
-        <sz val="9.0"/>
+        <sz val="7.0"/>
       </rPr>
-      <t xml:space="preserve">공을 향해, 1루를 향해
-누구보다도 열렬히 뛰던 당신의 만세를 기억합니다. </t>
+      <t>한때 높은 연봉의 직장, 연애, 클럽 죽돌이, 취미까지 
+대구바닥 오올블루를 모두 섭렵했던 대구대학교 산복 부학회장이 있었다.
+그런 그가 드디어 선수 생활 은퇴를 하며 이르길,</t>
     </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
-        <sz val="15.0"/>
+        <sz val="6.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -579,11 +689,54 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t>아, 물론 타법이 아닌 수비였지만요.</t>
+      <t>"큭큭.. 내 야구장비들?" 
+"누구한테 주었는지 찾아라! 모두 팀에 두고왔다."
+이어 은퇴를 선언하며 그가 마지막으로 외친다.</t>
     </r>
-  </si>
-  <si>
-    <t>내 은퇴에도 다 서사가 있다.</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>"대구에도 주야 2교대는 실존한다!!!!!"</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="7.0"/>
+      </rPr>
+      <t xml:space="preserve">그 말에 모든 선수들이 그라운드로 향한다.
+세상은 그야말로 대 사회인 야구시대!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>- 은퇴왕 산복 D 희제 (23년 12월 10일 은퇴)</t>
+    </r>
   </si>
   <si>
     <t>NAM DONG SOO</t>
@@ -593,20 +746,55 @@
   </si>
   <si>
     <t>올 한해 짧은 시간이지만 타격과 수비 모두 무섭게 성장하고 있습니다.
-하지만 여전히 가슴 높이 하이볼에 자주 배트가 끌려나와 아쉬운 모습입니다.
+하지만 여전히 가슴 높이의 하이볼과 무릎 높이 떨어지는 변화구에 
+ 배트가 끌려나와 아쉬운 모습이 있었습니다.
 24년에는 또다른 라스칼의 선봉대장으로서 다치지않고
 호타준족, 작전수행 능력까지 두루 갖춘 선수로 발전하길 기대합니다.</t>
   </si>
   <si>
-    <t>"동수 여전히 I야?"
+    <t>FaChartLine</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">"동수 여전히 I야?"
 "저는 무조건 I입니다."
--데드볼을 맞춘 투수를 잡아먹을 듯 노려보며.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="6.0"/>
+      </rPr>
+      <t>-데드볼을 맞춘 투수를 잡아먹을 듯 노려보며.</t>
+    </r>
   </si>
   <si>
     <t>RYU DONG HYUN</t>
   </si>
   <si>
-    <t>류날두</t>
+    <t>저글링</t>
+  </si>
+  <si>
+    <t>결국 22년에 염원했던 목표 중 몇가지를 이루었습니다.
+시즌 MVP도 아니고, 완벽하진 않지만.
+23년의 조태형 선수와 투수 성적을 나란히했고,
+타격 성적은 더 우수했습니다.
+또 취업까지 성공한 한 해였습니다.
+야구에도 더 시간과 열정, 진심을 쏟아 기복을 줄이고 약점을 보완합시다.
+2024년 MVP 경쟁은 이미 시작되었습니다.</t>
+  </si>
+  <si>
+    <t>"시험 쳤으니 이제 야구도 열심히 한다."
+- 전혀 열심히 하지 않음
+"취업만하면 뭐든 못사주겠나.."
+-전혀 사주지 않음
+약속을 지키지 않는 당신에게 범희의 네이버 클라우드를 압수합니다.</t>
   </si>
   <si>
     <t>PARK YOUNG JUN</t>
@@ -618,15 +806,34 @@
     <t>매 순간 진심을 쏟아 팀 분위기에 불을 지피는 
 낭만파 선수가 팀에 입단하였습니다. 
 이 선수와 함께라면 겨울에도 
-라스칼의 열기는 꺼지지 않을 것 입니다. 영차!</t>
+라스칼의 열기는 꺼지지 않을 것 입니다. 
+영차!</t>
   </si>
   <si>
-    <t>"야 민석아! 영준이 해병대 나왔대."
+    <t>GiBeerStein</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">"야 민석아! 영준이 해병대 나왔대."
 "아 그래요? 혹시 몇 기.."
 "필승! 1211기 입니다!"
 "아 ㅎ 저 육군 나왔어요."
 "..."
-- 2023년 9월 24일 방천구장에서</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>- 2023년 9월 24일 방천구장에서</t>
+    </r>
   </si>
   <si>
     <t>PARK JAE HYUN</t>
@@ -635,17 +842,62 @@
     <t>3B</t>
   </si>
   <si>
+    <t>MZ</t>
+  </si>
+  <si>
     <t>BAEK JEONG CHEOL</t>
   </si>
   <si>
     <t>원정대장</t>
   </si>
   <si>
-    <t>올해 이 선수의 진가를 수비에서 보았습니다.
-이 선수의 수비 범위로 타구가 날아가면
-모든 선수들이 안심하고 미리 교대 준비를 했습니다.
+    <t>올해 이 선수는 수비에서 진가를 발휘합니다.
+백정철 선수의 수비 범위로 타구가 날아가면
+라스칼의 선수들은 안심하며 벤치로 걸음을 옮겼습니다.
 축하합니다.
 올해의 Golden Glove 는 백정철 선수입니다.</t>
+  </si>
+  <si>
+    <t>GiBaseballGlove</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">라스칼 Golden Glove
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="6.0"/>
+      </rPr>
+      <t xml:space="preserve">[단장님.. 이번주 시합 스타팅 가능하십니까?]
+"아이고 괜히 실력도 안되는기 멀리서왔다고  선수들 자리 하나 뺏는거 아닙니까 감독님.."
+[이상한 소리하지마시고 제발 나와주십시오.. 지금 외야에 형님 말고 쓸 선수가 없습니다.]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">- 백정철 선수와 통화 中 </t>
+    </r>
   </si>
   <si>
     <t>GoldenGlove</t>
@@ -655,6 +907,9 @@
   </si>
   <si>
     <t>LEE CHEOL MIN</t>
+  </si>
+  <si>
+    <t>스태프</t>
   </si>
   <si>
     <t>LIM JI HEON</t>
@@ -702,7 +957,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="27">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -766,6 +1021,12 @@
       <name val="Malgun Gothic"/>
     </font>
     <font>
+      <b/>
+      <sz val="5.0"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+    </font>
+    <font>
       <sz val="15.0"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
@@ -783,6 +1044,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="5.0"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -793,6 +1064,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5.0"/>
+      <color rgb="FF000000"/>
+      <name val="-apple-system"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -806,10 +1082,27 @@
       <name val="Google Sans Mono"/>
     </font>
     <font>
+      <sz val="7.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="13.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5.0"/>
+      <color rgb="FF172B4D"/>
+      <name val="-apple-system"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -881,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -990,55 +1283,79 @@
     <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="1" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1217,11 +1534,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1761620939"/>
-        <c:axId val="558404280"/>
+        <c:axId val="1167387808"/>
+        <c:axId val="425007504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1761620939"/>
+        <c:axId val="1167387808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,10 +1590,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558404280"/>
+        <c:crossAx val="425007504"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558404280"/>
+        <c:axId val="425007504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,7 +1657,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761620939"/>
+        <c:crossAx val="1167387808"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1572,11 +1889,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1568772456"/>
-        <c:axId val="1886171348"/>
+        <c:axId val="705244657"/>
+        <c:axId val="485242283"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1568772456"/>
+        <c:axId val="705244657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,10 +1945,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886171348"/>
+        <c:crossAx val="485242283"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1886171348"/>
+        <c:axId val="485242283"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +2012,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1568772456"/>
+        <c:crossAx val="705244657"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1927,11 +2244,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="592368442"/>
-        <c:axId val="1880600221"/>
+        <c:axId val="26227891"/>
+        <c:axId val="1314554326"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="592368442"/>
+        <c:axId val="26227891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,10 +2300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880600221"/>
+        <c:crossAx val="1314554326"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1880600221"/>
+        <c:axId val="1314554326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2367,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592368442"/>
+        <c:crossAx val="26227891"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2322,11 +2639,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="928706107"/>
-        <c:axId val="1699330078"/>
+        <c:axId val="307517368"/>
+        <c:axId val="1784310262"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="928706107"/>
+        <c:axId val="307517368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,10 +2695,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1699330078"/>
+        <c:crossAx val="1784310262"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1699330078"/>
+        <c:axId val="1784310262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2762,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928706107"/>
+        <c:crossAx val="307517368"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2546,11 +2863,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="471721882"/>
-        <c:axId val="2090482680"/>
+        <c:axId val="735992803"/>
+        <c:axId val="1245413842"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471721882"/>
+        <c:axId val="735992803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,10 +2919,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090482680"/>
+        <c:crossAx val="1245413842"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090482680"/>
+        <c:axId val="1245413842"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2670,7 +2987,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471721882"/>
+        <c:crossAx val="735992803"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
@@ -4419,7 +4736,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -4429,10 +4746,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>33</v>
@@ -5352,7 +5669,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="55">
+      <c r="C25" s="63">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
@@ -5388,23 +5705,23 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
@@ -5413,10 +5730,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -5425,7 +5742,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>49</v>
@@ -5455,7 +5772,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>58</v>
@@ -14597,9 +14914,10 @@
     <col customWidth="1" min="5" max="5" width="14.86"/>
     <col customWidth="1" min="6" max="6" width="20.29"/>
     <col customWidth="1" min="7" max="7" width="57.14"/>
-    <col customWidth="1" min="8" max="8" width="19.29"/>
-    <col customWidth="1" min="9" max="9" width="45.43"/>
-    <col customWidth="1" min="10" max="10" width="19.29"/>
+    <col customWidth="1" min="8" max="8" width="8.86"/>
+    <col customWidth="1" min="9" max="9" width="76.0"/>
+    <col customWidth="1" min="10" max="10" width="45.43"/>
+    <col customWidth="1" min="11" max="11" width="19.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14624,10 +14942,10 @@
       <c r="G1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>81</v>
       </c>
       <c r="J1" s="35" t="s">
@@ -14636,606 +14954,692 @@
       <c r="K1" s="35" t="s">
         <v>83</v>
       </c>
+      <c r="L1" s="35" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="37">
         <v>29.0</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="38">
+      <c r="E2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="39">
         <v>7.0</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="38" t="s">
+      <c r="G2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="H2" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="37">
         <v>10.0</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="38">
+      <c r="D3" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="39">
         <v>1.0</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="G3" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="37">
         <v>50.0</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="38">
+      <c r="D4" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="37">
+        <v>12.0</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="37">
+        <v>46.0</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="39">
+        <v>100.0</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="37">
+        <v>91.0</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="37">
         <v>3.0</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="36">
-        <v>12.0</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="38">
+      <c r="D8" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="39">
+        <v>100.0</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="37">
+        <v>27.0</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="39">
         <v>1.0</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="36">
-        <v>46.0</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="38">
-        <v>100.0</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="36">
-        <v>91.0</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="38">
-        <v>100.0</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="36">
-        <v>27.0</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="G9" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10">
-      <c r="A10" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="37">
         <v>13.0</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="38">
+      <c r="D10" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="39">
         <v>50.0</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11">
-      <c r="A11" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="37">
         <v>25.0</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="50" t="str">
+      <c r="D11" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="57" t="str">
         <f t="shared" ref="E11:E12" si="1">RIGHT(B11,LEN(B11) - 1)</f>
         <v>형준</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="39">
         <v>50.0</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12">
-      <c r="A12" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>25.0</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="50" t="str">
+      <c r="D12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="57" t="str">
         <f t="shared" si="1"/>
         <v>형준</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="39">
         <v>50.0</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13">
-      <c r="A13" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="37">
         <v>21.0</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="37">
+        <v>55.0</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="36">
-        <v>55.0</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="38">
+      <c r="E14" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="39">
         <v>50.0</v>
       </c>
-      <c r="G14" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="G14" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15">
-      <c r="A15" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="37">
         <v>88.0</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="38">
-        <v>9.0</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="D15" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="39">
+        <v>100.0</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16">
-      <c r="A16" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="38">
+      <c r="C16" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="39">
         <v>30.0</v>
       </c>
-      <c r="G16" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="G16" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17">
-      <c r="A17" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="37">
         <v>18.0</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="50" t="str">
-        <f>RIGHT(B17,LEN(B17) - 1)</f>
-        <v>재현</v>
-      </c>
-      <c r="F17" s="38">
+      <c r="D17" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="37">
+        <v>100.0</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="39">
+        <v>100.0</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="37">
+        <v>17.0</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="39">
         <v>50.0</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="36">
+      <c r="G19" s="43"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="37">
+        <v>14.0</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="39">
         <v>100.0</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="38">
-        <v>100.0</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="36">
-        <v>17.0</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="36">
-        <v>14.0</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21">
-      <c r="A21" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="37">
         <v>56.0</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="50" t="str">
+      <c r="D21" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="57" t="str">
         <f t="shared" ref="E21:E23" si="2">RIGHT(B21,LEN(B21) - 1)</f>
         <v>지헌</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="39">
         <v>50.0</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
     </row>
     <row r="22">
-      <c r="A22" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="37">
         <v>1.0</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="50" t="str">
+      <c r="D22" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="57" t="str">
         <f t="shared" si="2"/>
         <v>태형</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="39">
         <v>50.0</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23">
-      <c r="A23" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="37">
         <v>20.0</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="50" t="str">
+      <c r="D23" s="38"/>
+      <c r="E23" s="57" t="str">
         <f t="shared" si="2"/>
         <v>현철</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="39">
         <v>50.0</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -15264,7 +15668,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -15358,40 +15762,40 @@
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="61">
         <v>5.0</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="62">
         <v>0.5</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="61">
         <v>12.0</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="61">
         <v>8.0</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="61">
         <v>4.0</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="61">
         <v>3.0</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="61">
         <v>5.0</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="61">
         <v>1.0</v>
       </c>
       <c r="J5" s="15">
         <v>4.0</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="61">
         <v>3.0</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="62">
         <v>0.5</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="62">
         <v>0.667</v>
       </c>
     </row>
@@ -15399,40 +15803,40 @@
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="61">
         <v>6.0</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="62">
         <v>0.417</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="61">
         <v>15.0</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="61">
         <v>12.0</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="61">
         <v>5.0</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="61">
         <v>8.0</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="61">
         <v>7.0</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="61">
         <v>3.0</v>
       </c>
       <c r="J6" s="15">
         <v>3.0</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="61">
         <v>2.0</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="62">
         <v>0.667</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="62">
         <v>0.533</v>
       </c>
     </row>
@@ -15440,40 +15844,40 @@
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="61">
         <v>1.0</v>
       </c>
-      <c r="C7" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="53">
+      <c r="C7" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="61">
         <v>4.0</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="61">
         <v>4.0</v>
       </c>
-      <c r="F7" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="53">
+      <c r="F7" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="61">
         <v>3.0</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="61">
         <v>0.0</v>
       </c>
       <c r="J7" s="15">
         <v>0.0</v>
       </c>
-      <c r="K7" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="54">
+      <c r="K7" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="62">
         <v>0.0</v>
       </c>
     </row>
@@ -15481,40 +15885,40 @@
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="61">
         <v>7.0</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="62">
         <v>0.455</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="61">
         <v>17.0</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="61">
         <v>11.0</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="61">
         <v>5.0</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="61">
         <v>6.0</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="61">
         <v>4.0</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="61">
         <v>2.0</v>
       </c>
       <c r="J8" s="15">
         <v>6.0</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="61">
         <v>1.0</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="62">
         <v>0.727</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="62">
         <v>0.647</v>
       </c>
     </row>
@@ -15727,40 +16131,40 @@
       <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="61">
         <v>4.0</v>
       </c>
-      <c r="C14" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="53">
+      <c r="C14" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="61">
         <v>9.0</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="61">
         <v>5.0</v>
       </c>
-      <c r="F14" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="53">
+      <c r="F14" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="61">
         <v>2.0</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="61">
         <v>1.0</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="61">
         <v>1.0</v>
       </c>
       <c r="J14" s="15">
         <v>4.0</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="61">
         <v>3.0</v>
       </c>
-      <c r="L14" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="54">
+      <c r="L14" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="62">
         <v>0.444</v>
       </c>
     </row>
@@ -15809,40 +16213,40 @@
       <c r="A16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="61">
         <v>5.0</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="62">
         <v>0.2</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="61">
         <v>8.0</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="61">
         <v>5.0</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="61">
         <v>1.0</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="61">
         <v>2.0</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="61">
         <v>1.0</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="61">
         <v>2.0</v>
       </c>
       <c r="J16" s="15">
         <v>3.0</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="61">
         <v>1.0</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="62">
         <v>0.2</v>
       </c>
-      <c r="M16" s="54">
+      <c r="M16" s="62">
         <v>0.5</v>
       </c>
     </row>
@@ -15850,40 +16254,40 @@
       <c r="A17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="53">
+      <c r="B17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="61">
         <v>0.0</v>
       </c>
       <c r="J17" s="15">
         <v>0.0</v>
       </c>
-      <c r="K17" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="54">
+      <c r="K17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="62">
         <v>0.0</v>
       </c>
     </row>
@@ -16014,40 +16418,40 @@
       <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="61">
         <v>6.0</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="62">
         <v>0.545</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="61">
         <v>15.0</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="61">
         <v>11.0</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="61">
         <v>6.0</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="61">
         <v>7.0</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="61">
         <v>3.0</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="61">
         <v>5.0</v>
       </c>
       <c r="J21" s="15">
         <v>4.0</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="61">
         <v>2.0</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="62">
         <v>0.727</v>
       </c>
-      <c r="M21" s="54">
+      <c r="M21" s="62">
         <v>0.667</v>
       </c>
     </row>
@@ -16055,40 +16459,40 @@
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="61">
         <v>3.0</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="62">
         <v>0.167</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="61">
         <v>6.0</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="61">
         <v>6.0</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="61">
         <v>1.0</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="61">
         <v>1.0</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="61">
         <v>1.0</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="61">
         <v>0.0</v>
       </c>
       <c r="J22" s="15">
         <v>0.0</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="61">
         <v>3.0</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="62">
         <v>0.167</v>
       </c>
-      <c r="M22" s="54">
+      <c r="M22" s="62">
         <v>0.167</v>
       </c>
     </row>
@@ -16179,7 +16583,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="55">
+      <c r="C25" s="63">
         <f>+F25/E25</f>
         <v>0.3428571429</v>
       </c>
@@ -16215,43 +16619,43 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" ht="16.5" customHeight="1"/>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="3" t="s">
@@ -16353,52 +16757,52 @@
         <f t="shared" ref="P29:P35" si="2">+O29*9/H29</f>
         <v>19.28574184</v>
       </c>
-      <c r="Q29" s="57"/>
+      <c r="Q29" s="65"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="61">
         <v>4.0</v>
       </c>
-      <c r="C30" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="53">
+      <c r="C30" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="61">
         <v>1.0</v>
       </c>
-      <c r="E30" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="53">
+      <c r="E30" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="61">
         <v>28.0</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="61">
         <v>20.0</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="66">
         <v>2.3333</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="61">
         <v>6.0</v>
       </c>
-      <c r="J30" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="53">
+      <c r="J30" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="61">
         <v>6.0</v>
       </c>
-      <c r="L30" s="53">
+      <c r="L30" s="61">
         <v>1.0</v>
       </c>
-      <c r="M30" s="53">
+      <c r="M30" s="61">
         <v>4.0</v>
       </c>
-      <c r="N30" s="53">
+      <c r="N30" s="61">
         <v>12.0</v>
       </c>
-      <c r="O30" s="53">
+      <c r="O30" s="61">
         <v>5.0</v>
       </c>
       <c r="P30" s="18">
@@ -16512,46 +16916,46 @@
       <c r="A33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="53">
+      <c r="B33" s="61">
         <v>2.0</v>
       </c>
-      <c r="C33" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="53">
+      <c r="C33" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="61">
         <v>2.0</v>
       </c>
-      <c r="E33" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="53">
+      <c r="E33" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="61">
         <v>39.0</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G33" s="61">
         <v>30.0</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="66">
         <v>4.3333</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="61">
         <v>5.0</v>
       </c>
-      <c r="J33" s="53">
+      <c r="J33" s="61">
         <v>1.0</v>
       </c>
-      <c r="K33" s="53">
+      <c r="K33" s="61">
         <v>18.0</v>
       </c>
-      <c r="L33" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="M33" s="53">
+      <c r="L33" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="61">
         <v>3.0</v>
       </c>
-      <c r="N33" s="53">
+      <c r="N33" s="61">
         <v>19.0</v>
       </c>
-      <c r="O33" s="53">
+      <c r="O33" s="61">
         <v>12.0</v>
       </c>
       <c r="P33" s="18">
@@ -16563,46 +16967,46 @@
       <c r="A34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="61">
         <v>4.0</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="61">
         <v>1.0</v>
       </c>
-      <c r="D34" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="53">
+      <c r="D34" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="61">
         <v>2.0</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="61">
         <v>36.0</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="61">
         <v>30.0</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="66">
         <v>7.3333</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="61">
         <v>8.0</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="61">
         <v>1.0</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="61">
         <v>7.0</v>
       </c>
-      <c r="L34" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="M34" s="53">
+      <c r="L34" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="61">
         <v>8.0</v>
       </c>
-      <c r="N34" s="53">
+      <c r="N34" s="61">
         <v>11.0</v>
       </c>
-      <c r="O34" s="53">
+      <c r="O34" s="61">
         <v>10.0</v>
       </c>
       <c r="P34" s="18">
@@ -17662,955 +18066,955 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+        <v>182</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="A3" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="67" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="68">
         <v>2.0</v>
       </c>
-      <c r="C4" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="60">
+      <c r="C4" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="68">
         <v>1.0</v>
       </c>
-      <c r="J4" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="61">
+      <c r="J4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="69">
         <v>0.0</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="68">
         <v>4.0</v>
       </c>
-      <c r="C5" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="60">
+      <c r="C5" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="68">
         <v>7.0</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="68">
         <v>3.0</v>
       </c>
-      <c r="F5" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="60">
+      <c r="F5" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="68">
         <v>1.0</v>
       </c>
-      <c r="H5" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="60">
+      <c r="H5" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="68">
         <v>4.0</v>
       </c>
-      <c r="K5" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="61">
+      <c r="K5" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="69">
         <v>0.571</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="68">
         <v>9.0</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="69">
         <v>0.474</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="68">
         <v>24.0</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="68">
         <v>19.0</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="68">
         <v>9.0</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="68">
         <v>9.0</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="68">
         <v>9.0</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="68">
         <v>7.0</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="68">
         <v>5.0</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="68">
         <v>2.0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="69">
         <v>0.579</v>
       </c>
-      <c r="M6" s="61">
+      <c r="M6" s="69">
         <v>0.583</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="61">
+      <c r="B7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="69">
         <v>0.0</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="68">
         <v>9.0</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="69">
         <v>0.25</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="68">
         <v>26.0</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="68">
         <v>20.0</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="68">
         <v>5.0</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="68">
         <v>7.0</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="68">
         <v>7.0</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="68">
         <v>4.0</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="68">
         <v>6.0</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="68">
         <v>5.0</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="69">
         <v>0.45</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8" s="69">
         <v>0.423</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="68">
         <v>4.0</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="69">
         <v>0.2</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="68">
         <v>6.0</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="68">
         <v>5.0</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="68">
         <v>1.0</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="68">
         <v>2.0</v>
       </c>
-      <c r="H9" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="60">
+      <c r="H9" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="68">
         <v>1.0</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="68">
         <v>1.0</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="68">
         <v>1.0</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="69">
         <v>0.2</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="69">
         <v>0.333</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="68">
         <v>9.0</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="69">
         <v>0.542</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="68">
         <v>31.0</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="68">
         <v>24.0</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="68">
         <v>13.0</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="68">
         <v>16.0</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="68">
         <v>8.0</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="68">
         <v>16.0</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="68">
         <v>7.0</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="68">
         <v>2.0</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="69">
         <v>0.833</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="69">
         <v>0.645</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="68">
         <v>4.0</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="69">
         <v>0.333</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="68">
         <v>7.0</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="68">
         <v>6.0</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="68">
         <v>2.0</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="68">
         <v>3.0</v>
       </c>
-      <c r="H11" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="60">
+      <c r="H11" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="68">
         <v>3.0</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="68">
         <v>1.0</v>
       </c>
-      <c r="K11" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="61">
+      <c r="K11" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="69">
         <v>0.333</v>
       </c>
-      <c r="M11" s="61">
+      <c r="M11" s="69">
         <v>0.429</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="68">
         <v>2.0</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="69">
         <v>0.333</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="68">
         <v>3.0</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="68">
         <v>3.0</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="68">
         <v>1.0</v>
       </c>
-      <c r="G12" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="60">
+      <c r="G12" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="68">
         <v>1.0</v>
       </c>
-      <c r="J12" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="61">
+      <c r="J12" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="69">
         <v>0.333</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="69">
         <v>0.333</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="68">
         <v>10.0</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="69">
         <v>0.435</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="68">
         <v>25.0</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="68">
         <v>23.0</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="68">
         <v>10.0</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="68">
         <v>6.0</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="68">
         <v>10.0</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="68">
         <v>5.0</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="68">
         <v>1.0</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="68">
         <v>3.0</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="69">
         <v>0.609</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="69">
         <v>0.44</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="68">
         <v>3.0</v>
       </c>
-      <c r="C14" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="60">
+      <c r="C14" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="68">
         <v>7.0</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="68">
         <v>5.0</v>
       </c>
-      <c r="F14" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="60">
+      <c r="F14" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="68">
         <v>2.0</v>
       </c>
-      <c r="H14" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="60">
+      <c r="H14" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="68">
         <v>1.0</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="68">
         <v>2.0</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="68">
         <v>3.0</v>
       </c>
-      <c r="L14" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="61">
+      <c r="L14" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="69">
         <v>0.286</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="68">
         <v>6.0</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="69">
         <v>0.222</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="68">
         <v>13.0</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="68">
         <v>9.0</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="68">
         <v>2.0</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="68">
         <v>1.0</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="68">
         <v>3.0</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="68">
         <v>1.0</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="68">
         <v>3.0</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="68">
         <v>5.0</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="69">
         <v>0.222</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="69">
         <v>0.417</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="68">
         <v>2.0</v>
       </c>
-      <c r="C16" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="60">
+      <c r="C16" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="68">
         <v>1.0</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="68">
         <v>1.0</v>
       </c>
-      <c r="F16" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M16" s="61">
+      <c r="F16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="69">
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="68">
         <v>2.0</v>
       </c>
-      <c r="C17" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="60">
+      <c r="C17" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="68">
         <v>5.0</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="68">
         <v>3.0</v>
       </c>
-      <c r="F17" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="60">
+      <c r="F17" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="68">
         <v>2.0</v>
       </c>
-      <c r="H17" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="60">
+      <c r="H17" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="68">
         <v>2.0</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="68">
         <v>2.0</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="68">
         <v>1.0</v>
       </c>
-      <c r="L17" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="61">
+      <c r="L17" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="69">
         <v>0.4</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="68">
         <v>7.0</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="69">
         <v>0.611</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="68">
         <v>21.0</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="68">
         <v>18.0</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="68">
         <v>11.0</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="68">
         <v>6.0</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="68">
         <v>6.0</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="68">
         <v>3.0</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="68">
         <v>3.0</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="68">
         <v>2.0</v>
       </c>
-      <c r="L18" s="61">
+      <c r="L18" s="69">
         <v>0.778</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="69">
         <v>0.667</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="68">
         <v>6.0</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="69">
         <v>0.286</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="68">
         <v>15.0</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="68">
         <v>14.0</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="68">
         <v>4.0</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="68">
         <v>2.0</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="68">
         <v>3.0</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="68">
         <v>2.0</v>
       </c>
-      <c r="J19" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="60">
+      <c r="J19" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="68">
         <v>1.0</v>
       </c>
-      <c r="L19" s="61">
+      <c r="L19" s="69">
         <v>0.286</v>
       </c>
-      <c r="M19" s="61">
+      <c r="M19" s="69">
         <v>0.267</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="68">
         <v>5.0</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="69">
         <v>0.143</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="68">
         <v>8.0</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="68">
         <v>7.0</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="68">
         <v>1.0</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="68">
         <v>1.0</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="68">
         <v>4.0</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="68">
         <v>2.0</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="68">
         <v>1.0</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="68">
         <v>3.0</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="69">
         <v>0.143</v>
       </c>
-      <c r="M20" s="61">
+      <c r="M20" s="69">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="68">
         <v>10.0</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="69">
         <v>0.304</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="68">
         <v>25.0</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="68">
         <v>23.0</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="68">
         <v>7.0</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="68">
         <v>9.0</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="68">
         <v>5.0</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="68">
         <v>3.0</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="68">
         <v>2.0</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="68">
         <v>3.0</v>
       </c>
-      <c r="L21" s="61">
+      <c r="L21" s="69">
         <v>0.478</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="69">
         <v>0.36</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="68">
         <v>6.0</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="69">
         <v>0.571</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="68">
         <v>9.0</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="68">
         <v>7.0</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="68">
         <v>4.0</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="68">
         <v>3.0</v>
       </c>
-      <c r="H22" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="60">
+      <c r="H22" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="68">
         <v>4.0</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="68">
         <v>2.0</v>
       </c>
-      <c r="K22" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="61">
+      <c r="K22" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="69">
         <v>0.571</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22" s="69">
         <v>0.667</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="68">
         <v>5.0</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="69">
         <v>0.4</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="68">
         <v>14.0</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="68">
         <v>10.0</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="68">
         <v>4.0</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="68">
         <v>4.0</v>
       </c>
-      <c r="H23" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="60">
+      <c r="H23" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="68">
         <v>4.0</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="68">
         <v>4.0</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="68">
         <v>2.0</v>
       </c>
-      <c r="L23" s="61">
+      <c r="L23" s="69">
         <v>0.4</v>
       </c>
-      <c r="M23" s="61">
+      <c r="M23" s="69">
         <v>0.571</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="68">
         <v>5.0</v>
       </c>
-      <c r="C24" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="60">
+      <c r="C24" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="68">
         <v>9.0</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="68">
         <v>7.0</v>
       </c>
-      <c r="F24" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="60">
+      <c r="F24" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="68">
         <v>1.0</v>
       </c>
-      <c r="H24" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="60">
+      <c r="H24" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="68">
         <v>2.0</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="68">
         <v>1.0</v>
       </c>
-      <c r="L24" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M24" s="61">
+      <c r="L24" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="69">
         <v>0.222</v>
       </c>
     </row>
@@ -18619,7 +19023,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="55">
+      <c r="C25" s="63">
         <f>+F25/E25</f>
         <v>0.3574879227</v>
       </c>
@@ -18655,8 +19059,8 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" ht="16.5" customHeight="1"/>
     <row r="27" ht="16.5" customHeight="1">
@@ -18665,356 +19069,356 @@
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="59" t="s">
+      <c r="A28" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="L28" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="M28" s="59" t="s">
+      <c r="K28" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="M28" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="N28" s="59" t="s">
+      <c r="N28" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="P28" s="59" t="s">
+      <c r="O28" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" s="67" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="68">
         <v>3.0</v>
       </c>
-      <c r="C29" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="60">
+      <c r="C29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="68">
         <v>12.0</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="68">
         <v>6.0</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="70">
         <v>0.666666666</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="68">
         <v>2.0</v>
       </c>
-      <c r="J29" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="60">
+      <c r="J29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="68">
         <v>5.0</v>
       </c>
-      <c r="L29" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="M29" s="60">
+      <c r="L29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="68">
         <v>1.0</v>
       </c>
-      <c r="N29" s="60">
+      <c r="N29" s="68">
         <v>4.0</v>
       </c>
-      <c r="O29" s="60">
+      <c r="O29" s="68">
         <v>1.0</v>
       </c>
-      <c r="P29" s="63">
+      <c r="P29" s="71">
         <f t="shared" ref="P29:P32" si="2">+O29*9/H29</f>
         <v>13.50000001</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="60">
+      <c r="B30" s="68">
         <v>5.0</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="68">
         <v>1.0</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="68">
         <v>1.0</v>
       </c>
-      <c r="E30" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="60">
+      <c r="E30" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="68">
         <v>85.0</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="68">
         <v>64.0</v>
       </c>
-      <c r="H30" s="62">
+      <c r="H30" s="70">
         <v>10.33333333</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="68">
         <v>27.0</v>
       </c>
-      <c r="J30" s="60">
+      <c r="J30" s="68">
         <v>3.0</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="68">
         <v>17.0</v>
       </c>
-      <c r="L30" s="60">
+      <c r="L30" s="68">
         <v>4.0</v>
       </c>
-      <c r="M30" s="60">
+      <c r="M30" s="68">
         <v>7.0</v>
       </c>
-      <c r="N30" s="60">
+      <c r="N30" s="68">
         <v>36.0</v>
       </c>
-      <c r="O30" s="60">
+      <c r="O30" s="68">
         <v>27.0</v>
       </c>
-      <c r="P30" s="63">
+      <c r="P30" s="71">
         <f t="shared" si="2"/>
         <v>23.51612904</v>
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="60">
+      <c r="B31" s="68">
         <v>6.0</v>
       </c>
-      <c r="C31" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="60">
+      <c r="C31" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="68">
         <v>2.0</v>
       </c>
-      <c r="E31" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="60">
+      <c r="E31" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="68">
         <v>54.0</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="68">
         <v>49.0</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="70">
         <v>9.33333333333</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="68">
         <v>13.0</v>
       </c>
-      <c r="J31" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K31" s="60">
+      <c r="J31" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="68">
         <v>5.0</v>
       </c>
-      <c r="L31" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="M31" s="60">
+      <c r="L31" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="68">
         <v>17.0</v>
       </c>
-      <c r="N31" s="60">
+      <c r="N31" s="68">
         <v>12.0</v>
       </c>
-      <c r="O31" s="60">
+      <c r="O31" s="68">
         <v>4.0</v>
       </c>
-      <c r="P31" s="63">
+      <c r="P31" s="71">
         <f t="shared" si="2"/>
         <v>3.857142857</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="60">
+      <c r="B32" s="68">
         <v>3.0</v>
       </c>
-      <c r="C32" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="60">
+      <c r="C32" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="68">
         <v>1.0</v>
       </c>
-      <c r="E32" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="60">
+      <c r="E32" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="68">
         <v>33.0</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="68">
         <v>24.0</v>
       </c>
-      <c r="H32" s="62">
+      <c r="H32" s="70">
         <v>4.6666666666</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="68">
         <v>7.0</v>
       </c>
-      <c r="J32" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="60">
+      <c r="J32" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="68">
         <v>8.0</v>
       </c>
-      <c r="L32" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="M32" s="60">
+      <c r="L32" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="68">
         <v>2.0</v>
       </c>
-      <c r="N32" s="60">
+      <c r="N32" s="68">
         <v>11.0</v>
       </c>
-      <c r="O32" s="60">
+      <c r="O32" s="68">
         <v>5.0</v>
       </c>
-      <c r="P32" s="63">
+      <c r="P32" s="71">
         <f t="shared" si="2"/>
         <v>9.642857143</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="62">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="M33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="N33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="O33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="P33" s="63">
+      <c r="B33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="O33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="P33" s="71">
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="60">
+      <c r="B34" s="68">
         <v>6.0</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="68">
         <v>2.0</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="68">
         <v>2.0</v>
       </c>
-      <c r="E34" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="60">
+      <c r="E34" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="68">
         <v>97.0</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="68">
         <v>74.0</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="70">
         <v>14.33333333</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="68">
         <v>27.0</v>
       </c>
-      <c r="J34" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K34" s="60">
+      <c r="J34" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="68">
         <v>17.0</v>
       </c>
-      <c r="L34" s="60">
+      <c r="L34" s="68">
         <v>6.0</v>
       </c>
-      <c r="M34" s="60">
+      <c r="M34" s="68">
         <v>16.0</v>
       </c>
-      <c r="N34" s="60">
+      <c r="N34" s="68">
         <v>32.0</v>
       </c>
-      <c r="O34" s="60">
+      <c r="O34" s="68">
         <v>27.0</v>
       </c>
-      <c r="P34" s="63">
+      <c r="P34" s="71">
         <f t="shared" ref="P34:P35" si="4">+O34*9/H34</f>
         <v>16.95348838</v>
       </c>
@@ -19076,7 +19480,7 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="P35" s="64">
+      <c r="P35" s="72">
         <f t="shared" si="4"/>
         <v>14.6440678</v>
       </c>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="195">
   <si>
     <t>◎ 라스칼 통산 성적</t>
   </si>
@@ -330,20 +330,20 @@
   </si>
   <si>
     <t>포수 포지션 경쟁 끝에 새로운 집을 짓기로 한 비버마스터
-아이쿠, 이미 1루에 자리잡으려는 세력들이 있군요.
-탄탄한 집을 짓는 비버들과 외야에서 쫒겨나 흉폭한 비버까지...
-비버마스터 혁진권은 이번에야말로 
-자신의 베이스캠프를 완성할 수 있을까요?</t>
+    아이쿠, 이미 1루에 자리잡으려는 세력들이 있군요.
+    탄탄한 집을 짓는 비버들과 외야에서 쫒겨나 흉폭한 비버까지...
+    비버마스터 혁진권은 이번에야말로🌲
+    🌴자신의 베이스캠프를 완성할 수 있을까요?</t>
   </si>
   <si>
     <t>GiBeaver</t>
   </si>
   <si>
-    <t>[{"fontFamily": "Dongle"}, 
-{"fontFamily": "Dongle"},
-{"fontFamily": "Dongle"},
-{"fontFamily": "Dongle"},
-{"fontFamily": "Dongle"}]</t>
+    <t>[{"fontFamily": "Dongle", "fontSize": "17px"}, 
+    {"fontFamily": "Dongle", "fontSize": "18px"},
+    {"fontFamily": "Dongle", "fontSize": "15px"},
+    {"fontFamily": "Dongle", "fontSize": "19px"},
+    {"fontFamily": "Dongle", "fontSize": "19px", "textAlign": "right"}]</t>
   </si>
   <si>
     <r>
@@ -415,7 +415,8 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t>술은 김기태를 상대로 시즌 2승을 올립니다.
+      <t>김기태 선수는 술을 이길 수 없습니다.
+ 시즌 2패.
 연패의 늪에 빠져 정신없이 전화를 돌리는 김기태.</t>
     </r>
   </si>
@@ -540,9 +541,8 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">2023년은 라스칼의 선봉대장 김재영의 해였습니다.
-1번타자 - 타율 1위 , 출루율 1위,
-도루 1위, 득점 1위, V.C 1위
-축하합니다.
+1번타자로 주로 출전 
+타율 1위 , 출루율 1위, 도루 1위, 득점 1위, V.C 1위
 2023년 Rascal MVP는 김재영 선수입니다.
 </t>
     </r>
@@ -578,19 +578,11 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">-2024년에도 총무 연임 확정-
+      <t>-2024년에도 총무 연임 확정-
+-울산으로 이직 성공-
 -전율의 개인커리어 14연패-
 -사진만 찍으면 도형으로 변하는 입-
--역대급 패배요정-
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>(개인 커리어 14연패)</t>
+-역대급 패배요정-</t>
     </r>
   </si>
   <si>
@@ -617,8 +609,8 @@
     <t>DongleDongle</t>
   </si>
   <si>
-    <t>언제나 눈부신 태양이지만 그런 태양에게도 흑점이 있듯.
-파이팅 넘치는 그의 이면에는 아티스트의 고뇌와 섬세함이 함께합니다.
+    <t>언제나 눈부신 태양이지만 그런 태양에게도 흑점이 있습니다.
+파이팅 넘치는 태양이의 이면에는 아티스트의 섬세함이 공존합니다.
 가끔 모두의 관심이 부담이되더라도.
 라스칼의 모두가 당신을 좋아하고, 필요로 한다는 것은 꼭 알아주세요. 
 "태양아 기태도 네 실수가 아쉬워서 그러는거지 진심으로 화내는게 아니야."
@@ -708,7 +700,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>"대구에도 주야 2교대는 실존한다!!!!!"</t>
+      <t>"주야 2교대는 실존한다!!!!!"</t>
     </r>
     <r>
       <rPr>
@@ -842,7 +834,16 @@
     <t>3B</t>
   </si>
   <si>
-    <t>MZ</t>
+    <t>매직스틱</t>
+  </si>
+  <si>
+    <t>올시즌 박재현 선수는 그야말로 "용두사미" 였습니다.
+발은 느리지만 볼 컨택 능력을 인정받아 스타팅으로 자리잡으며
+시즌 초중반 박재현 선수는 무서운 타격 퍼포먼스를 선보였습니다.
+그러나 단점인  수비 능력이 성장하지 못하고 스윙 마저 무뎌지면서
+치솟는 삼진율과 함께 스타팅 자리를 내어주며 시즌을 마감합니다.
+포지션 이해도를 높여서 빠른 판단으로 느린 발과 수비를 커버한다면
+24년 가장 강력한 승리 공식이 될 것이라 믿어의심치 않습니다.</t>
   </si>
   <si>
     <t>BAEK JEONG CHEOL</t>
@@ -906,19 +907,31 @@
     <t>LEE DONG JIN</t>
   </si>
   <si>
+    <t>허수아비</t>
+  </si>
+  <si>
     <t>LEE CHEOL MIN</t>
   </si>
   <si>
-    <t>스태프</t>
+    <t>철자후</t>
   </si>
   <si>
     <t>LIM JI HEON</t>
   </si>
   <si>
+    <t>과거의영광</t>
+  </si>
+  <si>
     <t>CHO TAE HYEONG</t>
   </si>
   <si>
+    <t>먹튀</t>
+  </si>
+  <si>
     <t>CHA HYUN CHUL</t>
+  </si>
+  <si>
+    <t>맏형</t>
   </si>
   <si>
     <t>◎ 22년 하반기 드림즈리그</t>
@@ -1534,11 +1547,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1167387808"/>
-        <c:axId val="425007504"/>
+        <c:axId val="586995968"/>
+        <c:axId val="957297444"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1167387808"/>
+        <c:axId val="586995968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,10 +1603,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425007504"/>
+        <c:crossAx val="957297444"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425007504"/>
+        <c:axId val="957297444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1670,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167387808"/>
+        <c:crossAx val="586995968"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1889,11 +1902,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="705244657"/>
-        <c:axId val="485242283"/>
+        <c:axId val="1317401029"/>
+        <c:axId val="1421918952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="705244657"/>
+        <c:axId val="1317401029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,10 +1958,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485242283"/>
+        <c:crossAx val="1421918952"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485242283"/>
+        <c:axId val="1421918952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2025,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705244657"/>
+        <c:crossAx val="1317401029"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2244,11 +2257,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26227891"/>
-        <c:axId val="1314554326"/>
+        <c:axId val="1403287857"/>
+        <c:axId val="210227726"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26227891"/>
+        <c:axId val="1403287857"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2300,10 +2313,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1314554326"/>
+        <c:crossAx val="210227726"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1314554326"/>
+        <c:axId val="210227726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2380,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26227891"/>
+        <c:crossAx val="1403287857"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2639,11 +2652,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="307517368"/>
-        <c:axId val="1784310262"/>
+        <c:axId val="2006494188"/>
+        <c:axId val="1165119829"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307517368"/>
+        <c:axId val="2006494188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,10 +2708,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784310262"/>
+        <c:crossAx val="1165119829"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784310262"/>
+        <c:axId val="1165119829"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2775,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307517368"/>
+        <c:crossAx val="2006494188"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2863,11 +2876,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="735992803"/>
-        <c:axId val="1245413842"/>
+        <c:axId val="1408497789"/>
+        <c:axId val="615330453"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="735992803"/>
+        <c:axId val="1408497789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,10 +2932,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1245413842"/>
+        <c:crossAx val="615330453"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1245413842"/>
+        <c:axId val="615330453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2987,7 +3000,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735992803"/>
+        <c:crossAx val="1408497789"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
@@ -4736,7 +4749,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -4746,10 +4759,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>33</v>
@@ -5730,10 +5743,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -5742,7 +5755,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>49</v>
@@ -5772,7 +5785,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>58</v>
@@ -14915,7 +14928,7 @@
     <col customWidth="1" min="6" max="6" width="20.29"/>
     <col customWidth="1" min="7" max="7" width="57.14"/>
     <col customWidth="1" min="8" max="8" width="8.86"/>
-    <col customWidth="1" min="9" max="9" width="76.0"/>
+    <col customWidth="1" min="9" max="9" width="68.71"/>
     <col customWidth="1" min="10" max="10" width="45.43"/>
     <col customWidth="1" min="11" max="11" width="19.29"/>
   </cols>
@@ -15433,7 +15446,7 @@
         <v>162</v>
       </c>
       <c r="F16" s="39">
-        <v>30.0</v>
+        <v>12.11</v>
       </c>
       <c r="G16" s="58" t="s">
         <v>163</v>
@@ -15467,9 +15480,11 @@
         <v>168</v>
       </c>
       <c r="F17" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="43"/>
+        <v>100.0</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>169</v>
+      </c>
       <c r="H17" s="56"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
@@ -15478,7 +15493,7 @@
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>23</v>
@@ -15490,31 +15505,31 @@
         <v>107</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F18" s="39">
         <v>100.0</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I18" s="44" t="s">
         <v>125</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K18" s="43"/>
       <c r="L18" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>24</v>
@@ -15525,9 +15540,11 @@
       <c r="D19" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="39" t="s">
+        <v>177</v>
+      </c>
       <c r="F19" s="39">
-        <v>50.0</v>
+        <v>15.0</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="56"/>
@@ -15538,7 +15555,7 @@
     </row>
     <row r="20">
       <c r="A20" s="37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>25</v>
@@ -15550,7 +15567,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F20" s="39">
         <v>100.0</v>
@@ -15564,7 +15581,7 @@
     </row>
     <row r="21">
       <c r="A21" s="37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>26</v>
@@ -15575,9 +15592,8 @@
       <c r="D21" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="57" t="str">
-        <f t="shared" ref="E21:E23" si="2">RIGHT(B21,LEN(B21) - 1)</f>
-        <v>지헌</v>
+      <c r="E21" s="39" t="s">
+        <v>181</v>
       </c>
       <c r="F21" s="39">
         <v>50.0</v>
@@ -15591,7 +15607,7 @@
     </row>
     <row r="22">
       <c r="A22" s="37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>27</v>
@@ -15602,9 +15618,8 @@
       <c r="D22" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="57" t="str">
-        <f t="shared" si="2"/>
-        <v>태형</v>
+      <c r="E22" s="39" t="s">
+        <v>183</v>
       </c>
       <c r="F22" s="39">
         <v>50.0</v>
@@ -15618,7 +15633,7 @@
     </row>
     <row r="23">
       <c r="A23" s="37" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>28</v>
@@ -15627,9 +15642,8 @@
         <v>20.0</v>
       </c>
       <c r="D23" s="38"/>
-      <c r="E23" s="57" t="str">
-        <f t="shared" si="2"/>
-        <v>현철</v>
+      <c r="E23" s="60" t="s">
+        <v>185</v>
       </c>
       <c r="F23" s="39">
         <v>50.0</v>
@@ -15668,7 +15682,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -18066,7 +18080,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -18118,10 +18132,10 @@
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="67" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C3" s="67" t="s">
         <v>33</v>
@@ -19070,10 +19084,10 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="67" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C28" s="67" t="s">
         <v>46</v>
@@ -19100,10 +19114,10 @@
         <v>52</v>
       </c>
       <c r="K28" s="67" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L28" s="67" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M28" s="67" t="s">
         <v>41</v>
@@ -19112,7 +19126,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="67" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P28" s="67" t="s">
         <v>58</v>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="434324846"/>
-        <c:axId val="1894663213"/>
+        <c:axId val="1355840531"/>
+        <c:axId val="1812952704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434324846"/>
+        <c:axId val="1355840531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1894663213"/>
+        <c:crossAx val="1812952704"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1894663213"/>
+        <c:axId val="1812952704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434324846"/>
+        <c:crossAx val="1355840531"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1619660285"/>
-        <c:axId val="156110527"/>
+        <c:axId val="538336658"/>
+        <c:axId val="1214550582"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1619660285"/>
+        <c:axId val="538336658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156110527"/>
+        <c:crossAx val="1214550582"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156110527"/>
+        <c:axId val="1214550582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1619660285"/>
+        <c:crossAx val="538336658"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="380802098"/>
-        <c:axId val="1918041789"/>
+        <c:axId val="838629945"/>
+        <c:axId val="732226909"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="380802098"/>
+        <c:axId val="838629945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1918041789"/>
+        <c:crossAx val="732226909"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1918041789"/>
+        <c:axId val="732226909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380802098"/>
+        <c:crossAx val="838629945"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1205692469"/>
-        <c:axId val="1509708525"/>
+        <c:axId val="1785878234"/>
+        <c:axId val="1992277371"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1205692469"/>
+        <c:axId val="1785878234"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1509708525"/>
+        <c:crossAx val="1992277371"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1509708525"/>
+        <c:axId val="1992277371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1205692469"/>
+        <c:crossAx val="1785878234"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="142790706"/>
-        <c:axId val="1789317631"/>
+        <c:axId val="1899841010"/>
+        <c:axId val="1244467629"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142790706"/>
+        <c:axId val="1899841010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1789317631"/>
+        <c:crossAx val="1244467629"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1789317631"/>
+        <c:axId val="1244467629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142790706"/>
+        <c:crossAx val="1899841010"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1355840531"/>
-        <c:axId val="1812952704"/>
+        <c:axId val="1525379769"/>
+        <c:axId val="1785156029"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1355840531"/>
+        <c:axId val="1525379769"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812952704"/>
+        <c:crossAx val="1785156029"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812952704"/>
+        <c:axId val="1785156029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1355840531"/>
+        <c:crossAx val="1525379769"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="538336658"/>
-        <c:axId val="1214550582"/>
+        <c:axId val="80110254"/>
+        <c:axId val="1536051870"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="538336658"/>
+        <c:axId val="80110254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214550582"/>
+        <c:crossAx val="1536051870"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1214550582"/>
+        <c:axId val="1536051870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538336658"/>
+        <c:crossAx val="80110254"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="838629945"/>
-        <c:axId val="732226909"/>
+        <c:axId val="177641001"/>
+        <c:axId val="811894217"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="838629945"/>
+        <c:axId val="177641001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="732226909"/>
+        <c:crossAx val="811894217"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="732226909"/>
+        <c:axId val="811894217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838629945"/>
+        <c:crossAx val="177641001"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1785878234"/>
-        <c:axId val="1992277371"/>
+        <c:axId val="1338230200"/>
+        <c:axId val="820779133"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1785878234"/>
+        <c:axId val="1338230200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1992277371"/>
+        <c:crossAx val="820779133"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1992277371"/>
+        <c:axId val="820779133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785878234"/>
+        <c:crossAx val="1338230200"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1899841010"/>
-        <c:axId val="1244467629"/>
+        <c:axId val="841297484"/>
+        <c:axId val="1270433381"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1899841010"/>
+        <c:axId val="841297484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244467629"/>
+        <c:crossAx val="1270433381"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1244467629"/>
+        <c:axId val="1270433381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1899841010"/>
+        <c:crossAx val="841297484"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -509,7 +509,7 @@
     <t>「누군 놀고먹고 있는 줄 아십니까? 
 저도 일 중이라고요」
 (딸깍)
-&lt;img src="/image/click.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+&lt;img src="/rascal_photo_card/image/click.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"23px", "textAlign":"left"},
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1525379769"/>
-        <c:axId val="1785156029"/>
+        <c:axId val="2040340016"/>
+        <c:axId val="976665647"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525379769"/>
+        <c:axId val="2040340016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785156029"/>
+        <c:crossAx val="976665647"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1785156029"/>
+        <c:axId val="976665647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525379769"/>
+        <c:crossAx val="2040340016"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="80110254"/>
-        <c:axId val="1536051870"/>
+        <c:axId val="865364114"/>
+        <c:axId val="243423133"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80110254"/>
+        <c:axId val="865364114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1536051870"/>
+        <c:crossAx val="243423133"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1536051870"/>
+        <c:axId val="243423133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80110254"/>
+        <c:crossAx val="865364114"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="177641001"/>
-        <c:axId val="811894217"/>
+        <c:axId val="1752123574"/>
+        <c:axId val="1627531056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177641001"/>
+        <c:axId val="1752123574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811894217"/>
+        <c:crossAx val="1627531056"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="811894217"/>
+        <c:axId val="1627531056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177641001"/>
+        <c:crossAx val="1752123574"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1338230200"/>
-        <c:axId val="820779133"/>
+        <c:axId val="1467606358"/>
+        <c:axId val="474500904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1338230200"/>
+        <c:axId val="1467606358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="820779133"/>
+        <c:crossAx val="474500904"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="820779133"/>
+        <c:axId val="474500904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338230200"/>
+        <c:crossAx val="1467606358"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="841297484"/>
-        <c:axId val="1270433381"/>
+        <c:axId val="430715562"/>
+        <c:axId val="71777529"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="841297484"/>
+        <c:axId val="430715562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270433381"/>
+        <c:crossAx val="71777529"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270433381"/>
+        <c:axId val="71777529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="841297484"/>
+        <c:crossAx val="430715562"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -397,7 +397,7 @@
         <color theme="1"/>
         <sz val="9.0"/>
       </rPr>
-      <t>&lt;img src="/image/beaver.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.4;" /&gt;</t>
+      <t>&lt;img src="/rascal_photo_card/image/beaver.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.4;" /&gt;</t>
     </r>
   </si>
   <si>
@@ -894,7 +894,7 @@
   &lt;div style="font-size:5px;"&gt;ㅤ&lt;/div&gt;
   - 은퇴왕 산복 D 희제 (23년 12월 10일 은퇴) (진짜임)
   &lt;/div&gt;
-  &lt;img src="/image/gold.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+  &lt;img src="/rascal_photo_card/rascal_photo_card/image/gold.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[]</t>
@@ -936,7 +936,7 @@
 사촌 정도 하겠습니다."
 ㅤ
 - 2023.10.24. Instagram 中
-&lt;img src="/image/wind.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.8;" /&gt;</t>
+&lt;img src="/rascal_photo_card/image/wind.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.8;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"19.3px"},
@@ -1204,7 +1204,7 @@
 「돼」
 ㅤ
 -2023.10.28. 이동진 환골탈태를 준비하다.
-&lt;img src="/image/onePunch.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.1;" /&gt;</t>
+&lt;img src="/rascal_photo_card/image/onePunch.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.1;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"16px", "font-family": "Stylish"},
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2040340016"/>
-        <c:axId val="976665647"/>
+        <c:axId val="337435605"/>
+        <c:axId val="656400168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2040340016"/>
+        <c:axId val="337435605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976665647"/>
+        <c:crossAx val="656400168"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="976665647"/>
+        <c:axId val="656400168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040340016"/>
+        <c:crossAx val="337435605"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="865364114"/>
-        <c:axId val="243423133"/>
+        <c:axId val="1620796934"/>
+        <c:axId val="1521556443"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="865364114"/>
+        <c:axId val="1620796934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243423133"/>
+        <c:crossAx val="1521556443"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243423133"/>
+        <c:axId val="1521556443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="865364114"/>
+        <c:crossAx val="1620796934"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1752123574"/>
-        <c:axId val="1627531056"/>
+        <c:axId val="98325973"/>
+        <c:axId val="1857889638"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1752123574"/>
+        <c:axId val="98325973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627531056"/>
+        <c:crossAx val="1857889638"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627531056"/>
+        <c:axId val="1857889638"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1752123574"/>
+        <c:crossAx val="98325973"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1467606358"/>
-        <c:axId val="474500904"/>
+        <c:axId val="1258390663"/>
+        <c:axId val="1121586562"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1467606358"/>
+        <c:axId val="1258390663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474500904"/>
+        <c:crossAx val="1121586562"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474500904"/>
+        <c:axId val="1121586562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1467606358"/>
+        <c:crossAx val="1258390663"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="430715562"/>
-        <c:axId val="71777529"/>
+        <c:axId val="1770819257"/>
+        <c:axId val="1814969989"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430715562"/>
+        <c:axId val="1770819257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71777529"/>
+        <c:crossAx val="1814969989"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71777529"/>
+        <c:axId val="1814969989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430715562"/>
+        <c:crossAx val="1770819257"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -894,7 +894,7 @@
   &lt;div style="font-size:5px;"&gt;ㅤ&lt;/div&gt;
   - 은퇴왕 산복 D 희제 (23년 12월 10일 은퇴) (진짜임)
   &lt;/div&gt;
-  &lt;img src="/rascal_photo_card/rascal_photo_card/image/gold.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+  &lt;img src="/rascal_photo_card/image/gold.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[]</t>
@@ -1040,7 +1040,7 @@
 - 2023년 9월 24일 방천구장에서
 ㅤ
 이후로 민석을 보는 눈빛이 심상치 않다.
-&lt;img src="/image/marine.svg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+&lt;img src="/rascal_photo_card/image/marine.svg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"20px", "textAlign": "left"},
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="337435605"/>
-        <c:axId val="656400168"/>
+        <c:axId val="463044470"/>
+        <c:axId val="1466021229"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="337435605"/>
+        <c:axId val="463044470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656400168"/>
+        <c:crossAx val="1466021229"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656400168"/>
+        <c:axId val="1466021229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337435605"/>
+        <c:crossAx val="463044470"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1620796934"/>
-        <c:axId val="1521556443"/>
+        <c:axId val="1228871988"/>
+        <c:axId val="1049065299"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1620796934"/>
+        <c:axId val="1228871988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1521556443"/>
+        <c:crossAx val="1049065299"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1521556443"/>
+        <c:axId val="1049065299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620796934"/>
+        <c:crossAx val="1228871988"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="98325973"/>
-        <c:axId val="1857889638"/>
+        <c:axId val="237488779"/>
+        <c:axId val="387129514"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98325973"/>
+        <c:axId val="237488779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1857889638"/>
+        <c:crossAx val="387129514"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1857889638"/>
+        <c:axId val="387129514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98325973"/>
+        <c:crossAx val="237488779"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1258390663"/>
-        <c:axId val="1121586562"/>
+        <c:axId val="2086463328"/>
+        <c:axId val="537256110"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1258390663"/>
+        <c:axId val="2086463328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1121586562"/>
+        <c:crossAx val="537256110"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1121586562"/>
+        <c:axId val="537256110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1258390663"/>
+        <c:crossAx val="2086463328"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1770819257"/>
-        <c:axId val="1814969989"/>
+        <c:axId val="1194581052"/>
+        <c:axId val="2124503997"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1770819257"/>
+        <c:axId val="1194581052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814969989"/>
+        <c:crossAx val="2124503997"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1814969989"/>
+        <c:axId val="2124503997"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1770819257"/>
+        <c:crossAx val="1194581052"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -513,7 +513,7 @@
   </si>
   <si>
     <t>[{"fontSize":"23px", "textAlign":"left"},
-{"fontSize":"30px", "textAlign":"right"},{"fontSize":"50px"}]</t>
+{"fontSize":"30px", "textAlign":"right"},{"fontSize":"30px"}]</t>
   </si>
   <si>
     <t>KIM BEOM HUI</t>
@@ -800,7 +800,7 @@
 {"fontSize":"20px", "fontFamily":"Black And White Picture", "textShadow": "2px 2px 0px rgba(191, 0, 0, 0.8)"},
 {"fontSize":"20px", "fontFamily":"Black And White Picture", "textShadow": "2px 2px 0px rgba(159, 0, 0, 0.8)"},
 {"fontSize":"5px"},
-{"fontSize":"16px"},
+{"fontSize":"15px"},
 {"fontSize":"16px"}]</t>
   </si>
   <si>
@@ -1050,7 +1050,7 @@
   {"fontSize":"5px"},
   {"fontSize":"15px"},
   {"fontSize":"5px"},
-  {"fontSize":"10px"}]</t>
+  {"fontSize":"13px"}]</t>
   </si>
   <si>
     <t>PARK JAE HYUN</t>
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="463044470"/>
-        <c:axId val="1466021229"/>
+        <c:axId val="306851904"/>
+        <c:axId val="2010410329"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463044470"/>
+        <c:axId val="306851904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1466021229"/>
+        <c:crossAx val="2010410329"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1466021229"/>
+        <c:axId val="2010410329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463044470"/>
+        <c:crossAx val="306851904"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1228871988"/>
-        <c:axId val="1049065299"/>
+        <c:axId val="593355421"/>
+        <c:axId val="1115978468"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1228871988"/>
+        <c:axId val="593355421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1049065299"/>
+        <c:crossAx val="1115978468"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1049065299"/>
+        <c:axId val="1115978468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228871988"/>
+        <c:crossAx val="593355421"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="237488779"/>
-        <c:axId val="387129514"/>
+        <c:axId val="1567164582"/>
+        <c:axId val="1437396050"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237488779"/>
+        <c:axId val="1567164582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387129514"/>
+        <c:crossAx val="1437396050"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387129514"/>
+        <c:axId val="1437396050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237488779"/>
+        <c:crossAx val="1567164582"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2086463328"/>
-        <c:axId val="537256110"/>
+        <c:axId val="477432180"/>
+        <c:axId val="1790203071"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086463328"/>
+        <c:axId val="477432180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537256110"/>
+        <c:crossAx val="1790203071"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537256110"/>
+        <c:axId val="1790203071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086463328"/>
+        <c:crossAx val="477432180"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1194581052"/>
-        <c:axId val="2124503997"/>
+        <c:axId val="1572933086"/>
+        <c:axId val="2052995018"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1194581052"/>
+        <c:axId val="1572933086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124503997"/>
+        <c:crossAx val="2052995018"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124503997"/>
+        <c:axId val="2052995018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194581052"/>
+        <c:crossAx val="1572933086"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
@@ -13886,7 +13886,7 @@
       <c r="I5" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="42" t="s">
         <v>106</v>
       </c>
       <c r="K5" s="41"/>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="231">
   <si>
     <t>◎ 라스칼 통산 성적</t>
   </si>
@@ -204,9 +204,6 @@
     <t>방어율</t>
   </si>
   <si>
-    <t>RBI</t>
-  </si>
-  <si>
     <t>장타</t>
   </si>
   <si>
@@ -216,19 +213,7 @@
     <t>V.C</t>
   </si>
   <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>ERA</t>
-  </si>
-  <si>
-    <t>K/9</t>
-  </si>
-  <si>
-    <t>H/9</t>
-  </si>
-  <si>
-    <t>BB/9</t>
+    <t>피안타율</t>
   </si>
   <si>
     <t>WHIP</t>
@@ -581,18 +566,12 @@
     <t>짧은 시간 투수로서의 
 가능성만큼은 보여주고 떠납니다. 
 ㅤ
-다행히 더 좋은 주인을 만나 
-유니폼을 새로 살 필요는 없을 것 같습니다.
-ㅤ
 새로운 도전과 목표를 응원하며, 
 팀에 돌아오는 그날을 기대합니다.</t>
   </si>
   <si>
     <t>[{"fontSize":"20px"},
 {"fontSize":"20px"},
-{"fontSize":"5px"},
-{"fontSize":"20px"},
-{"fontSize":"18px"},
 {"fontSize":"5px"},
 {"fontSize":"20px"},
 {"fontSize":"19px"},
@@ -1460,9 +1439,6 @@
     <t>탈삼진율</t>
   </si>
   <si>
-    <t>피안타율</t>
-  </si>
-  <si>
     <t>컨트롤</t>
   </si>
   <si>
@@ -2100,11 +2076,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="730159971"/>
-        <c:axId val="1849518898"/>
+        <c:axId val="393072831"/>
+        <c:axId val="1849460430"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="730159971"/>
+        <c:axId val="393072831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,10 +2132,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1849518898"/>
+        <c:crossAx val="1849460430"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1849518898"/>
+        <c:axId val="1849460430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="730159971"/>
+        <c:crossAx val="393072831"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2455,11 +2431,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1131329594"/>
-        <c:axId val="1146470842"/>
+        <c:axId val="1995299215"/>
+        <c:axId val="1664030350"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1131329594"/>
+        <c:axId val="1995299215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,10 +2487,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146470842"/>
+        <c:crossAx val="1664030350"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146470842"/>
+        <c:axId val="1664030350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +2554,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1131329594"/>
+        <c:crossAx val="1995299215"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2810,11 +2786,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="483462939"/>
-        <c:axId val="1664368956"/>
+        <c:axId val="1988679330"/>
+        <c:axId val="1871119409"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="483462939"/>
+        <c:axId val="1988679330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,10 +2842,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664368956"/>
+        <c:crossAx val="1871119409"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1664368956"/>
+        <c:axId val="1871119409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483462939"/>
+        <c:crossAx val="1988679330"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3205,11 +3181,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1922127048"/>
-        <c:axId val="313322215"/>
+        <c:axId val="476709138"/>
+        <c:axId val="412092314"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1922127048"/>
+        <c:axId val="476709138"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,10 +3237,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313322215"/>
+        <c:crossAx val="412092314"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313322215"/>
+        <c:axId val="412092314"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +3304,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1922127048"/>
+        <c:crossAx val="476709138"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3429,11 +3405,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66266737"/>
-        <c:axId val="795537031"/>
+        <c:axId val="2096569564"/>
+        <c:axId val="1832880983"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66266737"/>
+        <c:axId val="2096569564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3485,10 +3461,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="795537031"/>
+        <c:crossAx val="1832880983"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="795537031"/>
+        <c:axId val="1832880983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3553,7 +3529,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66266737"/>
+        <c:crossAx val="2096569564"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
@@ -5302,7 +5278,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -5312,10 +5288,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>33</v>
@@ -6296,10 +6272,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -6308,7 +6284,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>49</v>
@@ -6338,7 +6314,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>58</v>
@@ -9961,19 +9937,19 @@
         <v>33</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -13484,25 +13460,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
@@ -13691,42 +13667,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="I1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="J1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>8</v>
@@ -13735,31 +13711,31 @@
         <v>29.0</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="37">
         <v>7.0</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K2" s="42"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>9</v>
@@ -13768,31 +13744,31 @@
         <v>10.0</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F3" s="37">
         <v>50.0</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K3" s="42"/>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>10</v>
@@ -13801,31 +13777,31 @@
         <v>50.0</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F4" s="37">
         <v>100.0</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K4" s="42"/>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>11</v>
@@ -13834,31 +13810,31 @@
         <v>12.0</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F5" s="37">
         <v>1.0</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K5" s="42"/>
     </row>
     <row r="6">
       <c r="A6" s="35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>12</v>
@@ -13867,33 +13843,33 @@
         <v>46.0</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F6" s="37">
         <v>100.0</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>13</v>
@@ -13902,31 +13878,31 @@
         <v>91.0</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F7" s="37">
         <v>100.0</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K7" s="42"/>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>14</v>
@@ -13935,33 +13911,33 @@
         <v>3.0</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F8" s="37">
         <v>100.0</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>15</v>
@@ -13970,31 +13946,31 @@
         <v>27.0</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F9" s="37">
         <v>1.0</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K9" s="42"/>
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>16</v>
@@ -14003,31 +13979,31 @@
         <v>13.0</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F10" s="37">
         <v>50.0</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K10" s="42"/>
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>17</v>
@@ -14036,29 +14012,29 @@
         <v>25.0</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F11" s="37">
         <v>0.1</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="45" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K11" s="42"/>
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>17</v>
@@ -14067,31 +14043,31 @@
         <v>25.0</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F12" s="37">
         <v>12.0</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K12" s="42"/>
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>18</v>
@@ -14100,31 +14076,31 @@
         <v>21.0</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F13" s="37">
         <v>1.0</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K13" s="42"/>
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>19</v>
@@ -14133,31 +14109,31 @@
         <v>55.0</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F14" s="37">
         <v>64.0</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K14" s="42"/>
     </row>
     <row r="15">
       <c r="A15" s="35" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>20</v>
@@ -14166,31 +14142,31 @@
         <v>88.0</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F15" s="37">
         <v>100.0</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K15" s="42"/>
     </row>
     <row r="16">
       <c r="A16" s="35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>21</v>
@@ -14199,31 +14175,31 @@
         <v>0.0</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F16" s="37">
         <v>12.11</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K16" s="42"/>
     </row>
     <row r="17">
       <c r="A17" s="35" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>22</v>
@@ -14232,31 +14208,31 @@
         <v>18.0</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F17" s="37">
         <v>2.0</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K17" s="42"/>
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>23</v>
@@ -14265,33 +14241,33 @@
         <v>100.0</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F18" s="37">
         <v>100.0</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>24</v>
@@ -14300,31 +14276,31 @@
         <v>17.0</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F19" s="37">
         <v>58.0</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K19" s="42"/>
     </row>
     <row r="20">
       <c r="A20" s="35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>25</v>
@@ -14333,31 +14309,31 @@
         <v>14.0</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F20" s="37">
         <v>100.0</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K20" s="42"/>
     </row>
     <row r="21">
       <c r="A21" s="35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>26</v>
@@ -14366,31 +14342,31 @@
         <v>56.0</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F21" s="37">
         <v>100.0</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K21" s="42"/>
     </row>
     <row r="22">
       <c r="A22" s="35" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>27</v>
@@ -14399,31 +14375,31 @@
         <v>1.0</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F22" s="37">
         <v>10.0</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K22" s="42"/>
     </row>
     <row r="23">
       <c r="A23" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>28</v>
@@ -14432,25 +14408,25 @@
         <v>20.0</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F23" s="37">
         <v>46.0</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K23" s="42"/>
     </row>
@@ -26160,13 +26136,13 @@
         <v>39</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>34</v>
@@ -26198,7 +26174,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B2" s="28">
         <f t="shared" ref="B2:Q2" si="1">MAX(B3:B19)</f>
@@ -26265,7 +26241,7 @@
         <v>0.6803333333</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
@@ -30365,16 +30341,16 @@
         <v>58</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>32</v>
@@ -30421,7 +30397,7 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B2" s="62">
         <f>MAX(B3:B7)</f>
@@ -30956,7 +30932,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -33354,7 +33330,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -33406,10 +33382,10 @@
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="71" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C3" s="71" t="s">
         <v>33</v>
@@ -34358,10 +34334,10 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="71" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C28" s="71" t="s">
         <v>46</v>
@@ -34388,10 +34364,10 @@
         <v>52</v>
       </c>
       <c r="K28" s="71" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L28" s="71" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M28" s="71" t="s">
         <v>41</v>
@@ -34400,7 +34376,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="71" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P28" s="71" t="s">
         <v>58</v>

--- a/public/rascal_data.xlsx
+++ b/public/rascal_data.xlsx
@@ -544,8 +544,8 @@
 -전혀 복구하지 못했음</t>
   </si>
   <si>
-    <t>[{"fontSize":"30px", "textAlign":"left"},
-{"fontSize":"25px", "textAlign":"right"},
+    <t>[{"fontSize":"23px", "textAlign":"left"},
+{"fontSize":"23px", "textAlign":"right"},
 {"fontSize":"5px"},
 {"fontSize":"15px"}]</t>
   </si>
@@ -1059,18 +1059,14 @@
   </si>
   <si>
     <t>&lt;div class="speech-container-you"&gt;&lt;div class="speech-bubble-you"&gt;올 시즌을 마감하면서 남기고 싶은 한마디 있나?&lt;/div&gt;&lt;/div&gt;
-&lt;div class="speech-container-me"&gt;&lt;div class="speech-bubble-me"&gt;저는 하나 밖에 없죠.&lt;/div&gt;&lt;/div&gt;
 &lt;div class="speech-container-me"&gt;&lt;div class="speech-bubble-me"&gt;허리디스크 수술 후 재활 잘되어&lt;/div&gt;&lt;/div&gt;
 &lt;div class="speech-container-me"&gt;&lt;div class="speech-bubble-me"&gt;형들이랑 재밌게 한 해 야구해서 행복했습니다.&lt;/div&gt;
-&lt;div class="speech-container-me"&gt;&lt;div class="speech-bubble-me"&gt;진짜 열심히 뛴 것 맞습니다&lt;/div&gt;&lt;/div&gt;
--전혀 하나가 아니었음</t>
+&lt;div class="speech-container-me"&gt;&lt;div class="speech-bubble-me"&gt;그리고 진짜 열심히 뛴 것 맞습니다&lt;/div&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"15px"},
 {"fontSize":"15px"},
 {"fontSize":"15px"},
-{"fontSize":"15px"},
-{"fontSize":"12px"},
 {"fontSize":"15px"}]</t>
   </si>
   <si>
@@ -1193,12 +1189,12 @@
   </si>
   <si>
     <t>작년의 이 선수는 5할의 공격 능력과 독보적인 수비 능력으로
-22' 라스칼 제1대 최우수 수비선수인 골든 글러브였습니다.
+22년 최초의 라스칼 골든 글러브였습니다.
 ㅤ
 하지만 리그의 수준이 높아지고 자잘한 부상들이 겹치면서
 타율과 수비능력이 가파르게 하락세로 이어지고있습니다.
 ㅤ
-초대 골든 글러브의 기대를 무색게하는
+전시즌 골든 글러브의 위상에는 미치지못하는
 성적으로 시즌을 마감합니다.
 기본적인 피지컬이 너무나도 뛰어나 
 지금까지 큰 불편이 없었지만
@@ -1679,7 +1675,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1839,13 +1835,16 @@
     <xf borderId="1" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="23" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2036,11 +2035,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="182655301"/>
-        <c:axId val="874825189"/>
+        <c:axId val="876783577"/>
+        <c:axId val="1928251699"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182655301"/>
+        <c:axId val="876783577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,10 +2091,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874825189"/>
+        <c:crossAx val="1928251699"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="874825189"/>
+        <c:axId val="1928251699"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2158,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182655301"/>
+        <c:crossAx val="876783577"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2391,11 +2390,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1137646581"/>
-        <c:axId val="822930354"/>
+        <c:axId val="386476595"/>
+        <c:axId val="835911679"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1137646581"/>
+        <c:axId val="386476595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,10 +2446,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="822930354"/>
+        <c:crossAx val="835911679"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="822930354"/>
+        <c:axId val="835911679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,7 +2513,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1137646581"/>
+        <c:crossAx val="386476595"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2746,11 +2745,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1692565311"/>
-        <c:axId val="506387081"/>
+        <c:axId val="1155724120"/>
+        <c:axId val="1158706688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1692565311"/>
+        <c:axId val="1155724120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,10 +2801,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506387081"/>
+        <c:crossAx val="1158706688"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="506387081"/>
+        <c:axId val="1158706688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2868,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1692565311"/>
+        <c:crossAx val="1155724120"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3141,11 +3140,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="187480347"/>
-        <c:axId val="1241445258"/>
+        <c:axId val="1185891354"/>
+        <c:axId val="1499869352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187480347"/>
+        <c:axId val="1185891354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,10 +3196,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241445258"/>
+        <c:crossAx val="1499869352"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1241445258"/>
+        <c:axId val="1499869352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,7 +3263,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187480347"/>
+        <c:crossAx val="1185891354"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3365,11 +3364,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="814991822"/>
-        <c:axId val="494681610"/>
+        <c:axId val="715199909"/>
+        <c:axId val="302739538"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="814991822"/>
+        <c:axId val="715199909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,10 +3420,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494681610"/>
+        <c:crossAx val="302739538"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494681610"/>
+        <c:axId val="302739538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3489,7 +3488,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="814991822"/>
+        <c:crossAx val="715199909"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
@@ -6171,7 +6170,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="62">
+      <c r="C25" s="63">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
@@ -6207,23 +6206,23 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
@@ -6302,7 +6301,7 @@
       <c r="G29" s="15">
         <v>8.0</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="60">
         <v>1.0</v>
       </c>
       <c r="I29" s="15">
@@ -6353,7 +6352,7 @@
       <c r="G30" s="15">
         <v>0.0</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="60">
         <v>0.0</v>
       </c>
       <c r="I30" s="15">
@@ -6403,7 +6402,7 @@
       <c r="G31" s="15">
         <v>15.0</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="60">
         <v>3.0</v>
       </c>
       <c r="I31" s="15">
@@ -6454,7 +6453,7 @@
       <c r="G32" s="15">
         <v>26.0</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="60">
         <v>4.0</v>
       </c>
       <c r="I32" s="15">
@@ -6505,7 +6504,7 @@
       <c r="G33" s="15">
         <v>2.0</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="60">
         <v>0.3333333</v>
       </c>
       <c r="I33" s="15">
@@ -6556,7 +6555,7 @@
       <c r="G34" s="15">
         <v>6.0</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="60">
         <v>1.6666666666</v>
       </c>
       <c r="I34" s="15">
@@ -6607,7 +6606,7 @@
       <c r="G35" s="15">
         <v>76.0</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="60">
         <v>7.333333333</v>
       </c>
       <c r="I35" s="15">
@@ -9940,8 +9939,8 @@
         <v>45.0</v>
       </c>
       <c r="H2" s="15">
-        <f>round('타자_raw'!H3,0)</f>
-        <v>64</v>
+        <f>round('타자_raw'!H3 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -9972,8 +9971,8 @@
         <v>70.0</v>
       </c>
       <c r="H3" s="15">
-        <f>round('타자_raw'!H4,0)</f>
-        <v>83</v>
+        <f>round('타자_raw'!H4 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -10004,8 +10003,8 @@
         <v>30.0</v>
       </c>
       <c r="H4" s="15">
-        <f>round('타자_raw'!H5,0)</f>
-        <v>20</v>
+        <f>round('타자_raw'!H5 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>0</v>
       </c>
       <c r="I4" s="26"/>
     </row>
@@ -10037,8 +10036,8 @@
         <v>80.0</v>
       </c>
       <c r="H5" s="15">
-        <f>round('타자_raw'!H6,0)</f>
-        <v>64</v>
+        <f>round('타자_raw'!H6 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -10069,8 +10068,8 @@
         <v>70.0</v>
       </c>
       <c r="H6" s="15">
-        <f>round('타자_raw'!H7,0)</f>
-        <v>86</v>
+        <f>round('타자_raw'!H7 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -10101,8 +10100,8 @@
         <v>40.0</v>
       </c>
       <c r="H7" s="15">
-        <f>round('타자_raw'!H8,0)</f>
-        <v>75</v>
+        <f>round('타자_raw'!H8 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -10133,8 +10132,8 @@
         <v>40.0</v>
       </c>
       <c r="H8" s="15">
-        <f>round('타자_raw'!H9,0)</f>
-        <v>88</v>
+        <f>round('타자_raw'!H9 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -10165,8 +10164,8 @@
         <v>15.0</v>
       </c>
       <c r="H9" s="15">
-        <f>round('타자_raw'!H10,0)</f>
-        <v>83</v>
+        <f>round('타자_raw'!H10 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -10197,8 +10196,8 @@
         <v>40.0</v>
       </c>
       <c r="H10" s="15">
-        <f>round('타자_raw'!H11,0)</f>
-        <v>40</v>
+        <f>round('타자_raw'!H11 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -10229,8 +10228,8 @@
         <v>60.0</v>
       </c>
       <c r="H11" s="15">
-        <f>round('타자_raw'!H12,0)</f>
-        <v>50</v>
+        <f>round('타자_raw'!H12 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -10261,8 +10260,8 @@
         <v>90.0</v>
       </c>
       <c r="H12" s="15">
-        <f>round('타자_raw'!H13,0)</f>
-        <v>43</v>
+        <f>round('타자_raw'!H13 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -10293,8 +10292,8 @@
         <v>10.0</v>
       </c>
       <c r="H13" s="15">
-        <f>round('타자_raw'!H14,0)</f>
-        <v>67</v>
+        <f>round('타자_raw'!H14 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -10325,8 +10324,8 @@
         <v>100.0</v>
       </c>
       <c r="H14" s="15">
-        <f>round('타자_raw'!H15,0)</f>
-        <v>86</v>
+        <f>round('타자_raw'!H15 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -10357,8 +10356,8 @@
         <v>70.0</v>
       </c>
       <c r="H15" s="15">
-        <f>round('타자_raw'!H16,0)</f>
-        <v>21</v>
+        <f>round('타자_raw'!H16 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -10389,8 +10388,8 @@
         <v>70.0</v>
       </c>
       <c r="H16" s="15">
-        <f>round('타자_raw'!H17,0)</f>
-        <v>68</v>
+        <f>round('타자_raw'!H17 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -10421,8 +10420,8 @@
         <v>35.0</v>
       </c>
       <c r="H17" s="15">
-        <f>round('타자_raw'!H18,0)</f>
-        <v>64</v>
+        <f>round('타자_raw'!H18 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -10453,8 +10452,8 @@
         <v>65.0</v>
       </c>
       <c r="H18" s="15">
-        <f>round('타자_raw'!H19,0)</f>
-        <v>77</v>
+        <f>round('타자_raw'!H19 / '타자_raw'!$H$2 * 100, 0)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -13619,9 +13618,9 @@
     <col customWidth="1" min="1" max="1" width="40.71"/>
     <col customWidth="1" min="5" max="5" width="14.86"/>
     <col customWidth="1" min="6" max="6" width="20.29"/>
-    <col customWidth="1" min="7" max="7" width="44.43"/>
+    <col customWidth="1" min="7" max="7" width="68.71"/>
     <col customWidth="1" min="8" max="8" width="30.57"/>
-    <col customWidth="1" min="9" max="9" width="30.86"/>
+    <col customWidth="1" min="9" max="9" width="125.0"/>
     <col customWidth="1" min="10" max="10" width="22.71"/>
   </cols>
   <sheetData>
@@ -26160,9 +26159,9 @@
         <f t="shared" si="1"/>
         <v>1.553</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="53">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>51.72413793</v>
       </c>
       <c r="I2" s="28">
         <f t="shared" si="1"/>
@@ -26224,16 +26223,16 @@
         <f>+'22년 드림즈(23)'!I5+'23년 상반기 코모도(23)'!I5+'23년 디비전 리그(23)'!I5</f>
         <v>1</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="54">
         <v>45.0</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="55">
         <f t="shared" ref="G3:G19" si="4">P3+Q3</f>
         <v>0.5793333333</v>
       </c>
-      <c r="H3" s="55">
-        <f t="shared" ref="H3:H4" si="5">100-(O3/(I3-L3-N3))*100</f>
-        <v>63.63636364</v>
+      <c r="H3" s="56">
+        <f t="shared" ref="H3:H19" si="5">(O3/B3)*100</f>
+        <v>17.39130435</v>
       </c>
       <c r="I3" s="15">
         <f>+'22년 드림즈(23)'!D5+'23년 상반기 코모도(23)'!D5+'23년 디비전 리그(23)'!D5</f>
@@ -26292,16 +26291,16 @@
         <f>+'22년 드림즈(23)'!I6+'23년 상반기 코모도(23)'!I6+'23년 디비전 리그(23)'!I6</f>
         <v>13</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="54">
         <v>70.0</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="55">
         <f t="shared" si="4"/>
         <v>1.120666667</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="56">
         <f t="shared" si="5"/>
-        <v>83.33333333</v>
+        <v>8</v>
       </c>
       <c r="I4" s="15">
         <f>+'22년 드림즈(23)'!D6+'23년 상반기 코모도(23)'!D6+'23년 디비전 리그(23)'!D6</f>
@@ -26360,15 +26359,16 @@
         <f>+'22년 드림즈(23)'!I7+'23년 상반기 코모도(23)'!I7+'23년 디비전 리그(23)'!I7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="54">
         <v>30.0</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H5" s="53">
-        <v>20.0</v>
+      <c r="H5" s="56">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I5" s="15">
         <f>+'22년 드림즈(23)'!D7+'23년 상반기 코모도(23)'!D7+'23년 디비전 리그(23)'!D7</f>
@@ -26427,16 +26427,16 @@
         <f>+'22년 드림즈(23)'!I8+'23년 상반기 코모도(23)'!I8+'23년 디비전 리그(23)'!I8</f>
         <v>7</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="54">
         <v>80.0</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="55">
         <f t="shared" si="4"/>
         <v>1.082333333</v>
       </c>
-      <c r="H6" s="55">
-        <f t="shared" ref="H6:H19" si="6">100-(O6/(I6-L6-N6))*100</f>
-        <v>64.28571429</v>
+      <c r="H6" s="56">
+        <f t="shared" si="5"/>
+        <v>18.86792453</v>
       </c>
       <c r="I6" s="15">
         <f>+'22년 드림즈(23)'!D8+'23년 상반기 코모도(23)'!D8+'23년 디비전 리그(23)'!D8</f>
@@ -26495,16 +26495,16 @@
         <f>+'22년 드림즈(23)'!I10+'23년 상반기 코모도(23)'!I10+'23년 디비전 리그(23)'!I10</f>
         <v>42</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="54">
         <v>70.0</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="55">
         <f t="shared" si="4"/>
         <v>1.527333333</v>
       </c>
-      <c r="H7" s="55">
-        <f t="shared" si="6"/>
-        <v>85.71428571</v>
+      <c r="H7" s="56">
+        <f t="shared" si="5"/>
+        <v>4.761904762</v>
       </c>
       <c r="I7" s="15">
         <f>+'22년 드림즈(23)'!D10+'23년 상반기 코모도(23)'!D10+'23년 디비전 리그(23)'!D10</f>
@@ -26563,16 +26563,16 @@
         <f>+'22년 드림즈(23)'!I11+'23년 상반기 코모도(23)'!I11+'23년 디비전 리그(23)'!I11</f>
         <v>5</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="54">
         <v>40.0</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="55">
         <f t="shared" si="4"/>
         <v>0.452</v>
       </c>
-      <c r="H8" s="55">
-        <f t="shared" si="6"/>
-        <v>75</v>
+      <c r="H8" s="56">
+        <f t="shared" si="5"/>
+        <v>17.39130435</v>
       </c>
       <c r="I8" s="15">
         <f>+'22년 드림즈(23)'!D11+'23년 상반기 코모도(23)'!D11+'23년 디비전 리그(23)'!D11</f>
@@ -26631,16 +26631,16 @@
         <f>+'22년 드림즈(23)'!I12+'23년 상반기 코모도(23)'!I12+'23년 디비전 리그(23)'!I12</f>
         <v>1</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="54">
         <v>40.0</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="55">
         <f t="shared" si="4"/>
         <v>0.4443333333</v>
       </c>
-      <c r="H9" s="55">
-        <f t="shared" si="6"/>
-        <v>87.5</v>
+      <c r="H9" s="56">
+        <f t="shared" si="5"/>
+        <v>11.11111111</v>
       </c>
       <c r="I9" s="15">
         <f>+'22년 드림즈(23)'!D12+'23년 상반기 코모도(23)'!D12+'23년 디비전 리그(23)'!D12</f>
@@ -26699,16 +26699,16 @@
         <f>+'22년 드림즈(23)'!I13+'23년 상반기 코모도(23)'!I13+'23년 디비전 리그(23)'!I13</f>
         <v>8</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="54">
         <v>15.0</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="55">
         <f t="shared" si="4"/>
         <v>1.553</v>
       </c>
-      <c r="H10" s="55">
-        <f t="shared" si="6"/>
-        <v>82.60869565</v>
+      <c r="H10" s="56">
+        <f t="shared" si="5"/>
+        <v>7.692307692</v>
       </c>
       <c r="I10" s="15">
         <f>+'22년 드림즈(23)'!D13+'23년 상반기 코모도(23)'!D13+'23년 디비전 리그(23)'!D13</f>
@@ -26767,16 +26767,16 @@
         <f>+'22년 드림즈(23)'!I14+'23년 상반기 코모도(23)'!I14+'23년 디비전 리그(23)'!I14</f>
         <v>2</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="54">
         <v>40.0</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="55">
         <f t="shared" si="4"/>
         <v>0.2433333333</v>
       </c>
-      <c r="H11" s="55">
-        <f t="shared" si="6"/>
-        <v>40</v>
+      <c r="H11" s="56">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
       </c>
       <c r="I11" s="15">
         <f>+'22년 드림즈(23)'!D14+'23년 상반기 코모도(23)'!D14+'23년 디비전 리그(23)'!D14</f>
@@ -26835,16 +26835,16 @@
         <f>+'22년 드림즈(23)'!I15+'23년 상반기 코모도(23)'!I15+'23년 디비전 리그(23)'!I15</f>
         <v>1</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="54">
         <v>60.0</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="55">
         <f t="shared" si="4"/>
         <v>0.2963333333</v>
       </c>
-      <c r="H12" s="55">
-        <f t="shared" si="6"/>
-        <v>50</v>
+      <c r="H12" s="56">
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="I12" s="15">
         <f>+'22년 드림즈(23)'!D15+'23년 상반기 코모도(23)'!D15+'23년 디비전 리그(23)'!D15</f>
@@ -26903,16 +26903,16 @@
         <f>+'22년 드림즈(23)'!I17+'23년 상반기 코모도(23)'!I17+'23년 디비전 리그(23)'!I17</f>
         <v>2</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="54">
         <v>90.0</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="55">
         <f t="shared" si="4"/>
         <v>0.1333333333</v>
       </c>
-      <c r="H13" s="55">
-        <f t="shared" si="6"/>
-        <v>42.85714286</v>
+      <c r="H13" s="56">
+        <f t="shared" si="5"/>
+        <v>33.33333333</v>
       </c>
       <c r="I13" s="15">
         <f>+'22년 드림즈(23)'!D17+'23년 상반기 코모도(23)'!D17+'23년 디비전 리그(23)'!D17</f>
@@ -26971,16 +26971,16 @@
         <f>+'22년 드림즈(23)'!I18+'23년 상반기 코모도(23)'!I18+'23년 디비전 리그(23)'!I18</f>
         <v>6</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="54">
         <v>10.0</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="55">
         <f t="shared" si="4"/>
         <v>1.143333333</v>
       </c>
-      <c r="H14" s="55">
-        <f t="shared" si="6"/>
-        <v>66.66666667</v>
+      <c r="H14" s="56">
+        <f t="shared" si="5"/>
+        <v>13.88888889</v>
       </c>
       <c r="I14" s="15">
         <f>+'22년 드림즈(23)'!D18+'23년 상반기 코모도(23)'!D18+'23년 디비전 리그(23)'!D18</f>
@@ -27039,16 +27039,16 @@
         <f>+'22년 드림즈(23)'!I19+'23년 상반기 코모도(23)'!I19+'23년 디비전 리그(23)'!I19</f>
         <v>4</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="54">
         <v>100.0</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="55">
         <f t="shared" si="4"/>
         <v>0.9066666667</v>
       </c>
-      <c r="H15" s="55">
-        <f t="shared" si="6"/>
-        <v>85.71428571</v>
+      <c r="H15" s="56">
+        <f t="shared" si="5"/>
+        <v>9.090909091</v>
       </c>
       <c r="I15" s="15">
         <f>+'22년 드림즈(23)'!D19+'23년 상반기 코모도(23)'!D19+'23년 디비전 리그(23)'!D19</f>
@@ -27107,16 +27107,16 @@
         <f>+'22년 드림즈(23)'!I20+'23년 상반기 코모도(23)'!I20+'23년 디비전 리그(23)'!I20</f>
         <v>6</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="54">
         <v>70.0</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="55">
         <f t="shared" si="4"/>
         <v>0.369</v>
       </c>
-      <c r="H16" s="55">
-        <f t="shared" si="6"/>
-        <v>21.05263158</v>
+      <c r="H16" s="56">
+        <f t="shared" si="5"/>
+        <v>51.72413793</v>
       </c>
       <c r="I16" s="15">
         <f>+'22년 드림즈(23)'!D20+'23년 상반기 코모도(23)'!D20+'23년 디비전 리그(23)'!D20</f>
@@ -27175,16 +27175,16 @@
         <f>+'22년 드림즈(23)'!I21+'23년 상반기 코모도(23)'!I21+'23년 디비전 리그(23)'!I21</f>
         <v>9</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="54">
         <v>70.0</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="55">
         <f t="shared" si="4"/>
         <v>0.8773333333</v>
       </c>
-      <c r="H17" s="55">
-        <f t="shared" si="6"/>
-        <v>68</v>
+      <c r="H17" s="56">
+        <f t="shared" si="5"/>
+        <v>18.18181818</v>
       </c>
       <c r="I17" s="15">
         <f>+'22년 드림즈(23)'!D21+'23년 상반기 코모도(23)'!D21+'23년 디비전 리그(23)'!D21</f>
@@ -27243,16 +27243,16 @@
         <f>+'22년 드림즈(23)'!I22+'23년 상반기 코모도(23)'!I22+'23년 디비전 리그(23)'!I22</f>
         <v>6</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="54">
         <v>35.0</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="55">
         <f t="shared" si="4"/>
         <v>0.524</v>
       </c>
-      <c r="H18" s="55">
-        <f t="shared" si="6"/>
-        <v>63.63636364</v>
+      <c r="H18" s="56">
+        <f t="shared" si="5"/>
+        <v>22.22222222</v>
       </c>
       <c r="I18" s="15">
         <f>+'22년 드림즈(23)'!D22+'23년 상반기 코모도(23)'!D22+'23년 디비전 리그(23)'!D22</f>
@@ -27311,16 +27311,16 @@
         <f>+'22년 드림즈(23)'!I24+'23년 상반기 코모도(23)'!I24+'23년 디비전 리그(23)'!I24</f>
         <v>2</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="54">
         <v>65.0</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="55">
         <f t="shared" si="4"/>
         <v>0.2073333333</v>
       </c>
-      <c r="H19" s="55">
-        <f t="shared" si="6"/>
-        <v>76.92307692</v>
+      <c r="H19" s="56">
+        <f t="shared" si="5"/>
+        <v>18.75</v>
       </c>
       <c r="I19" s="15">
         <f>+'22년 드림즈(23)'!D24+'23년 상반기 코모도(23)'!D24+'23년 디비전 리그(23)'!D24</f>
@@ -27360,2899 +27360,2899 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="56"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="56"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="56"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="56"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="56"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="56"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="56"/>
+      <c r="B33" s="57"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="56"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="56"/>
+      <c r="B40" s="57"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="56"/>
+      <c r="B41" s="57"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="56"/>
+      <c r="B42" s="57"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="56"/>
+      <c r="B43" s="57"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="56"/>
+      <c r="B45" s="57"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="56"/>
+      <c r="B46" s="57"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="56"/>
+      <c r="B47" s="57"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="56"/>
+      <c r="B49" s="57"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="56"/>
+      <c r="B50" s="57"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="56"/>
+      <c r="B51" s="57"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="56"/>
+      <c r="B52" s="57"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="56"/>
+      <c r="B53" s="57"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="56"/>
+      <c r="B54" s="57"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="56"/>
+      <c r="B55" s="57"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="56"/>
+      <c r="B56" s="57"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="56"/>
+      <c r="B57" s="57"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="56"/>
+      <c r="B58" s="57"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="56"/>
+      <c r="B59" s="57"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="56"/>
+      <c r="B60" s="57"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="56"/>
+      <c r="B61" s="57"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="56"/>
+      <c r="B62" s="57"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="56"/>
+      <c r="B63" s="57"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="56"/>
+      <c r="B64" s="57"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="56"/>
+      <c r="B65" s="57"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="56"/>
+      <c r="B66" s="57"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="56"/>
+      <c r="B67" s="57"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="56"/>
+      <c r="B68" s="57"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="56"/>
+      <c r="B69" s="57"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="56"/>
+      <c r="B70" s="57"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="56"/>
+      <c r="B71" s="57"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="56"/>
+      <c r="B72" s="57"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="56"/>
+      <c r="B73" s="57"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="56"/>
+      <c r="B74" s="57"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="56"/>
+      <c r="B75" s="57"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="56"/>
+      <c r="B76" s="57"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="56"/>
+      <c r="B77" s="57"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="56"/>
+      <c r="B78" s="57"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="56"/>
+      <c r="B79" s="57"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="56"/>
+      <c r="B80" s="57"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="56"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="56"/>
+      <c r="B82" s="57"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="56"/>
+      <c r="B83" s="57"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="56"/>
+      <c r="B84" s="57"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="56"/>
+      <c r="B85" s="57"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="56"/>
+      <c r="B86" s="57"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="56"/>
+      <c r="B87" s="57"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="56"/>
+      <c r="B88" s="57"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="56"/>
+      <c r="B89" s="57"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="56"/>
+      <c r="B90" s="57"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="56"/>
+      <c r="B91" s="57"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="56"/>
+      <c r="B92" s="57"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="56"/>
+      <c r="B93" s="57"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="56"/>
+      <c r="B94" s="57"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="56"/>
+      <c r="B95" s="57"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="56"/>
+      <c r="B96" s="57"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="56"/>
+      <c r="B97" s="57"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="56"/>
+      <c r="B98" s="57"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="56"/>
+      <c r="B99" s="57"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="56"/>
+      <c r="B100" s="57"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="56"/>
+      <c r="B101" s="57"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="56"/>
+      <c r="B102" s="57"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="56"/>
+      <c r="B103" s="57"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="56"/>
+      <c r="B104" s="57"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="56"/>
+      <c r="B105" s="57"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="56"/>
+      <c r="B106" s="57"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="56"/>
+      <c r="B107" s="57"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="56"/>
+      <c r="B108" s="57"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="56"/>
+      <c r="B109" s="57"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="56"/>
+      <c r="B110" s="57"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="56"/>
+      <c r="B111" s="57"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="56"/>
+      <c r="B112" s="57"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="56"/>
+      <c r="B113" s="57"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="56"/>
+      <c r="B114" s="57"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="56"/>
+      <c r="B115" s="57"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="56"/>
+      <c r="B116" s="57"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="56"/>
+      <c r="B117" s="57"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="56"/>
+      <c r="B118" s="57"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="56"/>
+      <c r="B119" s="57"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="56"/>
+      <c r="B120" s="57"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="56"/>
+      <c r="B121" s="57"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="56"/>
+      <c r="B122" s="57"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="56"/>
+      <c r="B123" s="57"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="56"/>
+      <c r="B124" s="57"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="56"/>
+      <c r="B125" s="57"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="56"/>
+      <c r="B126" s="57"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="56"/>
+      <c r="B127" s="57"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="56"/>
+      <c r="B128" s="57"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="56"/>
+      <c r="B129" s="57"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="56"/>
+      <c r="B130" s="57"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="56"/>
+      <c r="B131" s="57"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="56"/>
+      <c r="B132" s="57"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="56"/>
+      <c r="B133" s="57"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="56"/>
+      <c r="B134" s="57"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="56"/>
+      <c r="B135" s="57"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="56"/>
+      <c r="B136" s="57"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="56"/>
+      <c r="B137" s="57"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="56"/>
+      <c r="B138" s="57"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="56"/>
+      <c r="B139" s="57"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="56"/>
+      <c r="B140" s="57"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="56"/>
+      <c r="B141" s="57"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="56"/>
+      <c r="B142" s="57"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="56"/>
+      <c r="B143" s="57"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="56"/>
+      <c r="B144" s="57"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="56"/>
+      <c r="B145" s="57"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="56"/>
+      <c r="B146" s="57"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="56"/>
+      <c r="B147" s="57"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="56"/>
+      <c r="B148" s="57"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="56"/>
+      <c r="B149" s="57"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="56"/>
+      <c r="B150" s="57"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="56"/>
+      <c r="B151" s="57"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="56"/>
+      <c r="B152" s="57"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="56"/>
+      <c r="B153" s="57"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="56"/>
+      <c r="B154" s="57"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="56"/>
+      <c r="B155" s="57"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="56"/>
+      <c r="B156" s="57"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="56"/>
+      <c r="B157" s="57"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="56"/>
+      <c r="B158" s="57"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="56"/>
+      <c r="B159" s="57"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="56"/>
+      <c r="B160" s="57"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="56"/>
+      <c r="B161" s="57"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="56"/>
+      <c r="B162" s="57"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="56"/>
+      <c r="B163" s="57"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="56"/>
+      <c r="B164" s="57"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="56"/>
+      <c r="B165" s="57"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="56"/>
+      <c r="B166" s="57"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="56"/>
+      <c r="B167" s="57"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="56"/>
+      <c r="B168" s="57"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="56"/>
+      <c r="B169" s="57"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="56"/>
+      <c r="B170" s="57"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="56"/>
+      <c r="B171" s="57"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="56"/>
+      <c r="B172" s="57"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="56"/>
+      <c r="B173" s="57"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="56"/>
+      <c r="B174" s="57"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="56"/>
+      <c r="B175" s="57"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="56"/>
+      <c r="B176" s="57"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="56"/>
+      <c r="B177" s="57"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="56"/>
+      <c r="B178" s="57"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="56"/>
+      <c r="B179" s="57"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="56"/>
+      <c r="B180" s="57"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="56"/>
+      <c r="B181" s="57"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="56"/>
+      <c r="B182" s="57"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="56"/>
+      <c r="B183" s="57"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="56"/>
+      <c r="B184" s="57"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="56"/>
+      <c r="B185" s="57"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="56"/>
+      <c r="B186" s="57"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="56"/>
+      <c r="B187" s="57"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="56"/>
+      <c r="B188" s="57"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="56"/>
+      <c r="B189" s="57"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="56"/>
+      <c r="B190" s="57"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="56"/>
+      <c r="B191" s="57"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="56"/>
+      <c r="B192" s="57"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="56"/>
+      <c r="B193" s="57"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="56"/>
+      <c r="B194" s="57"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="56"/>
+      <c r="B195" s="57"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="56"/>
+      <c r="B196" s="57"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="56"/>
+      <c r="B197" s="57"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="56"/>
+      <c r="B198" s="57"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="56"/>
+      <c r="B199" s="57"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="56"/>
+      <c r="B200" s="57"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="56"/>
+      <c r="B201" s="57"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="56"/>
+      <c r="B202" s="57"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="56"/>
+      <c r="B203" s="57"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="56"/>
+      <c r="B204" s="57"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="56"/>
+      <c r="B205" s="57"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="56"/>
+      <c r="B206" s="57"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="56"/>
+      <c r="B207" s="57"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="56"/>
+      <c r="B208" s="57"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="56"/>
+      <c r="B209" s="57"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="56"/>
+      <c r="B210" s="57"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="56"/>
+      <c r="B211" s="57"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="56"/>
+      <c r="B212" s="57"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="56"/>
+      <c r="B213" s="57"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="56"/>
+      <c r="B214" s="57"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="56"/>
+      <c r="B215" s="57"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="56"/>
+      <c r="B216" s="57"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="56"/>
+      <c r="B217" s="57"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="56"/>
+      <c r="B218" s="57"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="56"/>
+      <c r="B219" s="57"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="56"/>
+      <c r="B220" s="57"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="56"/>
+      <c r="B221" s="57"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="B222" s="56"/>
+      <c r="B222" s="57"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="B223" s="56"/>
+      <c r="B223" s="57"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="B224" s="56"/>
+      <c r="B224" s="57"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="B225" s="56"/>
+      <c r="B225" s="57"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="56"/>
+      <c r="B226" s="57"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="56"/>
+      <c r="B227" s="57"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="B228" s="56"/>
+      <c r="B228" s="57"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="B229" s="56"/>
+      <c r="B229" s="57"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="56"/>
+      <c r="B230" s="57"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="B231" s="56"/>
+      <c r="B231" s="57"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="56"/>
+      <c r="B232" s="57"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="56"/>
+      <c r="B233" s="57"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="B234" s="56"/>
+      <c r="B234" s="57"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="56"/>
+      <c r="B235" s="57"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="56"/>
+      <c r="B236" s="57"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="56"/>
+      <c r="B237" s="57"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="B238" s="56"/>
+      <c r="B238" s="57"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="56"/>
+      <c r="B239" s="57"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="56"/>
+      <c r="B240" s="57"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="56"/>
+      <c r="B241" s="57"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="56"/>
+      <c r="B242" s="57"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="56"/>
+      <c r="B243" s="57"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="B244" s="56"/>
+      <c r="B244" s="57"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="B245" s="56"/>
+      <c r="B245" s="57"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="B246" s="56"/>
+      <c r="B246" s="57"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="B247" s="56"/>
+      <c r="B247" s="57"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="B248" s="56"/>
+      <c r="B248" s="57"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="B249" s="56"/>
+      <c r="B249" s="57"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="B250" s="56"/>
+      <c r="B250" s="57"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="B251" s="56"/>
+      <c r="B251" s="57"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="B252" s="56"/>
+      <c r="B252" s="57"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="B253" s="56"/>
+      <c r="B253" s="57"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="B254" s="56"/>
+      <c r="B254" s="57"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="B255" s="56"/>
+      <c r="B255" s="57"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="B256" s="56"/>
+      <c r="B256" s="57"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="B257" s="56"/>
+      <c r="B257" s="57"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="B258" s="56"/>
+      <c r="B258" s="57"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="B259" s="56"/>
+      <c r="B259" s="57"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="B260" s="56"/>
+      <c r="B260" s="57"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="B261" s="56"/>
+      <c r="B261" s="57"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="56"/>
+      <c r="B262" s="57"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="B263" s="56"/>
+      <c r="B263" s="57"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="B264" s="56"/>
+      <c r="B264" s="57"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="B265" s="56"/>
+      <c r="B265" s="57"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="B266" s="56"/>
+      <c r="B266" s="57"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="B267" s="56"/>
+      <c r="B267" s="57"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="B268" s="56"/>
+      <c r="B268" s="57"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="B269" s="56"/>
+      <c r="B269" s="57"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="B270" s="56"/>
+      <c r="B270" s="57"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="B271" s="56"/>
+      <c r="B271" s="57"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="B272" s="56"/>
+      <c r="B272" s="57"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="56"/>
+      <c r="B273" s="57"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="56"/>
+      <c r="B274" s="57"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="B275" s="56"/>
+      <c r="B275" s="57"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="B276" s="56"/>
+      <c r="B276" s="57"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="56"/>
+      <c r="B277" s="57"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="56"/>
+      <c r="B278" s="57"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="56"/>
+      <c r="B279" s="57"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="56"/>
+      <c r="B280" s="57"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="56"/>
+      <c r="B281" s="57"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="56"/>
+      <c r="B282" s="57"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="56"/>
+      <c r="B283" s="57"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="56"/>
+      <c r="B284" s="57"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="56"/>
+      <c r="B285" s="57"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="56"/>
+      <c r="B286" s="57"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="56"/>
+      <c r="B287" s="57"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="56"/>
+      <c r="B288" s="57"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="56"/>
+      <c r="B289" s="57"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="56"/>
+      <c r="B290" s="57"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="56"/>
+      <c r="B291" s="57"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="56"/>
+      <c r="B292" s="57"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="56"/>
+      <c r="B293" s="57"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="56"/>
+      <c r="B294" s="57"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="56"/>
+      <c r="B295" s="57"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="56"/>
+      <c r="B296" s="57"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="56"/>
+      <c r="B297" s="57"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="56"/>
+      <c r="B298" s="57"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="56"/>
+      <c r="B299" s="57"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="56"/>
+      <c r="B300" s="57"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="56"/>
+      <c r="B301" s="57"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="56"/>
+      <c r="B302" s="57"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="56"/>
+      <c r="B303" s="57"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="56"/>
+      <c r="B304" s="57"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="56"/>
+      <c r="B305" s="57"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="56"/>
+      <c r="B306" s="57"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="B307" s="56"/>
+      <c r="B307" s="57"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="B308" s="56"/>
+      <c r="B308" s="57"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="B309" s="56"/>
+      <c r="B309" s="57"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="B310" s="56"/>
+      <c r="B310" s="57"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="B311" s="56"/>
+      <c r="B311" s="57"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="B312" s="56"/>
+      <c r="B312" s="57"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="B313" s="56"/>
+      <c r="B313" s="57"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="B314" s="56"/>
+      <c r="B314" s="57"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="B315" s="56"/>
+      <c r="B315" s="57"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="B316" s="56"/>
+      <c r="B316" s="57"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="B317" s="56"/>
+      <c r="B317" s="57"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="B318" s="56"/>
+      <c r="B318" s="57"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="B319" s="56"/>
+      <c r="B319" s="57"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="B320" s="56"/>
+      <c r="B320" s="57"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="B321" s="56"/>
+      <c r="B321" s="57"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="B322" s="56"/>
+      <c r="B322" s="57"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="B323" s="56"/>
+      <c r="B323" s="57"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="B324" s="56"/>
+      <c r="B324" s="57"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="B325" s="56"/>
+      <c r="B325" s="57"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="B326" s="56"/>
+      <c r="B326" s="57"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="B327" s="56"/>
+      <c r="B327" s="57"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="B328" s="56"/>
+      <c r="B328" s="57"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="B329" s="56"/>
+      <c r="B329" s="57"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="B330" s="56"/>
+      <c r="B330" s="57"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="56"/>
+      <c r="B331" s="57"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="B332" s="56"/>
+      <c r="B332" s="57"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="B333" s="56"/>
+      <c r="B333" s="57"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="56"/>
+      <c r="B334" s="57"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="56"/>
+      <c r="B335" s="57"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="B336" s="56"/>
+      <c r="B336" s="57"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="B337" s="56"/>
+      <c r="B337" s="57"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="B338" s="56"/>
+      <c r="B338" s="57"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="B339" s="56"/>
+      <c r="B339" s="57"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="B340" s="56"/>
+      <c r="B340" s="57"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="B341" s="56"/>
+      <c r="B341" s="57"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="B342" s="56"/>
+      <c r="B342" s="57"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="B343" s="56"/>
+      <c r="B343" s="57"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="B344" s="56"/>
+      <c r="B344" s="57"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="B345" s="56"/>
+      <c r="B345" s="57"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="B346" s="56"/>
+      <c r="B346" s="57"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="B347" s="56"/>
+      <c r="B347" s="57"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="B348" s="56"/>
+      <c r="B348" s="57"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="B349" s="56"/>
+      <c r="B349" s="57"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="B350" s="56"/>
+      <c r="B350" s="57"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="B351" s="56"/>
+      <c r="B351" s="57"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="B352" s="56"/>
+      <c r="B352" s="57"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="B353" s="56"/>
+      <c r="B353" s="57"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="B354" s="56"/>
+      <c r="B354" s="57"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="B355" s="56"/>
+      <c r="B355" s="57"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="B356" s="56"/>
+      <c r="B356" s="57"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="B357" s="56"/>
+      <c r="B357" s="57"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="B358" s="56"/>
+      <c r="B358" s="57"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="B359" s="56"/>
+      <c r="B359" s="57"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="B360" s="56"/>
+      <c r="B360" s="57"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="B361" s="56"/>
+      <c r="B361" s="57"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="B362" s="56"/>
+      <c r="B362" s="57"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="B363" s="56"/>
+      <c r="B363" s="57"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="B364" s="56"/>
+      <c r="B364" s="57"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="B365" s="56"/>
+      <c r="B365" s="57"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="B366" s="56"/>
+      <c r="B366" s="57"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="B367" s="56"/>
+      <c r="B367" s="57"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="B368" s="56"/>
+      <c r="B368" s="57"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="B369" s="56"/>
+      <c r="B369" s="57"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="B370" s="56"/>
+      <c r="B370" s="57"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="B371" s="56"/>
+      <c r="B371" s="57"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="B372" s="56"/>
+      <c r="B372" s="57"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="B373" s="56"/>
+      <c r="B373" s="57"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="B374" s="56"/>
+      <c r="B374" s="57"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="B375" s="56"/>
+      <c r="B375" s="57"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="B376" s="56"/>
+      <c r="B376" s="57"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="B377" s="56"/>
+      <c r="B377" s="57"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="B378" s="56"/>
+      <c r="B378" s="57"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="B379" s="56"/>
+      <c r="B379" s="57"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="B380" s="56"/>
+      <c r="B380" s="57"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="B381" s="56"/>
+      <c r="B381" s="57"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="B382" s="56"/>
+      <c r="B382" s="57"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="B383" s="56"/>
+      <c r="B383" s="57"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="B384" s="56"/>
+      <c r="B384" s="57"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="B385" s="56"/>
+      <c r="B385" s="57"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="B386" s="56"/>
+      <c r="B386" s="57"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="B387" s="56"/>
+      <c r="B387" s="57"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="B388" s="56"/>
+      <c r="B388" s="57"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="B389" s="56"/>
+      <c r="B389" s="57"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="B390" s="56"/>
+      <c r="B390" s="57"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="B391" s="56"/>
+      <c r="B391" s="57"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="B392" s="56"/>
+      <c r="B392" s="57"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="B393" s="56"/>
+      <c r="B393" s="57"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="B394" s="56"/>
+      <c r="B394" s="57"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="B395" s="56"/>
+      <c r="B395" s="57"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="B396" s="56"/>
+      <c r="B396" s="57"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="B397" s="56"/>
+      <c r="B397" s="57"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="B398" s="56"/>
+      <c r="B398" s="57"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="B399" s="56"/>
+      <c r="B399" s="57"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="B400" s="56"/>
+      <c r="B400" s="57"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="B401" s="56"/>
+      <c r="B401" s="57"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="B402" s="56"/>
+      <c r="B402" s="57"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="B403" s="56"/>
+      <c r="B403" s="57"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="B404" s="56"/>
+      <c r="B404" s="57"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="B405" s="56"/>
+      <c r="B405" s="57"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="B406" s="56"/>
+      <c r="B406" s="57"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="B407" s="56"/>
+      <c r="B407" s="57"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="B408" s="56"/>
+      <c r="B408" s="57"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="B409" s="56"/>
+      <c r="B409" s="57"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="B410" s="56"/>
+      <c r="B410" s="57"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="B411" s="56"/>
+      <c r="B411" s="57"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="B412" s="56"/>
+      <c r="B412" s="57"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="B413" s="56"/>
+      <c r="B413" s="57"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="B414" s="56"/>
+      <c r="B414" s="57"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="B415" s="56"/>
+      <c r="B415" s="57"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="B416" s="56"/>
+      <c r="B416" s="57"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="B417" s="56"/>
+      <c r="B417" s="57"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="B418" s="56"/>
+      <c r="B418" s="57"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="B419" s="56"/>
+      <c r="B419" s="57"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="B420" s="56"/>
+      <c r="B420" s="57"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="B421" s="56"/>
+      <c r="B421" s="57"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="B422" s="56"/>
+      <c r="B422" s="57"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="B423" s="56"/>
+      <c r="B423" s="57"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="B424" s="56"/>
+      <c r="B424" s="57"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="B425" s="56"/>
+      <c r="B425" s="57"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="B426" s="56"/>
+      <c r="B426" s="57"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="B427" s="56"/>
+      <c r="B427" s="57"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="B428" s="56"/>
+      <c r="B428" s="57"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="B429" s="56"/>
+      <c r="B429" s="57"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="B430" s="56"/>
+      <c r="B430" s="57"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="B431" s="56"/>
+      <c r="B431" s="57"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="B432" s="56"/>
+      <c r="B432" s="57"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="B433" s="56"/>
+      <c r="B433" s="57"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="B434" s="56"/>
+      <c r="B434" s="57"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="B435" s="56"/>
+      <c r="B435" s="57"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="B436" s="56"/>
+      <c r="B436" s="57"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="B437" s="56"/>
+      <c r="B437" s="57"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="B438" s="56"/>
+      <c r="B438" s="57"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="B439" s="56"/>
+      <c r="B439" s="57"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="B440" s="56"/>
+      <c r="B440" s="57"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="B441" s="56"/>
+      <c r="B441" s="57"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="B442" s="56"/>
+      <c r="B442" s="57"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="B443" s="56"/>
+      <c r="B443" s="57"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="B444" s="56"/>
+      <c r="B444" s="57"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="B445" s="56"/>
+      <c r="B445" s="57"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="B446" s="56"/>
+      <c r="B446" s="57"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="B447" s="56"/>
+      <c r="B447" s="57"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="B448" s="56"/>
+      <c r="B448" s="57"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="B449" s="56"/>
+      <c r="B449" s="57"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="B450" s="56"/>
+      <c r="B450" s="57"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="B451" s="56"/>
+      <c r="B451" s="57"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="B452" s="56"/>
+      <c r="B452" s="57"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="B453" s="56"/>
+      <c r="B453" s="57"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="B454" s="56"/>
+      <c r="B454" s="57"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="B455" s="56"/>
+      <c r="B455" s="57"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="B456" s="56"/>
+      <c r="B456" s="57"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="B457" s="56"/>
+      <c r="B457" s="57"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="B458" s="56"/>
+      <c r="B458" s="57"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="B459" s="56"/>
+      <c r="B459" s="57"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="B460" s="56"/>
+      <c r="B460" s="57"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="B461" s="56"/>
+      <c r="B461" s="57"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="B462" s="56"/>
+      <c r="B462" s="57"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="B463" s="56"/>
+      <c r="B463" s="57"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="B464" s="56"/>
+      <c r="B464" s="57"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="B465" s="56"/>
+      <c r="B465" s="57"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="B466" s="56"/>
+      <c r="B466" s="57"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="B467" s="56"/>
+      <c r="B467" s="57"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="B468" s="56"/>
+      <c r="B468" s="57"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="B469" s="56"/>
+      <c r="B469" s="57"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="B470" s="56"/>
+      <c r="B470" s="57"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="B471" s="56"/>
+      <c r="B471" s="57"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="B472" s="56"/>
+      <c r="B472" s="57"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="B473" s="56"/>
+      <c r="B473" s="57"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="B474" s="56"/>
+      <c r="B474" s="57"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="B475" s="56"/>
+      <c r="B475" s="57"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="B476" s="56"/>
+      <c r="B476" s="57"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="B477" s="56"/>
+      <c r="B477" s="57"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="B478" s="56"/>
+      <c r="B478" s="57"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="B479" s="56"/>
+      <c r="B479" s="57"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="B480" s="56"/>
+      <c r="B480" s="57"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="B481" s="56"/>
+      <c r="B481" s="57"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="B482" s="56"/>
+      <c r="B482" s="57"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="B483" s="56"/>
+      <c r="B483" s="57"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="B484" s="56"/>
+      <c r="B484" s="57"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="B485" s="56"/>
+      <c r="B485" s="57"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="B486" s="56"/>
+      <c r="B486" s="57"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="B487" s="56"/>
+      <c r="B487" s="57"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="B488" s="56"/>
+      <c r="B488" s="57"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="B489" s="56"/>
+      <c r="B489" s="57"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="B490" s="56"/>
+      <c r="B490" s="57"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="B491" s="56"/>
+      <c r="B491" s="57"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="B492" s="56"/>
+      <c r="B492" s="57"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="B493" s="56"/>
+      <c r="B493" s="57"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="B494" s="56"/>
+      <c r="B494" s="57"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="B495" s="56"/>
+      <c r="B495" s="57"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="B496" s="56"/>
+      <c r="B496" s="57"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="B497" s="56"/>
+      <c r="B497" s="57"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="B498" s="56"/>
+      <c r="B498" s="57"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="B499" s="56"/>
+      <c r="B499" s="57"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="B500" s="56"/>
+      <c r="B500" s="57"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="B501" s="56"/>
+      <c r="B501" s="57"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="B502" s="56"/>
+      <c r="B502" s="57"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="B503" s="56"/>
+      <c r="B503" s="57"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="B504" s="56"/>
+      <c r="B504" s="57"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="B505" s="56"/>
+      <c r="B505" s="57"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="B506" s="56"/>
+      <c r="B506" s="57"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="B507" s="56"/>
+      <c r="B507" s="57"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="B508" s="56"/>
+      <c r="B508" s="57"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="B509" s="56"/>
+      <c r="B509" s="57"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="B510" s="56"/>
+      <c r="B510" s="57"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="B511" s="56"/>
+      <c r="B511" s="57"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="B512" s="56"/>
+      <c r="B512" s="57"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="B513" s="56"/>
+      <c r="B513" s="57"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="B514" s="56"/>
+      <c r="B514" s="57"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="B515" s="56"/>
+      <c r="B515" s="57"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="B516" s="56"/>
+      <c r="B516" s="57"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="B517" s="56"/>
+      <c r="B517" s="57"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="B518" s="56"/>
+      <c r="B518" s="57"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="B519" s="56"/>
+      <c r="B519" s="57"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="B520" s="56"/>
+      <c r="B520" s="57"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="56"/>
+      <c r="B521" s="57"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="B522" s="56"/>
+      <c r="B522" s="57"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="B523" s="56"/>
+      <c r="B523" s="57"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="B524" s="56"/>
+      <c r="B524" s="57"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="B525" s="56"/>
+      <c r="B525" s="57"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="B526" s="56"/>
+      <c r="B526" s="57"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="B527" s="56"/>
+      <c r="B527" s="57"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="B528" s="56"/>
+      <c r="B528" s="57"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="B529" s="56"/>
+      <c r="B529" s="57"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="B530" s="56"/>
+      <c r="B530" s="57"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="B531" s="56"/>
+      <c r="B531" s="57"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="B532" s="56"/>
+      <c r="B532" s="57"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="B533" s="56"/>
+      <c r="B533" s="57"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="B534" s="56"/>
+      <c r="B534" s="57"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="B535" s="56"/>
+      <c r="B535" s="57"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="B536" s="56"/>
+      <c r="B536" s="57"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="B537" s="56"/>
+      <c r="B537" s="57"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="B538" s="56"/>
+      <c r="B538" s="57"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="B539" s="56"/>
+      <c r="B539" s="57"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="B540" s="56"/>
+      <c r="B540" s="57"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="B541" s="56"/>
+      <c r="B541" s="57"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="B542" s="56"/>
+      <c r="B542" s="57"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="B543" s="56"/>
+      <c r="B543" s="57"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="B544" s="56"/>
+      <c r="B544" s="57"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="B545" s="56"/>
+      <c r="B545" s="57"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="B546" s="56"/>
+      <c r="B546" s="57"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="B547" s="56"/>
+      <c r="B547" s="57"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="B548" s="56"/>
+      <c r="B548" s="57"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="B549" s="56"/>
+      <c r="B549" s="57"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="B550" s="56"/>
+      <c r="B550" s="57"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="B551" s="56"/>
+      <c r="B551" s="57"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="B552" s="56"/>
+      <c r="B552" s="57"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="B553" s="56"/>
+      <c r="B553" s="57"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="B554" s="56"/>
+      <c r="B554" s="57"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="B555" s="56"/>
+      <c r="B555" s="57"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="B556" s="56"/>
+      <c r="B556" s="57"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="B557" s="56"/>
+      <c r="B557" s="57"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="B558" s="56"/>
+      <c r="B558" s="57"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="B559" s="56"/>
+      <c r="B559" s="57"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="B560" s="56"/>
+      <c r="B560" s="57"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="B561" s="56"/>
+      <c r="B561" s="57"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="B562" s="56"/>
+      <c r="B562" s="57"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="B563" s="56"/>
+      <c r="B563" s="57"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="B564" s="56"/>
+      <c r="B564" s="57"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="B565" s="56"/>
+      <c r="B565" s="57"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="B566" s="56"/>
+      <c r="B566" s="57"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="B567" s="56"/>
+      <c r="B567" s="57"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="B568" s="56"/>
+      <c r="B568" s="57"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="B569" s="56"/>
+      <c r="B569" s="57"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="B570" s="56"/>
+      <c r="B570" s="57"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="B571" s="56"/>
+      <c r="B571" s="57"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="B572" s="56"/>
+      <c r="B572" s="57"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="B573" s="56"/>
+      <c r="B573" s="57"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="B574" s="56"/>
+      <c r="B574" s="57"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="B575" s="56"/>
+      <c r="B575" s="57"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="B576" s="56"/>
+      <c r="B576" s="57"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="B577" s="56"/>
+      <c r="B577" s="57"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="B578" s="56"/>
+      <c r="B578" s="57"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="B579" s="56"/>
+      <c r="B579" s="57"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="B580" s="56"/>
+      <c r="B580" s="57"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="B581" s="56"/>
+      <c r="B581" s="57"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="B582" s="56"/>
+      <c r="B582" s="57"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="B583" s="56"/>
+      <c r="B583" s="57"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="B584" s="56"/>
+      <c r="B584" s="57"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="B585" s="56"/>
+      <c r="B585" s="57"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="B586" s="56"/>
+      <c r="B586" s="57"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="B587" s="56"/>
+      <c r="B587" s="57"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="B588" s="56"/>
+      <c r="B588" s="57"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="B589" s="56"/>
+      <c r="B589" s="57"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="B590" s="56"/>
+      <c r="B590" s="57"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="B591" s="56"/>
+      <c r="B591" s="57"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="B592" s="56"/>
+      <c r="B592" s="57"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="B593" s="56"/>
+      <c r="B593" s="57"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="B594" s="56"/>
+      <c r="B594" s="57"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="B595" s="56"/>
+      <c r="B595" s="57"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="B596" s="56"/>
+      <c r="B596" s="57"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="B597" s="56"/>
+      <c r="B597" s="57"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="B598" s="56"/>
+      <c r="B598" s="57"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="B599" s="56"/>
+      <c r="B599" s="57"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="B600" s="56"/>
+      <c r="B600" s="57"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="B601" s="56"/>
+      <c r="B601" s="57"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="B602" s="56"/>
+      <c r="B602" s="57"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="B603" s="56"/>
+      <c r="B603" s="57"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="B604" s="56"/>
+      <c r="B604" s="57"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="B605" s="56"/>
+      <c r="B605" s="57"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="B606" s="56"/>
+      <c r="B606" s="57"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="B607" s="56"/>
+      <c r="B607" s="57"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="B608" s="56"/>
+      <c r="B608" s="57"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="B609" s="56"/>
+      <c r="B609" s="57"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="B610" s="56"/>
+      <c r="B610" s="57"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="B611" s="56"/>
+      <c r="B611" s="57"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="B612" s="56"/>
+      <c r="B612" s="57"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="B613" s="56"/>
+      <c r="B613" s="57"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="B614" s="56"/>
+      <c r="B614" s="57"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="B615" s="56"/>
+      <c r="B615" s="57"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="B616" s="56"/>
+      <c r="B616" s="57"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="B617" s="56"/>
+      <c r="B617" s="57"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="B618" s="56"/>
+      <c r="B618" s="57"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="B619" s="56"/>
+      <c r="B619" s="57"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="B620" s="56"/>
+      <c r="B620" s="57"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="B621" s="56"/>
+      <c r="B621" s="57"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="B622" s="56"/>
+      <c r="B622" s="57"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="B623" s="56"/>
+      <c r="B623" s="57"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="B624" s="56"/>
+      <c r="B624" s="57"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="B625" s="56"/>
+      <c r="B625" s="57"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="B626" s="56"/>
+      <c r="B626" s="57"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="B627" s="56"/>
+      <c r="B627" s="57"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="B628" s="56"/>
+      <c r="B628" s="57"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="B629" s="56"/>
+      <c r="B629" s="57"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="B630" s="56"/>
+      <c r="B630" s="57"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="B631" s="56"/>
+      <c r="B631" s="57"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="B632" s="56"/>
+      <c r="B632" s="57"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="B633" s="56"/>
+      <c r="B633" s="57"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="B634" s="56"/>
+      <c r="B634" s="57"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="B635" s="56"/>
+      <c r="B635" s="57"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="B636" s="56"/>
+      <c r="B636" s="57"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="B637" s="56"/>
+      <c r="B637" s="57"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="B638" s="56"/>
+      <c r="B638" s="57"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="B639" s="56"/>
+      <c r="B639" s="57"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="B640" s="56"/>
+      <c r="B640" s="57"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="B641" s="56"/>
+      <c r="B641" s="57"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="B642" s="56"/>
+      <c r="B642" s="57"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="B643" s="56"/>
+      <c r="B643" s="57"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="B644" s="56"/>
+      <c r="B644" s="57"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="B645" s="56"/>
+      <c r="B645" s="57"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="B646" s="56"/>
+      <c r="B646" s="57"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="B647" s="56"/>
+      <c r="B647" s="57"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="B648" s="56"/>
+      <c r="B648" s="57"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="B649" s="56"/>
+      <c r="B649" s="57"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="B650" s="56"/>
+      <c r="B650" s="57"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="B651" s="56"/>
+      <c r="B651" s="57"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="B652" s="56"/>
+      <c r="B652" s="57"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="B653" s="56"/>
+      <c r="B653" s="57"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="B654" s="56"/>
+      <c r="B654" s="57"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="B655" s="56"/>
+      <c r="B655" s="57"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="B656" s="56"/>
+      <c r="B656" s="57"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="B657" s="56"/>
+      <c r="B657" s="57"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="B658" s="56"/>
+      <c r="B658" s="57"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="B659" s="56"/>
+      <c r="B659" s="57"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="B660" s="56"/>
+      <c r="B660" s="57"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="B661" s="56"/>
+      <c r="B661" s="57"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="B662" s="56"/>
+      <c r="B662" s="57"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="B663" s="56"/>
+      <c r="B663" s="57"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="B664" s="56"/>
+      <c r="B664" s="57"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="B665" s="56"/>
+      <c r="B665" s="57"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="B666" s="56"/>
+      <c r="B666" s="57"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="B667" s="56"/>
+      <c r="B667" s="57"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="B668" s="56"/>
+      <c r="B668" s="57"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="B669" s="56"/>
+      <c r="B669" s="57"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="B670" s="56"/>
+      <c r="B670" s="57"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="B671" s="56"/>
+      <c r="B671" s="57"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="B672" s="56"/>
+      <c r="B672" s="57"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="B673" s="56"/>
+      <c r="B673" s="57"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="B674" s="56"/>
+      <c r="B674" s="57"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="B675" s="56"/>
+      <c r="B675" s="57"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="B676" s="56"/>
+      <c r="B676" s="57"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="B677" s="56"/>
+      <c r="B677" s="57"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="B678" s="56"/>
+      <c r="B678" s="57"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="B679" s="56"/>
+      <c r="B679" s="57"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="B680" s="56"/>
+      <c r="B680" s="57"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="B681" s="56"/>
+      <c r="B681" s="57"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="B682" s="56"/>
+      <c r="B682" s="57"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="B683" s="56"/>
+      <c r="B683" s="57"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="B684" s="56"/>
+      <c r="B684" s="57"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="B685" s="56"/>
+      <c r="B685" s="57"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="B686" s="56"/>
+      <c r="B686" s="57"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="B687" s="56"/>
+      <c r="B687" s="57"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="B688" s="56"/>
+      <c r="B688" s="57"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="B689" s="56"/>
+      <c r="B689" s="57"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="B690" s="56"/>
+      <c r="B690" s="57"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="B691" s="56"/>
+      <c r="B691" s="57"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="B692" s="56"/>
+      <c r="B692" s="57"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="B693" s="56"/>
+      <c r="B693" s="57"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="B694" s="56"/>
+      <c r="B694" s="57"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="B695" s="56"/>
+      <c r="B695" s="57"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="B696" s="56"/>
+      <c r="B696" s="57"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="B697" s="56"/>
+      <c r="B697" s="57"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="B698" s="56"/>
+      <c r="B698" s="57"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="B699" s="56"/>
+      <c r="B699" s="57"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="B700" s="56"/>
+      <c r="B700" s="57"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="B701" s="56"/>
+      <c r="B701" s="57"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="B702" s="56"/>
+      <c r="B702" s="57"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="B703" s="56"/>
+      <c r="B703" s="57"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="B704" s="56"/>
+      <c r="B704" s="57"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="B705" s="56"/>
+      <c r="B705" s="57"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="B706" s="56"/>
+      <c r="B706" s="57"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="B707" s="56"/>
+      <c r="B707" s="57"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="B708" s="56"/>
+      <c r="B708" s="57"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="B709" s="56"/>
+      <c r="B709" s="57"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="B710" s="56"/>
+      <c r="B710" s="57"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="B711" s="56"/>
+      <c r="B711" s="57"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="B712" s="56"/>
+      <c r="B712" s="57"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="B713" s="56"/>
+      <c r="B713" s="57"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="B714" s="56"/>
+      <c r="B714" s="57"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="56"/>
+      <c r="B715" s="57"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="56"/>
+      <c r="B716" s="57"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="56"/>
+      <c r="B717" s="57"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="56"/>
+      <c r="B718" s="57"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="56"/>
+      <c r="B719" s="57"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="56"/>
+      <c r="B720" s="57"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="56"/>
+      <c r="B721" s="57"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="56"/>
+      <c r="B722" s="57"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="56"/>
+      <c r="B723" s="57"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="56"/>
+      <c r="B724" s="57"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="56"/>
+      <c r="B725" s="57"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="56"/>
+      <c r="B726" s="57"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="56"/>
+      <c r="B727" s="57"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="56"/>
+      <c r="B728" s="57"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="56"/>
+      <c r="B729" s="57"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="56"/>
+      <c r="B730" s="57"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="56"/>
+      <c r="B731" s="57"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="56"/>
+      <c r="B732" s="57"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="56"/>
+      <c r="B733" s="57"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="56"/>
+      <c r="B734" s="57"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="56"/>
+      <c r="B735" s="57"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="56"/>
+      <c r="B736" s="57"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="B737" s="56"/>
+      <c r="B737" s="57"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="B738" s="56"/>
+      <c r="B738" s="57"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="B739" s="56"/>
+      <c r="B739" s="57"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="B740" s="56"/>
+      <c r="B740" s="57"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="B741" s="56"/>
+      <c r="B741" s="57"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="B742" s="56"/>
+      <c r="B742" s="57"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="B743" s="56"/>
+      <c r="B743" s="57"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="B744" s="56"/>
+      <c r="B744" s="57"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="B745" s="56"/>
+      <c r="B745" s="57"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="B746" s="56"/>
+      <c r="B746" s="57"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="B747" s="56"/>
+      <c r="B747" s="57"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="B748" s="56"/>
+      <c r="B748" s="57"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="B749" s="56"/>
+      <c r="B749" s="57"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="B750" s="56"/>
+      <c r="B750" s="57"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="B751" s="56"/>
+      <c r="B751" s="57"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="B752" s="56"/>
+      <c r="B752" s="57"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="B753" s="56"/>
+      <c r="B753" s="57"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="B754" s="56"/>
+      <c r="B754" s="57"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="B755" s="56"/>
+      <c r="B755" s="57"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="B756" s="56"/>
+      <c r="B756" s="57"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="B757" s="56"/>
+      <c r="B757" s="57"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="B758" s="56"/>
+      <c r="B758" s="57"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="56"/>
+      <c r="B759" s="57"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="56"/>
+      <c r="B760" s="57"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="56"/>
+      <c r="B761" s="57"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="56"/>
+      <c r="B762" s="57"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="56"/>
+      <c r="B763" s="57"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="56"/>
+      <c r="B764" s="57"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="56"/>
+      <c r="B765" s="57"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="56"/>
+      <c r="B766" s="57"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="56"/>
+      <c r="B767" s="57"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="56"/>
+      <c r="B768" s="57"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="56"/>
+      <c r="B769" s="57"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="56"/>
+      <c r="B770" s="57"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="56"/>
+      <c r="B771" s="57"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="56"/>
+      <c r="B772" s="57"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="56"/>
+      <c r="B773" s="57"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="56"/>
+      <c r="B774" s="57"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="56"/>
+      <c r="B775" s="57"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="56"/>
+      <c r="B776" s="57"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="56"/>
+      <c r="B777" s="57"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="56"/>
+      <c r="B778" s="57"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="56"/>
+      <c r="B779" s="57"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="56"/>
+      <c r="B780" s="57"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="56"/>
+      <c r="B781" s="57"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="56"/>
+      <c r="B782" s="57"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="56"/>
+      <c r="B783" s="57"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="56"/>
+      <c r="B784" s="57"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="56"/>
+      <c r="B785" s="57"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="56"/>
+      <c r="B786" s="57"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="56"/>
+      <c r="B787" s="57"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="56"/>
+      <c r="B788" s="57"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="56"/>
+      <c r="B789" s="57"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="56"/>
+      <c r="B790" s="57"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="56"/>
+      <c r="B791" s="57"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="56"/>
+      <c r="B792" s="57"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="56"/>
+      <c r="B793" s="57"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="56"/>
+      <c r="B794" s="57"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="56"/>
+      <c r="B795" s="57"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="56"/>
+      <c r="B796" s="57"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="56"/>
+      <c r="B797" s="57"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="56"/>
+      <c r="B798" s="57"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="56"/>
+      <c r="B799" s="57"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="56"/>
+      <c r="B800" s="57"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="56"/>
+      <c r="B801" s="57"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="56"/>
+      <c r="B802" s="57"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="56"/>
+      <c r="B803" s="57"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="56"/>
+      <c r="B804" s="57"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="56"/>
+      <c r="B805" s="57"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="56"/>
+      <c r="B806" s="57"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="56"/>
+      <c r="B807" s="57"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="56"/>
+      <c r="B808" s="57"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="56"/>
+      <c r="B809" s="57"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="56"/>
+      <c r="B810" s="57"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="56"/>
+      <c r="B811" s="57"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="56"/>
+      <c r="B812" s="57"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="56"/>
+      <c r="B813" s="57"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="56"/>
+      <c r="B814" s="57"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="56"/>
+      <c r="B815" s="57"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="56"/>
+      <c r="B816" s="57"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="56"/>
+      <c r="B817" s="57"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="B818" s="56"/>
+      <c r="B818" s="57"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="B819" s="56"/>
+      <c r="B819" s="57"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="B820" s="56"/>
+      <c r="B820" s="57"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="B821" s="56"/>
+      <c r="B821" s="57"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="B822" s="56"/>
+      <c r="B822" s="57"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="B823" s="56"/>
+      <c r="B823" s="57"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="B824" s="56"/>
+      <c r="B824" s="57"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="B825" s="56"/>
+      <c r="B825" s="57"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="B826" s="56"/>
+      <c r="B826" s="57"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="B827" s="56"/>
+      <c r="B827" s="57"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="B828" s="56"/>
+      <c r="B828" s="57"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="B829" s="56"/>
+      <c r="B829" s="57"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="B830" s="56"/>
+      <c r="B830" s="57"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="B831" s="56"/>
+      <c r="B831" s="57"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="B832" s="56"/>
+      <c r="B832" s="57"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="B833" s="56"/>
+      <c r="B833" s="57"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="B834" s="56"/>
+      <c r="B834" s="57"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="B835" s="56"/>
+      <c r="B835" s="57"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="B836" s="56"/>
+      <c r="B836" s="57"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="B837" s="56"/>
+      <c r="B837" s="57"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="B838" s="56"/>
+      <c r="B838" s="57"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="B839" s="56"/>
+      <c r="B839" s="57"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="B840" s="56"/>
+      <c r="B840" s="57"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="B841" s="56"/>
+      <c r="B841" s="57"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="B842" s="56"/>
+      <c r="B842" s="57"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="B843" s="56"/>
+      <c r="B843" s="57"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="B844" s="56"/>
+      <c r="B844" s="57"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="B845" s="56"/>
+      <c r="B845" s="57"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="B846" s="56"/>
+      <c r="B846" s="57"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="B847" s="56"/>
+      <c r="B847" s="57"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="B848" s="56"/>
+      <c r="B848" s="57"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="B849" s="56"/>
+      <c r="B849" s="57"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="B850" s="56"/>
+      <c r="B850" s="57"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="B851" s="56"/>
+      <c r="B851" s="57"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="B852" s="56"/>
+      <c r="B852" s="57"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="B853" s="56"/>
+      <c r="B853" s="57"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="B854" s="56"/>
+      <c r="B854" s="57"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="B855" s="56"/>
+      <c r="B855" s="57"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="B856" s="56"/>
+      <c r="B856" s="57"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="B857" s="56"/>
+      <c r="B857" s="57"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="B858" s="56"/>
+      <c r="B858" s="57"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="B859" s="56"/>
+      <c r="B859" s="57"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="B860" s="56"/>
+      <c r="B860" s="57"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="B861" s="56"/>
+      <c r="B861" s="57"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="B862" s="56"/>
+      <c r="B862" s="57"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="B863" s="56"/>
+      <c r="B863" s="57"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="B864" s="56"/>
+      <c r="B864" s="57"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="B865" s="56"/>
+      <c r="B865" s="57"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="B866" s="56"/>
+      <c r="B866" s="57"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="B867" s="56"/>
+      <c r="B867" s="57"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="B868" s="56"/>
+      <c r="B868" s="57"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="B869" s="56"/>
+      <c r="B869" s="57"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="B870" s="56"/>
+      <c r="B870" s="57"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="B871" s="56"/>
+      <c r="B871" s="57"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="B872" s="56"/>
+      <c r="B872" s="57"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="B873" s="56"/>
+      <c r="B873" s="57"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="B874" s="56"/>
+      <c r="B874" s="57"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="B875" s="56"/>
+      <c r="B875" s="57"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="B876" s="56"/>
+      <c r="B876" s="57"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="B877" s="56"/>
+      <c r="B877" s="57"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="B878" s="56"/>
+      <c r="B878" s="57"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="B879" s="56"/>
+      <c r="B879" s="57"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="B880" s="56"/>
+      <c r="B880" s="57"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="B881" s="56"/>
+      <c r="B881" s="57"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="B882" s="56"/>
+      <c r="B882" s="57"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="B883" s="56"/>
+      <c r="B883" s="57"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="B884" s="56"/>
+      <c r="B884" s="57"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="B885" s="56"/>
+      <c r="B885" s="57"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="B886" s="56"/>
+      <c r="B886" s="57"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="B887" s="56"/>
+      <c r="B887" s="57"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="B888" s="56"/>
+      <c r="B888" s="57"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="B889" s="56"/>
+      <c r="B889" s="57"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="B890" s="56"/>
+      <c r="B890" s="57"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="B891" s="56"/>
+      <c r="B891" s="57"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="B892" s="56"/>
+      <c r="B892" s="57"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="B893" s="56"/>
+      <c r="B893" s="57"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="B894" s="56"/>
+      <c r="B894" s="57"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="B895" s="56"/>
+      <c r="B895" s="57"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="B896" s="56"/>
+      <c r="B896" s="57"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="B897" s="56"/>
+      <c r="B897" s="57"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="B898" s="56"/>
+      <c r="B898" s="57"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="B899" s="56"/>
+      <c r="B899" s="57"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="B900" s="56"/>
+      <c r="B900" s="57"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="B901" s="56"/>
+      <c r="B901" s="57"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="B902" s="56"/>
+      <c r="B902" s="57"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="B903" s="56"/>
+      <c r="B903" s="57"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="B904" s="56"/>
+      <c r="B904" s="57"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="B905" s="56"/>
+      <c r="B905" s="57"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="B906" s="56"/>
+      <c r="B906" s="57"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="B907" s="56"/>
+      <c r="B907" s="57"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="B908" s="56"/>
+      <c r="B908" s="57"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="B909" s="56"/>
+      <c r="B909" s="57"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="B910" s="56"/>
+      <c r="B910" s="57"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="B911" s="56"/>
+      <c r="B911" s="57"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="B912" s="56"/>
+      <c r="B912" s="57"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="B913" s="56"/>
+      <c r="B913" s="57"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="B914" s="56"/>
+      <c r="B914" s="57"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="B915" s="56"/>
+      <c r="B915" s="57"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="B916" s="56"/>
+      <c r="B916" s="57"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="B917" s="56"/>
+      <c r="B917" s="57"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="B918" s="56"/>
+      <c r="B918" s="57"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="B919" s="56"/>
+      <c r="B919" s="57"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="B920" s="56"/>
+      <c r="B920" s="57"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="B921" s="56"/>
+      <c r="B921" s="57"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="B922" s="56"/>
+      <c r="B922" s="57"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="B923" s="56"/>
+      <c r="B923" s="57"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="B924" s="56"/>
+      <c r="B924" s="57"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="B925" s="56"/>
+      <c r="B925" s="57"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="B926" s="56"/>
+      <c r="B926" s="57"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="B927" s="56"/>
+      <c r="B927" s="57"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="B928" s="56"/>
+      <c r="B928" s="57"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="B929" s="56"/>
+      <c r="B929" s="57"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="B930" s="56"/>
+      <c r="B930" s="57"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="B931" s="56"/>
+      <c r="B931" s="57"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="B932" s="56"/>
+      <c r="B932" s="57"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="B933" s="56"/>
+      <c r="B933" s="57"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="B934" s="56"/>
+      <c r="B934" s="57"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="B935" s="56"/>
+      <c r="B935" s="57"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="B936" s="56"/>
+      <c r="B936" s="57"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="B937" s="56"/>
+      <c r="B937" s="57"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="B938" s="56"/>
+      <c r="B938" s="57"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="B939" s="56"/>
+      <c r="B939" s="57"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="B940" s="56"/>
+      <c r="B940" s="57"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="B941" s="56"/>
+      <c r="B941" s="57"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="B942" s="56"/>
+      <c r="B942" s="57"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="B943" s="56"/>
+      <c r="B943" s="57"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="B944" s="56"/>
+      <c r="B944" s="57"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="B945" s="56"/>
+      <c r="B945" s="57"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="B946" s="56"/>
+      <c r="B946" s="57"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="B947" s="56"/>
+      <c r="B947" s="57"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="B948" s="56"/>
+      <c r="B948" s="57"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="B949" s="56"/>
+      <c r="B949" s="57"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="B950" s="56"/>
+      <c r="B950" s="57"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="B951" s="56"/>
+      <c r="B951" s="57"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="B952" s="56"/>
+      <c r="B952" s="57"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="B953" s="56"/>
+      <c r="B953" s="57"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="B954" s="56"/>
+      <c r="B954" s="57"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="B955" s="56"/>
+      <c r="B955" s="57"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="B956" s="56"/>
+      <c r="B956" s="57"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="B957" s="56"/>
+      <c r="B957" s="57"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="B958" s="56"/>
+      <c r="B958" s="57"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="B959" s="56"/>
+      <c r="B959" s="57"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="B960" s="56"/>
+      <c r="B960" s="57"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="B961" s="56"/>
+      <c r="B961" s="57"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="B962" s="56"/>
+      <c r="B962" s="57"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="B963" s="56"/>
+      <c r="B963" s="57"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="B964" s="56"/>
+      <c r="B964" s="57"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="B965" s="56"/>
+      <c r="B965" s="57"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="B966" s="56"/>
+      <c r="B966" s="57"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="B967" s="56"/>
+      <c r="B967" s="57"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="B968" s="56"/>
+      <c r="B968" s="57"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="B969" s="56"/>
+      <c r="B969" s="57"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="B970" s="56"/>
+      <c r="B970" s="57"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="B971" s="56"/>
+      <c r="B971" s="57"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="B972" s="56"/>
+      <c r="B972" s="57"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="B973" s="56"/>
+      <c r="B973" s="57"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="B974" s="56"/>
+      <c r="B974" s="57"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="B975" s="56"/>
+      <c r="B975" s="57"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="B976" s="56"/>
+      <c r="B976" s="57"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="B977" s="56"/>
+      <c r="B977" s="57"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="B978" s="56"/>
+      <c r="B978" s="57"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="B979" s="56"/>
+      <c r="B979" s="57"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="B980" s="56"/>
+      <c r="B980" s="57"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="B981" s="56"/>
+      <c r="B981" s="57"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="B982" s="56"/>
+      <c r="B982" s="57"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="B983" s="56"/>
+      <c r="B983" s="57"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="B984" s="56"/>
+      <c r="B984" s="57"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -30358,11 +30358,11 @@
       <c r="A2" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="58">
         <f>MAX(B3:B7)</f>
         <v>28.99996666</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="58">
         <f>MIN(C3:C7)</f>
         <v>7.200024</v>
       </c>
@@ -30406,7 +30406,7 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="N2" s="58">
+      <c r="N2" s="59">
         <f t="shared" si="2"/>
         <v>28.99996666</v>
       </c>
@@ -30491,7 +30491,7 @@
         <f>+'22년 드림즈(23)'!G29+'23년 상반기 코모도(23)'!G29+'23년 디비전 리그(23)'!G29</f>
         <v>51</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="60">
         <f>+'22년 드림즈(23)'!H29+'23년 상반기 코모도(23)'!H29+'23년 디비전 리그(23)'!H29</f>
         <v>6.333326666</v>
       </c>
@@ -30576,7 +30576,7 @@
         <f>+'22년 드림즈(23)'!G30+'23년 상반기 코모도(23)'!G30+'23년 디비전 리그(23)'!G30</f>
         <v>84</v>
       </c>
-      <c r="N4" s="59">
+      <c r="N4" s="60">
         <f>+'22년 드림즈(23)'!H30+'23년 상반기 코모도(23)'!H30+'23년 디비전 리그(23)'!H30</f>
         <v>12.66663333</v>
       </c>
@@ -30661,7 +30661,7 @@
         <f>+'22년 드림즈(23)'!G31+'23년 상반기 코모도(23)'!G31+'23년 디비전 리그(23)'!G31</f>
         <v>100</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="60">
         <f>+'22년 드림즈(23)'!H31+'23년 상반기 코모도(23)'!H31+'23년 디비전 리그(23)'!H31</f>
         <v>19.99993333</v>
       </c>
@@ -30746,7 +30746,7 @@
         <f>+'22년 드림즈(23)'!G32+'23년 상반기 코모도(23)'!G32+'23년 디비전 리그(23)'!G32</f>
         <v>97</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="60">
         <f>+'22년 드림즈(23)'!H32+'23년 상반기 코모도(23)'!H32+'23년 디비전 리그(23)'!H32</f>
         <v>16.33326667</v>
       </c>
@@ -30831,7 +30831,7 @@
         <f>+'22년 드림즈(23)'!G34+'23년 상반기 코모도(23)'!G34+'23년 디비전 리그(23)'!G35</f>
         <v>180</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="60">
         <f>+'22년 드림즈(23)'!H34+'23년 상반기 코모도(23)'!H34+'23년 디비전 리그(23)'!H35</f>
         <v>28.99996666</v>
       </c>
@@ -30985,40 +30985,40 @@
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="61">
         <v>5.0</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="62">
         <v>0.5</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="61">
         <v>12.0</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="61">
         <v>8.0</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="61">
         <v>4.0</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="61">
         <v>3.0</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="61">
         <v>5.0</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="61">
         <v>1.0</v>
       </c>
       <c r="J5" s="15">
         <v>4.0</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="61">
         <v>3.0</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="62">
         <v>0.5</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="62">
         <v>0.667</v>
       </c>
     </row>
@@ -31026,40 +31026,40 @@
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="61">
         <v>6.0</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="62">
         <v>0.417</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="61">
         <v>15.0</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="61">
         <v>12.0</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="61">
         <v>5.0</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="61">
         <v>8.0</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="61">
         <v>7.0</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="61">
         <v>3.0</v>
       </c>
       <c r="J6" s="15">
         <v>3.0</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="61">
         <v>2.0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="62">
         <v>0.667</v>
       </c>
-      <c r="M6" s="61">
+      <c r="M6" s="62">
         <v>0.533</v>
       </c>
     </row>
@@ -31067,40 +31067,40 @@
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="61">
         <v>1.0</v>
       </c>
-      <c r="C7" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="60">
+      <c r="C7" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="61">
         <v>4.0</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="61">
         <v>4.0</v>
       </c>
-      <c r="F7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="60">
+      <c r="F7" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="61">
         <v>3.0</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="61">
         <v>0.0</v>
       </c>
       <c r="J7" s="15">
         <v>0.0</v>
       </c>
-      <c r="K7" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="61">
+      <c r="K7" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="62">
         <v>0.0</v>
       </c>
     </row>
@@ -31108,40 +31108,40 @@
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="61">
         <v>7.0</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="62">
         <v>0.455</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="61">
         <v>17.0</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="61">
         <v>11.0</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="61">
         <v>5.0</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="61">
         <v>6.0</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="61">
         <v>4.0</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="61">
         <v>2.0</v>
       </c>
       <c r="J8" s="15">
         <v>6.0</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="61">
         <v>1.0</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="62">
         <v>0.727</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8" s="62">
         <v>0.647</v>
       </c>
     </row>
@@ -31354,40 +31354,40 @@
       <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="61">
         <v>4.0</v>
       </c>
-      <c r="C14" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="60">
+      <c r="C14" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="61">
         <v>9.0</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="61">
         <v>5.0</v>
       </c>
-      <c r="F14" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="60">
+      <c r="F14" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="61">
         <v>2.0</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="61">
         <v>1.0</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="61">
         <v>1.0</v>
       </c>
       <c r="J14" s="15">
         <v>4.0</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="61">
         <v>3.0</v>
       </c>
-      <c r="L14" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="61">
+      <c r="L14" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="62">
         <v>0.444</v>
       </c>
     </row>
@@ -31436,40 +31436,40 @@
       <c r="A16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="61">
         <v>5.0</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="62">
         <v>0.2</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="61">
         <v>8.0</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="61">
         <v>5.0</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="61">
         <v>1.0</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="61">
         <v>2.0</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="61">
         <v>1.0</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="61">
         <v>2.0</v>
       </c>
       <c r="J16" s="15">
         <v>3.0</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="61">
         <v>1.0</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="62">
         <v>0.2</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16" s="62">
         <v>0.5</v>
       </c>
     </row>
@@ -31477,40 +31477,40 @@
       <c r="A17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="60">
+      <c r="B17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="61">
         <v>0.0</v>
       </c>
       <c r="J17" s="15">
         <v>0.0</v>
       </c>
-      <c r="K17" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="61">
+      <c r="K17" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="62">
         <v>0.0</v>
       </c>
     </row>
@@ -31641,40 +31641,40 @@
       <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="61">
         <v>6.0</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="62">
         <v>0.545</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="61">
         <v>15.0</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="61">
         <v>11.0</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="61">
         <v>6.0</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="61">
         <v>7.0</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="61">
         <v>3.0</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="61">
         <v>5.0</v>
       </c>
       <c r="J21" s="15">
         <v>4.0</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="61">
         <v>2.0</v>
       </c>
-      <c r="L21" s="61">
+      <c r="L21" s="62">
         <v>0.727</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="62">
         <v>0.667</v>
       </c>
     </row>
@@ -31682,40 +31682,40 @@
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="61">
         <v>3.0</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="62">
         <v>0.167</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="61">
         <v>6.0</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="61">
         <v>6.0</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="61">
         <v>1.0</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="61">
         <v>1.0</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="61">
         <v>1.0</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="61">
         <v>0.0</v>
       </c>
       <c r="J22" s="15">
         <v>0.0</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="61">
         <v>3.0</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="62">
         <v>0.167</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22" s="62">
         <v>0.167</v>
       </c>
     </row>
@@ -31806,7 +31806,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="62">
+      <c r="C25" s="63">
         <f>+F25/E25</f>
         <v>0.3428571429</v>
       </c>
@@ -31842,43 +31842,43 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" ht="16.5" customHeight="1"/>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="3" t="s">
@@ -31952,7 +31952,7 @@
       <c r="G29" s="15">
         <v>37.0</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="60">
         <v>4.66666</v>
       </c>
       <c r="I29" s="15">
@@ -31980,52 +31980,52 @@
         <f t="shared" ref="P29:P35" si="2">+O29*9/H29</f>
         <v>19.28574184</v>
       </c>
-      <c r="Q29" s="64"/>
+      <c r="Q29" s="65"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="60">
+      <c r="B30" s="61">
         <v>4.0</v>
       </c>
-      <c r="C30" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="60">
+      <c r="C30" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="61">
         <v>1.0</v>
       </c>
-      <c r="E30" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="60">
+      <c r="E30" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="61">
         <v>28.0</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="61">
         <v>20.0</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="66">
         <v>2.3333</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="61">
         <v>6.0</v>
       </c>
-      <c r="J30" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="60">
+      <c r="J30" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="61">
         <v>6.0</v>
       </c>
-      <c r="L30" s="60">
+      <c r="L30" s="61">
         <v>1.0</v>
       </c>
-      <c r="M30" s="60">
+      <c r="M30" s="61">
         <v>4.0</v>
       </c>
-      <c r="N30" s="60">
+      <c r="N30" s="61">
         <v>12.0</v>
       </c>
-      <c r="O30" s="60">
+      <c r="O30" s="61">
         <v>5.0</v>
       </c>
       <c r="P30" s="18">
@@ -32055,7 +32055,7 @@
       <c r="G31" s="15">
         <v>36.0</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="60">
         <v>7.6666</v>
       </c>
       <c r="I31" s="15">
@@ -32106,7 +32106,7 @@
       <c r="G32" s="15">
         <v>47.0</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="60">
         <v>7.6666</v>
       </c>
       <c r="I32" s="15">
@@ -32139,46 +32139,46 @@
       <c r="A33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="60">
+      <c r="B33" s="61">
         <v>2.0</v>
       </c>
-      <c r="C33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="60">
+      <c r="C33" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="61">
         <v>2.0</v>
       </c>
-      <c r="E33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="60">
+      <c r="E33" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="61">
         <v>39.0</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="61">
         <v>30.0</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="66">
         <v>4.3333</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="61">
         <v>5.0</v>
       </c>
-      <c r="J33" s="60">
+      <c r="J33" s="61">
         <v>1.0</v>
       </c>
-      <c r="K33" s="60">
+      <c r="K33" s="61">
         <v>18.0</v>
       </c>
-      <c r="L33" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="M33" s="60">
+      <c r="L33" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="61">
         <v>3.0</v>
       </c>
-      <c r="N33" s="60">
+      <c r="N33" s="61">
         <v>19.0</v>
       </c>
-      <c r="O33" s="60">
+      <c r="O33" s="61">
         <v>12.0</v>
       </c>
       <c r="P33" s="18">
@@ -32190,46 +32190,46 @@
       <c r="A34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="60">
+      <c r="B34" s="61">
         <v>4.0</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="61">
         <v>1.0</v>
       </c>
-      <c r="D34" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="60">
+      <c r="D34" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="61">
         <v>2.0</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="61">
         <v>36.0</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="61">
         <v>30.0</v>
       </c>
-      <c r="H34" s="65">
+      <c r="H34" s="66">
         <v>7.3333</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="61">
         <v>8.0</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J34" s="61">
         <v>1.0</v>
       </c>
-      <c r="K34" s="60">
+      <c r="K34" s="61">
         <v>7.0</v>
       </c>
-      <c r="L34" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="M34" s="60">
+      <c r="L34" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="61">
         <v>8.0</v>
       </c>
-      <c r="N34" s="60">
+      <c r="N34" s="61">
         <v>11.0</v>
       </c>
-      <c r="O34" s="60">
+      <c r="O34" s="61">
         <v>10.0</v>
       </c>
       <c r="P34" s="18">
@@ -33291,953 +33291,953 @@
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="67" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="68">
         <v>2.0</v>
       </c>
-      <c r="C4" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="67">
+      <c r="C4" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="68">
         <v>1.0</v>
       </c>
-      <c r="J4" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="68">
+      <c r="J4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="69">
         <v>0.0</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="68">
         <v>4.0</v>
       </c>
-      <c r="C5" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="67">
+      <c r="C5" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="68">
         <v>7.0</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="68">
         <v>3.0</v>
       </c>
-      <c r="F5" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="67">
+      <c r="F5" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="68">
         <v>1.0</v>
       </c>
-      <c r="H5" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="67">
+      <c r="H5" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="68">
         <v>4.0</v>
       </c>
-      <c r="K5" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="68">
+      <c r="K5" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="69">
         <v>0.571</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="68">
         <v>9.0</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="69">
         <v>0.474</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="68">
         <v>24.0</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="68">
         <v>19.0</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="68">
         <v>9.0</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="68">
         <v>9.0</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="68">
         <v>9.0</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="68">
         <v>7.0</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="68">
         <v>5.0</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="68">
         <v>2.0</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="69">
         <v>0.579</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="69">
         <v>0.583</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="68">
+      <c r="B7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="69">
         <v>0.0</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="68">
         <v>9.0</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="69">
         <v>0.25</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="68">
         <v>26.0</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="68">
         <v>20.0</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="68">
         <v>5.0</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="68">
         <v>7.0</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="68">
         <v>7.0</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="68">
         <v>4.0</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="68">
         <v>6.0</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="68">
         <v>5.0</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="69">
         <v>0.45</v>
       </c>
-      <c r="M8" s="68">
+      <c r="M8" s="69">
         <v>0.423</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="68">
         <v>4.0</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="69">
         <v>0.2</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="68">
         <v>6.0</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="68">
         <v>5.0</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="68">
         <v>1.0</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="68">
         <v>2.0</v>
       </c>
-      <c r="H9" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="67">
+      <c r="H9" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="68">
         <v>1.0</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="68">
         <v>1.0</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="68">
         <v>1.0</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="69">
         <v>0.2</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="69">
         <v>0.333</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="68">
         <v>9.0</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="69">
         <v>0.542</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="68">
         <v>31.0</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="68">
         <v>24.0</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="68">
         <v>13.0</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="68">
         <v>16.0</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="68">
         <v>8.0</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="68">
         <v>16.0</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="68">
         <v>7.0</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="68">
         <v>2.0</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="69">
         <v>0.833</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="69">
         <v>0.645</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="68">
         <v>4.0</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="69">
         <v>0.333</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="68">
         <v>7.0</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="68">
         <v>6.0</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="68">
         <v>2.0</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="68">
         <v>3.0</v>
       </c>
-      <c r="H11" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="67">
+      <c r="H11" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="68">
         <v>3.0</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="68">
         <v>1.0</v>
       </c>
-      <c r="K11" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="68">
+      <c r="K11" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="69">
         <v>0.333</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="69">
         <v>0.429</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="68">
         <v>2.0</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="69">
         <v>0.333</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="68">
         <v>3.0</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="68">
         <v>3.0</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="68">
         <v>1.0</v>
       </c>
-      <c r="G12" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="67">
+      <c r="G12" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="68">
         <v>1.0</v>
       </c>
-      <c r="J12" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="68">
+      <c r="J12" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="69">
         <v>0.333</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="69">
         <v>0.333</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="68">
         <v>10.0</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="69">
         <v>0.435</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="68">
         <v>25.0</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="68">
         <v>23.0</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="68">
         <v>10.0</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="68">
         <v>6.0</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="68">
         <v>10.0</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="68">
         <v>5.0</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="68">
         <v>1.0</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="68">
         <v>3.0</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="69">
         <v>0.609</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="69">
         <v>0.44</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="68">
         <v>3.0</v>
       </c>
-      <c r="C14" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="67">
+      <c r="C14" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="68">
         <v>7.0</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="68">
         <v>5.0</v>
       </c>
-      <c r="F14" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="67">
+      <c r="F14" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="68">
         <v>2.0</v>
       </c>
-      <c r="H14" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="67">
+      <c r="H14" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="68">
         <v>1.0</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="68">
         <v>2.0</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="68">
         <v>3.0</v>
       </c>
-      <c r="L14" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="68">
+      <c r="L14" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="69">
         <v>0.286</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="68">
         <v>6.0</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="69">
         <v>0.222</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="68">
         <v>13.0</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="68">
         <v>9.0</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="68">
         <v>2.0</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="68">
         <v>1.0</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="68">
         <v>3.0</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="68">
         <v>1.0</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="68">
         <v>3.0</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="68">
         <v>5.0</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="69">
         <v>0.222</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="69">
         <v>0.417</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="68">
         <v>2.0</v>
       </c>
-      <c r="C16" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="67">
+      <c r="C16" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="68">
         <v>1.0</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="68">
         <v>1.0</v>
       </c>
-      <c r="F16" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="M16" s="68">
+      <c r="F16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="69">
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="68">
         <v>2.0</v>
       </c>
-      <c r="C17" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="67">
+      <c r="C17" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="68">
         <v>5.0</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="68">
         <v>3.0</v>
       </c>
-      <c r="F17" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="67">
+      <c r="F17" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="68">
         <v>2.0</v>
       </c>
-      <c r="H17" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="67">
+      <c r="H17" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="68">
         <v>2.0</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="68">
         <v>2.0</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="68">
         <v>1.0</v>
       </c>
-      <c r="L17" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="68">
+      <c r="L17" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="69">
         <v>0.4</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="68">
         <v>7.0</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="69">
         <v>0.611</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="68">
         <v>21.0</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="68">
         <v>18.0</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="68">
         <v>11.0</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="68">
         <v>6.0</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="68">
         <v>6.0</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="68">
         <v>3.0</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="68">
         <v>3.0</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="68">
         <v>2.0</v>
       </c>
-      <c r="L18" s="68">
+      <c r="L18" s="69">
         <v>0.778</v>
       </c>
-      <c r="M18" s="68">
+      <c r="M18" s="69">
         <v>0.667</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="68">
         <v>6.0</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="69">
         <v>0.286</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="68">
         <v>15.0</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="68">
         <v>14.0</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="68">
         <v>4.0</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="68">
         <v>2.0</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="68">
         <v>3.0</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="68">
         <v>2.0</v>
       </c>
-      <c r="J19" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="67">
+      <c r="J19" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="68">
         <v>1.0</v>
       </c>
-      <c r="L19" s="68">
+      <c r="L19" s="69">
         <v>0.286</v>
       </c>
-      <c r="M19" s="68">
+      <c r="M19" s="69">
         <v>0.267</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="68">
         <v>5.0</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="69">
         <v>0.143</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="68">
         <v>8.0</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="68">
         <v>7.0</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="68">
         <v>1.0</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="68">
         <v>1.0</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="68">
         <v>4.0</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="68">
         <v>2.0</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="68">
         <v>1.0</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="68">
         <v>3.0</v>
       </c>
-      <c r="L20" s="68">
+      <c r="L20" s="69">
         <v>0.143</v>
       </c>
-      <c r="M20" s="68">
+      <c r="M20" s="69">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="68">
         <v>10.0</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="69">
         <v>0.304</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="68">
         <v>25.0</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="68">
         <v>23.0</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="68">
         <v>7.0</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="68">
         <v>9.0</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="68">
         <v>5.0</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="68">
         <v>3.0</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="68">
         <v>2.0</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="68">
         <v>3.0</v>
       </c>
-      <c r="L21" s="68">
+      <c r="L21" s="69">
         <v>0.478</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="69">
         <v>0.36</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="68">
         <v>6.0</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="69">
         <v>0.571</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="68">
         <v>9.0</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="68">
         <v>7.0</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="68">
         <v>4.0</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="68">
         <v>3.0</v>
       </c>
-      <c r="H22" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="67">
+      <c r="H22" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="68">
         <v>4.0</v>
       </c>
-      <c r="J22" s="67">
+      <c r="J22" s="68">
         <v>2.0</v>
       </c>
-      <c r="K22" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="68">
+      <c r="K22" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="69">
         <v>0.571</v>
       </c>
-      <c r="M22" s="68">
+      <c r="M22" s="69">
         <v>0.667</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="68">
         <v>5.0</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="69">
         <v>0.4</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="68">
         <v>14.0</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="68">
         <v>10.0</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="68">
         <v>4.0</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="68">
         <v>4.0</v>
       </c>
-      <c r="H23" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="67">
+      <c r="H23" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="68">
         <v>4.0</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="68">
         <v>4.0</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="68">
         <v>2.0</v>
       </c>
-      <c r="L23" s="68">
+      <c r="L23" s="69">
         <v>0.4</v>
       </c>
-      <c r="M23" s="68">
+      <c r="M23" s="69">
         <v>0.571</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="68">
         <v>5.0</v>
       </c>
-      <c r="C24" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="67">
+      <c r="C24" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="68">
         <v>9.0</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="68">
         <v>7.0</v>
       </c>
-      <c r="F24" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="67">
+      <c r="F24" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="68">
         <v>1.0</v>
       </c>
-      <c r="H24" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="67">
+      <c r="H24" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="68">
         <v>2.0</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="68">
         <v>1.0</v>
       </c>
-      <c r="L24" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="M24" s="68">
+      <c r="L24" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="69">
         <v>0.222</v>
       </c>
     </row>
@@ -34246,7 +34246,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="62">
+      <c r="C25" s="63">
         <f>+F25/E25</f>
         <v>0.3574879227</v>
       </c>
@@ -34282,8 +34282,8 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" ht="16.5" customHeight="1"/>
     <row r="27" ht="16.5" customHeight="1">
@@ -34292,356 +34292,356 @@
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="66" t="s">
+      <c r="I28" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="66" t="s">
+      <c r="K28" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="L28" s="66" t="s">
+      <c r="L28" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="M28" s="66" t="s">
+      <c r="M28" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="N28" s="66" t="s">
+      <c r="N28" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="66" t="s">
+      <c r="O28" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="P28" s="66" t="s">
+      <c r="P28" s="67" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="68">
         <v>3.0</v>
       </c>
-      <c r="C29" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="67">
+      <c r="C29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="68">
         <v>12.0</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="68">
         <v>6.0</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="70">
         <v>0.666666666</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="68">
         <v>2.0</v>
       </c>
-      <c r="J29" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="67">
+      <c r="J29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="68">
         <v>5.0</v>
       </c>
-      <c r="L29" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="M29" s="67">
+      <c r="L29" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="68">
         <v>1.0</v>
       </c>
-      <c r="N29" s="67">
+      <c r="N29" s="68">
         <v>4.0</v>
       </c>
-      <c r="O29" s="67">
+      <c r="O29" s="68">
         <v>1.0</v>
       </c>
-      <c r="P29" s="70">
+      <c r="P29" s="71">
         <f t="shared" ref="P29:P32" si="2">+O29*9/H29</f>
         <v>13.50000001</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="67">
+      <c r="B30" s="68">
         <v>5.0</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="68">
         <v>1.0</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="68">
         <v>1.0</v>
       </c>
-      <c r="E30" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="67">
+      <c r="E30" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="68">
         <v>85.0</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="68">
         <v>64.0</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="70">
         <v>10.33333333</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="68">
         <v>27.0</v>
       </c>
-      <c r="J30" s="67">
+      <c r="J30" s="68">
         <v>3.0</v>
       </c>
-      <c r="K30" s="67">
+      <c r="K30" s="68">
         <v>17.0</v>
       </c>
-      <c r="L30" s="67">
+      <c r="L30" s="68">
         <v>4.0</v>
       </c>
-      <c r="M30" s="67">
+      <c r="M30" s="68">
         <v>7.0</v>
       </c>
-      <c r="N30" s="67">
+      <c r="N30" s="68">
         <v>36.0</v>
       </c>
-      <c r="O30" s="67">
+      <c r="O30" s="68">
         <v>27.0</v>
       </c>
-      <c r="P30" s="70">
+      <c r="P30" s="71">
         <f t="shared" si="2"/>
         <v>23.51612904</v>
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="67">
+      <c r="B31" s="68">
         <v>6.0</v>
       </c>
-      <c r="C31" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="67">
+      <c r="C31" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="68">
         <v>2.0</v>
       </c>
-      <c r="E31" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="67">
+      <c r="E31" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="68">
         <v>54.0</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="68">
         <v>49.0</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="70">
         <v>9.33333333333</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="68">
         <v>13.0</v>
       </c>
-      <c r="J31" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K31" s="67">
+      <c r="J31" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="68">
         <v>5.0</v>
       </c>
-      <c r="L31" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="M31" s="67">
+      <c r="L31" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="68">
         <v>17.0</v>
       </c>
-      <c r="N31" s="67">
+      <c r="N31" s="68">
         <v>12.0</v>
       </c>
-      <c r="O31" s="67">
+      <c r="O31" s="68">
         <v>4.0</v>
       </c>
-      <c r="P31" s="70">
+      <c r="P31" s="71">
         <f t="shared" si="2"/>
         <v>3.857142857</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="67">
+      <c r="B32" s="68">
         <v>3.0</v>
       </c>
-      <c r="C32" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="67">
+      <c r="C32" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="68">
         <v>1.0</v>
       </c>
-      <c r="E32" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="67">
+      <c r="E32" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="68">
         <v>33.0</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="68">
         <v>24.0</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="70">
         <v>4.6666666666</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="68">
         <v>7.0</v>
       </c>
-      <c r="J32" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="67">
+      <c r="J32" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="68">
         <v>8.0</v>
       </c>
-      <c r="L32" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="M32" s="67">
+      <c r="L32" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="68">
         <v>2.0</v>
       </c>
-      <c r="N32" s="67">
+      <c r="N32" s="68">
         <v>11.0</v>
       </c>
-      <c r="O32" s="67">
+      <c r="O32" s="68">
         <v>5.0</v>
       </c>
-      <c r="P32" s="70">
+      <c r="P32" s="71">
         <f t="shared" si="2"/>
         <v>9.642857143</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="L33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="M33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="N33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="O33" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="P33" s="70">
+      <c r="B33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="O33" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="P33" s="71">
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="67">
+      <c r="B34" s="68">
         <v>6.0</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="68">
         <v>2.0</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="68">
         <v>2.0</v>
       </c>
-      <c r="E34" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="67">
+      <c r="E34" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="68">
         <v>97.0</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="68">
         <v>74.0</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="70">
         <v>14.33333333</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="68">
         <v>27.0</v>
       </c>
-      <c r="J34" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="K34" s="67">
+      <c r="J34" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="68">
         <v>17.0</v>
       </c>
-      <c r="L34" s="67">
+      <c r="L34" s="68">
         <v>6.0</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="68">
         <v>16.0</v>
       </c>
-      <c r="N34" s="67">
+      <c r="N34" s="68">
         <v>32.0</v>
       </c>
-      <c r="O34" s="67">
+      <c r="O34" s="68">
         <v>27.0</v>
       </c>
-      <c r="P34" s="70">
+      <c r="P34" s="71">
         <f t="shared" ref="P34:P35" si="4">+O34*9/H34</f>
         <v>16.95348838</v>
       </c>
@@ -34703,7 +34703,7 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="P35" s="71">
+      <c r="P35" s="72">
         <f t="shared" si="4"/>
         <v>14.6440678</v>
       </c>
